--- a/TaichungCityCOVID19/file/upload_template.xlsx
+++ b/TaichungCityCOVID19/file/upload_template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jillyz.github.io.git\居家照護個案評估管理系統\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jillyz.github.io.git\TaichungCityCOVID19\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B20610B4-4A7F-4A98-9D13-B6893783CAF2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DFC1C19-26CD-47FA-8AB9-982A43A4F953}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>編號</t>
   </si>
@@ -28,9 +28,6 @@
     <t>案號</t>
   </si>
   <si>
-    <t>個案研判日期(時間)(民國)</t>
-  </si>
-  <si>
     <t>傳染病報告單電腦編號</t>
   </si>
   <si>
@@ -49,12 +46,6 @@
     <t>居住詳細地址(完整)</t>
   </si>
   <si>
-    <t>住家電話</t>
-  </si>
-  <si>
-    <t>公司電話</t>
-  </si>
-  <si>
     <t>女</t>
   </si>
   <si>
@@ -64,28 +55,161 @@
     <t>1110300376077</t>
   </si>
   <si>
-    <t>0937941025,0937941025</t>
-  </si>
-  <si>
-    <t>陳思佑</t>
-  </si>
-  <si>
-    <t>台中市西區精誠29街23號6樓之2</t>
-  </si>
-  <si>
     <t>出生年月日</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>111/04/18 15:41:23</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>80/04/19</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>西區</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>聯絡電話</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>111/04/18</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>個案研判日期</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>民國</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>個案研判日期時間</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1111042000001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0937941025</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11:48:23</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陳小明</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>台中市西區精誠</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>29</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>街</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>23</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>號</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>樓之</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -93,7 +217,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -124,6 +248,13 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="5">
@@ -166,23 +297,35 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -468,96 +611,100 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="8.42578125" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" customWidth="1"/>
-    <col min="6" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.5703125" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="1" customWidth="1"/>
+    <col min="7" max="8" width="15" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="4.5703125" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:12" s="6" customFormat="1" ht="13.5">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="8" customFormat="1" ht="13.5">
+      <c r="A2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="1">
+        <v>33</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" s="1" customFormat="1" ht="13.5">
-      <c r="A2"/>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="4" t="s">
+      <c r="K2" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="H2">
-        <v>33</v>
-      </c>
-      <c r="I2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -566,8 +713,8 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <ignoredErrors>
-    <ignoredError sqref="G2" twoDigitTextYear="1"/>
-    <ignoredError sqref="D2" numberStoredAsText="1"/>
+    <ignoredError sqref="H2" twoDigitTextYear="1"/>
+    <ignoredError sqref="E2 A2 L2" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/TaichungCityCOVID19/file/upload_template.xlsx
+++ b/TaichungCityCOVID19/file/upload_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jillyz.github.io.git\TaichungCityCOVID19\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DFC1C19-26CD-47FA-8AB9-982A43A4F953}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54C44CB5-820B-4542-8E05-D1892ED54F2F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>編號</t>
   </si>
@@ -49,9 +49,6 @@
     <t>女</t>
   </si>
   <si>
-    <t>案37079</t>
-  </si>
-  <si>
     <t>1110300376077</t>
   </si>
   <si>
@@ -114,10 +111,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>個案研判日期時間</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>1111042000001</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -126,10 +119,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>11:48:23</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>陳小明</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -210,6 +199,10 @@
       </rPr>
       <t>2</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>37079</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -608,10 +601,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -619,19 +612,18 @@
     <col min="1" max="1" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="18.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" style="1" customWidth="1"/>
-    <col min="7" max="8" width="15" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="30.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="4.5703125" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
+    <col min="6" max="7" width="15" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="4.5703125" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="6" customFormat="1" ht="13.5">
+    <row r="1" spans="1:11" s="6" customFormat="1" ht="13.5">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -639,72 +631,66 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="8" customFormat="1" ht="13.5">
+      <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="B2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="1">
+        <v>33</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" s="8" customFormat="1" ht="13.5">
-      <c r="A2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="1">
-        <v>33</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -713,8 +699,8 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <ignoredErrors>
-    <ignoredError sqref="H2" twoDigitTextYear="1"/>
-    <ignoredError sqref="E2 A2 L2" numberStoredAsText="1"/>
+    <ignoredError sqref="G2" twoDigitTextYear="1"/>
+    <ignoredError sqref="D2 A2 K2" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/TaichungCityCOVID19/file/upload_template.xlsx
+++ b/TaichungCityCOVID19/file/upload_template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20384"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20385"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jillyz.github.io.git\TaichungCityCOVID19\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54C44CB5-820B-4542-8E05-D1892ED54F2F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5AB7FC1-797F-4CF4-B752-E5002E0DC9EE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
-  <si>
-    <t>編號</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>案號</t>
   </si>
@@ -108,10 +105,6 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1111042000001</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -601,37 +594,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
-    <col min="6" max="7" width="15" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="4.5703125" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="11.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="1" customWidth="1"/>
+    <col min="5" max="6" width="15" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="4.5703125" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="6" customFormat="1" ht="13.5">
+    <row r="1" spans="1:10" s="6" customFormat="1" ht="13.5">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>15</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>2</v>
@@ -640,10 +632,10 @@
         <v>3</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>4</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>10</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>5</v>
@@ -651,46 +643,40 @@
       <c r="I1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="8" customFormat="1" ht="13.5">
+      <c r="A2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="1">
+        <v>33</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" s="8" customFormat="1" ht="13.5">
-      <c r="A2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="1">
-        <v>33</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" s="2" t="s">
+      <c r="I2" s="9" t="s">
         <v>17</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -699,8 +685,8 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <ignoredErrors>
-    <ignoredError sqref="G2" twoDigitTextYear="1"/>
-    <ignoredError sqref="D2 A2 K2" numberStoredAsText="1"/>
+    <ignoredError sqref="F2" twoDigitTextYear="1"/>
+    <ignoredError sqref="C2 J2 A2" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/TaichungCityCOVID19/file/upload_template.xlsx
+++ b/TaichungCityCOVID19/file/upload_template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jillyz.github.io.git\TaichungCityCOVID19\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\tccg_homecare\Templet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5AB7FC1-797F-4CF4-B752-E5002E0DC9EE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1905FBB-24D5-431B-92E6-E2A72DD4E4FE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,55 +20,205 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+  <si>
+    <t>女</t>
+  </si>
+  <si>
+    <t>案37079</t>
+  </si>
+  <si>
+    <t>1110300376077</t>
+  </si>
+  <si>
+    <t>80/04/19</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>西區</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>聯絡電話</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>111/04/18</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0937941025</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陳小明</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>台中市西區精誠</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>29</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>街</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>23</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>號</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>樓之</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>居住鄉鎮</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>姓名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>完整</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
   <si>
     <t>案號</t>
-  </si>
-  <si>
-    <t>傳染病報告單電腦編號</t>
-  </si>
-  <si>
-    <t>居住鄉鎮</t>
-  </si>
-  <si>
-    <t>姓名(完整)</t>
-  </si>
-  <si>
-    <t>診斷年齡(足歲)</t>
-  </si>
-  <si>
-    <t>性別</t>
-  </si>
-  <si>
-    <t>居住詳細地址(完整)</t>
-  </si>
-  <si>
-    <t>女</t>
-  </si>
-  <si>
-    <t>1110300376077</t>
-  </si>
-  <si>
-    <t>出生年月日</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>80/04/19</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>西區</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>聯絡電話</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>111/04/18</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>*</t>
+    </r>
     <r>
       <rPr>
         <sz val="10"/>
@@ -84,6 +234,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>(</t>
     </r>
@@ -102,100 +253,230 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>0937941025</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>陳小明</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>台中市西區精誠</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>29</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>街</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>23</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>號</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>樓之</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>37079</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>傳染病報告單電腦編號</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>診斷年齡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>足歲</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>性別</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>居住詳細地址</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>完整</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>身分證字號</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A123456789</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>出生年月日</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>民國</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -203,7 +484,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -241,6 +522,12 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="136"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -296,9 +583,6 @@
     <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -312,6 +596,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -594,10 +881,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -606,78 +893,99 @@
     <col min="2" max="2" width="18.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" style="1" customWidth="1"/>
-    <col min="5" max="6" width="15" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" style="1" customWidth="1"/>
     <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="4.5703125" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="4.5703125" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="6" customFormat="1" ht="13.5">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:11" s="5" customFormat="1" ht="13.5">
+      <c r="A1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="7" customFormat="1" ht="13.5">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="D2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="8" customFormat="1" ht="13.5">
-      <c r="A2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="G2" s="1">
         <v>33</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>15</v>
-      </c>
+    </row>
+    <row r="3" spans="1:11" s="7" customFormat="1" ht="13.5">
+      <c r="A3" s="8"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -686,7 +994,7 @@
   <headerFooter alignWithMargins="0"/>
   <ignoredErrors>
     <ignoredError sqref="F2" twoDigitTextYear="1"/>
-    <ignoredError sqref="C2 J2 A2" numberStoredAsText="1"/>
+    <ignoredError sqref="C2 K2" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/TaichungCityCOVID19/file/upload_template.xlsx
+++ b/TaichungCityCOVID19/file/upload_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20385"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\tccg_homecare\Templet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jill的本機檔案/jillyz.github.io/jillyz.github.io/TaichungCityCOVID19/file/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1905FBB-24D5-431B-92E6-E2A72DD4E4FE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16B5FC89-11D8-0948-BDE9-FC97AAB736FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="台中" sheetId="1" r:id="rId1"/>
@@ -20,13 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
-  <si>
-    <t>女</t>
-  </si>
-  <si>
-    <t>案37079</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>1110300376077</t>
   </si>
@@ -47,10 +41,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>0937941025</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>陳小明</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -58,85 +48,6 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>台中市西區精誠</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>29</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>街</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>23</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>號</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>樓之</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
         <color rgb="FFFF0000"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -477,6 +388,54 @@
       </rPr>
       <t>)</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>37079</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0980666999</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>台中市西區精誠5街</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>號5樓之1</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>男</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -884,97 +843,97 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="15" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="4.5703125" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="6" width="16.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5" style="1" customWidth="1"/>
+    <col min="12" max="12" width="4.5" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="5" customFormat="1" ht="13.5">
+    <row r="1" spans="1:11" s="5" customFormat="1" ht="16">
       <c r="A1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="J1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="9" t="s">
+      <c r="K1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="7" customFormat="1" ht="16">
+      <c r="A2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="I2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="2" spans="1:11" s="7" customFormat="1" ht="13.5">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="1">
-        <v>33</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" s="7" customFormat="1" ht="13.5">
+    <row r="3" spans="1:11" s="7" customFormat="1" ht="16">
       <c r="A3" s="8"/>
       <c r="B3" s="2"/>
       <c r="C3" s="1"/>
@@ -994,7 +953,7 @@
   <headerFooter alignWithMargins="0"/>
   <ignoredErrors>
     <ignoredError sqref="F2" twoDigitTextYear="1"/>
-    <ignoredError sqref="C2 K2" numberStoredAsText="1"/>
+    <ignoredError sqref="C2 A2 G2 K2" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/TaichungCityCOVID19/file/upload_template.xlsx
+++ b/TaichungCityCOVID19/file/upload_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20385"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jill的本機檔案/jillyz.github.io/jillyz.github.io/TaichungCityCOVID19/file/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jillyz.github.io.git\TaichungCityCOVID19\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16B5FC89-11D8-0948-BDE9-FC97AAB736FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{240C92F6-A3E1-4A3A-8017-56CF1F7279D4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="台中" sheetId="1" r:id="rId1"/>
@@ -33,10 +33,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>聯絡電話</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>111/04/18</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -117,10 +113,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>案號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -391,10 +383,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>37079</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>0980666999</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -436,6 +424,83 @@
   </si>
   <si>
     <t>男</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>聯絡電話</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>發病日或採檢日期</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>民國</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>111/04/17</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -443,7 +508,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -487,6 +552,13 @@
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="5">
@@ -843,67 +915,67 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="15" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5" style="1" customWidth="1"/>
-    <col min="12" max="12" width="4.5" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.1640625" style="1"/>
+    <col min="6" max="6" width="16.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="4.42578125" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="5" customFormat="1" ht="16">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:11" s="5" customFormat="1" ht="13.5">
+      <c r="A1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="D1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="H1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>13</v>
-      </c>
       <c r="K1" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="7" customFormat="1" ht="13.5">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" s="7" customFormat="1" ht="16">
-      <c r="A2" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>0</v>
@@ -912,29 +984,29 @@
         <v>2</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>18</v>
-      </c>
     </row>
-    <row r="3" spans="1:11" s="7" customFormat="1" ht="16">
-      <c r="A3" s="8"/>
+    <row r="3" spans="1:11" s="7" customFormat="1" ht="13.5">
+      <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="1"/>
       <c r="D3" s="6"/>
@@ -953,7 +1025,7 @@
   <headerFooter alignWithMargins="0"/>
   <ignoredErrors>
     <ignoredError sqref="F2" twoDigitTextYear="1"/>
-    <ignoredError sqref="C2 A2 G2 K2" numberStoredAsText="1"/>
+    <ignoredError sqref="C2 G2 K2" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/TaichungCityCOVID19/file/upload_template.xlsx
+++ b/TaichungCityCOVID19/file/upload_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jillyz.github.io.git\TaichungCityCOVID19\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{281EA0F7-A51C-456A-BF39-D49037923DD1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22B4928F-1C69-43BD-85AF-8E2E85B43B15}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>1110300376077</t>
   </si>
@@ -476,56 +476,6 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t>採檢日</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>民國</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
       <t>身分證字號</t>
     </r>
     <r>
@@ -595,6 +545,47 @@
   </si>
   <si>
     <t>0423208877</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>採檢日</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>民國</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1008,7 +999,7 @@
   <dimension ref="A1:N731"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -1038,7 +1029,7 @@
         <v>19</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>8</v>
@@ -1056,7 +1047,7 @@
         <v>9</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J1" s="8" t="s">
         <v>10</v>
@@ -1065,13 +1056,13 @@
         <v>11</v>
       </c>
       <c r="L1" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="N1" s="9" t="s">
         <v>23</v>
-      </c>
-      <c r="N1" s="9" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="6" customFormat="1" ht="13.5">
@@ -1081,9 +1072,7 @@
       <c r="B2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="C2" s="2"/>
       <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1112,10 +1101,10 @@
         <v>14</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:14" s="6" customFormat="1" ht="13.5">

--- a/TaichungCityCOVID19/file/upload_template.xlsx
+++ b/TaichungCityCOVID19/file/upload_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jillyz.github.io.git\TaichungCityCOVID19\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22B4928F-1C69-43BD-85AF-8E2E85B43B15}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B583404-9D70-41D5-82B6-DAF21937AAC7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>1110300376077</t>
   </si>
@@ -999,7 +999,7 @@
   <dimension ref="A1:N731"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -1072,7 +1072,9 @@
       <c r="B2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="D2" s="1" t="s">
         <v>0</v>
       </c>

--- a/TaichungCityCOVID19/file/upload_template.xlsx
+++ b/TaichungCityCOVID19/file/upload_template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jillyz.github.io.git\TaichungCityCOVID19\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ansel\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B583404-9D70-41D5-82B6-DAF21937AAC7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83196487-1089-4903-90C0-7146E233E998}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>1110300376077</t>
   </si>
@@ -588,12 +588,16 @@
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>*手機/住家/公司電話請至少填寫一項</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -644,6 +648,13 @@
       <family val="2"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="MingLiU"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -685,7 +696,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -715,6 +726,12 @@
     </xf>
     <xf numFmtId="49" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -996,10 +1013,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N731"/>
+  <dimension ref="A1:R731"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -1017,11 +1034,11 @@
     <col min="12" max="12" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.42578125" style="1" customWidth="1"/>
     <col min="14" max="14" width="13.42578125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="4.42578125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="37.7109375" style="1" customWidth="1"/>
     <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="4" customFormat="1" ht="13.5">
+    <row r="1" spans="1:18" s="4" customFormat="1" ht="13.5">
       <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
@@ -1064,8 +1081,14 @@
       <c r="N1" s="9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" s="6" customFormat="1" ht="13.5">
+      <c r="O1" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+    </row>
+    <row r="2" spans="1:18" s="6" customFormat="1" ht="13.5">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -1109,7 +1132,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="6" customFormat="1" ht="13.5">
+    <row r="3" spans="1:18" s="6" customFormat="1" ht="13.5">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1125,7 +1148,7 @@
       <c r="M3" s="7"/>
       <c r="N3" s="7"/>
     </row>
-    <row r="4" spans="1:14" ht="13.5">
+    <row r="4" spans="1:18" ht="13.5">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1140,7 +1163,7 @@
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
     </row>
-    <row r="5" spans="1:14" ht="13.5">
+    <row r="5" spans="1:18" ht="13.5">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -1155,7 +1178,7 @@
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
     </row>
-    <row r="6" spans="1:14" ht="13.5">
+    <row r="6" spans="1:18" ht="13.5">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -1170,7 +1193,7 @@
       <c r="M6" s="7"/>
       <c r="N6" s="7"/>
     </row>
-    <row r="7" spans="1:14" ht="13.5">
+    <row r="7" spans="1:18" ht="13.5">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -1185,7 +1208,7 @@
       <c r="M7" s="7"/>
       <c r="N7" s="7"/>
     </row>
-    <row r="8" spans="1:14" ht="13.5">
+    <row r="8" spans="1:18" ht="13.5">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -1200,7 +1223,7 @@
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
     </row>
-    <row r="9" spans="1:14" ht="13.5">
+    <row r="9" spans="1:18" ht="13.5">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -1215,7 +1238,7 @@
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
     </row>
-    <row r="10" spans="1:14" ht="13.5">
+    <row r="10" spans="1:18" ht="13.5">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1230,7 +1253,7 @@
       <c r="M10" s="7"/>
       <c r="N10" s="7"/>
     </row>
-    <row r="11" spans="1:14" ht="13.5">
+    <row r="11" spans="1:18" ht="13.5">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -1245,7 +1268,7 @@
       <c r="M11" s="7"/>
       <c r="N11" s="7"/>
     </row>
-    <row r="12" spans="1:14" ht="13.5">
+    <row r="12" spans="1:18" ht="13.5">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1260,7 +1283,7 @@
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
     </row>
-    <row r="13" spans="1:14" ht="13.5">
+    <row r="13" spans="1:18" ht="13.5">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1275,7 +1298,7 @@
       <c r="M13" s="7"/>
       <c r="N13" s="7"/>
     </row>
-    <row r="14" spans="1:14" ht="13.5">
+    <row r="14" spans="1:18" ht="13.5">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -1290,7 +1313,7 @@
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
     </row>
-    <row r="15" spans="1:14" ht="13.5">
+    <row r="15" spans="1:18" ht="13.5">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1305,7 +1328,7 @@
       <c r="M15" s="7"/>
       <c r="N15" s="7"/>
     </row>
-    <row r="16" spans="1:14" ht="13.5">
+    <row r="16" spans="1:18" ht="13.5">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>

--- a/TaichungCityCOVID19/file/upload_template.xlsx
+++ b/TaichungCityCOVID19/file/upload_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20385"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ansel\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jill的本機檔案/jillyz.github.io/jillyz.github.io/TaichungCityCOVID19/file/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83196487-1089-4903-90C0-7146E233E998}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E425AE3E-91D3-4040-8135-C8CBB54FB162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="台中" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>1110300376077</t>
   </si>
@@ -426,56 +426,6 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t>發病日</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>民國</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
       <t>身分證字號</t>
     </r>
     <r>
@@ -548,6 +498,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>*手機/住家/公司電話請至少填寫一項</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>*</t>
+    </r>
     <r>
       <rPr>
         <sz val="10"/>
@@ -589,7 +552,44 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>*手機/住家/公司電話請至少填寫一項</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>發病日</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>民國</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1016,34 +1016,34 @@
   <dimension ref="A1:R731"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="18.140625" style="1" customWidth="1"/>
-    <col min="2" max="3" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.1640625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="15" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="30.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.42578125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="37.7109375" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="7" width="16.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.5" style="1" customWidth="1"/>
+    <col min="14" max="14" width="13.5" style="1" customWidth="1"/>
+    <col min="15" max="15" width="37.6640625" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="4" customFormat="1" ht="13.5">
+    <row r="1" spans="1:18" s="4" customFormat="1" ht="16">
       <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>26</v>
@@ -1064,7 +1064,7 @@
         <v>9</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J1" s="8" t="s">
         <v>10</v>
@@ -1073,22 +1073,22 @@
         <v>11</v>
       </c>
       <c r="L1" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="N1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="N1" s="9" t="s">
-        <v>23</v>
-      </c>
       <c r="O1" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="P1" s="11"/>
       <c r="Q1" s="11"/>
       <c r="R1" s="11"/>
     </row>
-    <row r="2" spans="1:18" s="6" customFormat="1" ht="13.5">
+    <row r="2" spans="1:18" s="6" customFormat="1" ht="16">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -1126,13 +1126,13 @@
         <v>14</v>
       </c>
       <c r="M2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="N2" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" s="6" customFormat="1" ht="13.5">
+    </row>
+    <row r="3" spans="1:18" s="6" customFormat="1" ht="16">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1148,7 +1148,7 @@
       <c r="M3" s="7"/>
       <c r="N3" s="7"/>
     </row>
-    <row r="4" spans="1:18" ht="13.5">
+    <row r="4" spans="1:18" ht="16">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1163,7 +1163,7 @@
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
     </row>
-    <row r="5" spans="1:18" ht="13.5">
+    <row r="5" spans="1:18" ht="16">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -1178,7 +1178,7 @@
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
     </row>
-    <row r="6" spans="1:18" ht="13.5">
+    <row r="6" spans="1:18" ht="16">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -1193,7 +1193,7 @@
       <c r="M6" s="7"/>
       <c r="N6" s="7"/>
     </row>
-    <row r="7" spans="1:18" ht="13.5">
+    <row r="7" spans="1:18" ht="16">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -1208,7 +1208,7 @@
       <c r="M7" s="7"/>
       <c r="N7" s="7"/>
     </row>
-    <row r="8" spans="1:18" ht="13.5">
+    <row r="8" spans="1:18" ht="16">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -1223,7 +1223,7 @@
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
     </row>
-    <row r="9" spans="1:18" ht="13.5">
+    <row r="9" spans="1:18" ht="16">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -1238,7 +1238,7 @@
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
     </row>
-    <row r="10" spans="1:18" ht="13.5">
+    <row r="10" spans="1:18" ht="16">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1253,7 +1253,7 @@
       <c r="M10" s="7"/>
       <c r="N10" s="7"/>
     </row>
-    <row r="11" spans="1:18" ht="13.5">
+    <row r="11" spans="1:18" ht="16">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -1268,7 +1268,7 @@
       <c r="M11" s="7"/>
       <c r="N11" s="7"/>
     </row>
-    <row r="12" spans="1:18" ht="13.5">
+    <row r="12" spans="1:18" ht="16">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1283,7 +1283,7 @@
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
     </row>
-    <row r="13" spans="1:18" ht="13.5">
+    <row r="13" spans="1:18" ht="16">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1298,7 +1298,7 @@
       <c r="M13" s="7"/>
       <c r="N13" s="7"/>
     </row>
-    <row r="14" spans="1:18" ht="13.5">
+    <row r="14" spans="1:18" ht="16">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -1313,7 +1313,7 @@
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
     </row>
-    <row r="15" spans="1:18" ht="13.5">
+    <row r="15" spans="1:18" ht="16">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1328,7 +1328,7 @@
       <c r="M15" s="7"/>
       <c r="N15" s="7"/>
     </row>
-    <row r="16" spans="1:18" ht="13.5">
+    <row r="16" spans="1:18" ht="16">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -1343,7 +1343,7 @@
       <c r="M16" s="7"/>
       <c r="N16" s="7"/>
     </row>
-    <row r="17" spans="1:14" ht="13.5">
+    <row r="17" spans="1:14" ht="16">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1358,7 +1358,7 @@
       <c r="M17" s="7"/>
       <c r="N17" s="7"/>
     </row>
-    <row r="18" spans="1:14" ht="13.5">
+    <row r="18" spans="1:14" ht="16">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1373,7 +1373,7 @@
       <c r="M18" s="7"/>
       <c r="N18" s="7"/>
     </row>
-    <row r="19" spans="1:14" ht="13.5">
+    <row r="19" spans="1:14" ht="16">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -1388,7 +1388,7 @@
       <c r="M19" s="7"/>
       <c r="N19" s="7"/>
     </row>
-    <row r="20" spans="1:14" ht="13.5">
+    <row r="20" spans="1:14" ht="16">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -1403,7 +1403,7 @@
       <c r="M20" s="7"/>
       <c r="N20" s="7"/>
     </row>
-    <row r="21" spans="1:14" ht="13.5">
+    <row r="21" spans="1:14" ht="16">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -1418,7 +1418,7 @@
       <c r="M21" s="7"/>
       <c r="N21" s="7"/>
     </row>
-    <row r="22" spans="1:14" ht="13.5">
+    <row r="22" spans="1:14" ht="16">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1433,7 +1433,7 @@
       <c r="M22" s="7"/>
       <c r="N22" s="7"/>
     </row>
-    <row r="23" spans="1:14" ht="13.5">
+    <row r="23" spans="1:14" ht="16">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -1448,7 +1448,7 @@
       <c r="M23" s="7"/>
       <c r="N23" s="7"/>
     </row>
-    <row r="24" spans="1:14" ht="13.5">
+    <row r="24" spans="1:14" ht="16">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -1463,7 +1463,7 @@
       <c r="M24" s="7"/>
       <c r="N24" s="7"/>
     </row>
-    <row r="25" spans="1:14" ht="13.5">
+    <row r="25" spans="1:14" ht="16">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -1478,7 +1478,7 @@
       <c r="M25" s="7"/>
       <c r="N25" s="7"/>
     </row>
-    <row r="26" spans="1:14" ht="13.5">
+    <row r="26" spans="1:14" ht="16">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -1493,7 +1493,7 @@
       <c r="M26" s="7"/>
       <c r="N26" s="7"/>
     </row>
-    <row r="27" spans="1:14" ht="13.5">
+    <row r="27" spans="1:14" ht="16">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -1508,7 +1508,7 @@
       <c r="M27" s="7"/>
       <c r="N27" s="7"/>
     </row>
-    <row r="28" spans="1:14" ht="13.5">
+    <row r="28" spans="1:14" ht="16">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -1523,7 +1523,7 @@
       <c r="M28" s="7"/>
       <c r="N28" s="7"/>
     </row>
-    <row r="29" spans="1:14" ht="13.5">
+    <row r="29" spans="1:14" ht="16">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -1538,7 +1538,7 @@
       <c r="M29" s="7"/>
       <c r="N29" s="7"/>
     </row>
-    <row r="30" spans="1:14" ht="13.5">
+    <row r="30" spans="1:14" ht="16">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -1553,7 +1553,7 @@
       <c r="M30" s="7"/>
       <c r="N30" s="7"/>
     </row>
-    <row r="31" spans="1:14" ht="13.5">
+    <row r="31" spans="1:14" ht="16">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -1568,7 +1568,7 @@
       <c r="M31" s="7"/>
       <c r="N31" s="7"/>
     </row>
-    <row r="32" spans="1:14" ht="13.5">
+    <row r="32" spans="1:14" ht="16">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -1583,7 +1583,7 @@
       <c r="M32" s="7"/>
       <c r="N32" s="7"/>
     </row>
-    <row r="33" spans="1:14" ht="13.5">
+    <row r="33" spans="1:14" ht="16">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -1598,7 +1598,7 @@
       <c r="M33" s="7"/>
       <c r="N33" s="7"/>
     </row>
-    <row r="34" spans="1:14" ht="13.5">
+    <row r="34" spans="1:14" ht="16">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -1613,7 +1613,7 @@
       <c r="M34" s="7"/>
       <c r="N34" s="7"/>
     </row>
-    <row r="35" spans="1:14" ht="13.5">
+    <row r="35" spans="1:14" ht="16">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -1628,7 +1628,7 @@
       <c r="M35" s="7"/>
       <c r="N35" s="7"/>
     </row>
-    <row r="36" spans="1:14" ht="13.5">
+    <row r="36" spans="1:14" ht="16">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -1643,7 +1643,7 @@
       <c r="M36" s="7"/>
       <c r="N36" s="7"/>
     </row>
-    <row r="37" spans="1:14" ht="13.5">
+    <row r="37" spans="1:14" ht="16">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -1658,7 +1658,7 @@
       <c r="M37" s="7"/>
       <c r="N37" s="7"/>
     </row>
-    <row r="38" spans="1:14" ht="13.5">
+    <row r="38" spans="1:14" ht="16">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -1673,7 +1673,7 @@
       <c r="M38" s="7"/>
       <c r="N38" s="7"/>
     </row>
-    <row r="39" spans="1:14" ht="13.5">
+    <row r="39" spans="1:14" ht="16">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -1688,7 +1688,7 @@
       <c r="M39" s="7"/>
       <c r="N39" s="7"/>
     </row>
-    <row r="40" spans="1:14" ht="13.5">
+    <row r="40" spans="1:14" ht="16">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -1703,7 +1703,7 @@
       <c r="M40" s="7"/>
       <c r="N40" s="7"/>
     </row>
-    <row r="41" spans="1:14" ht="13.5">
+    <row r="41" spans="1:14" ht="16">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -1718,7 +1718,7 @@
       <c r="M41" s="7"/>
       <c r="N41" s="7"/>
     </row>
-    <row r="42" spans="1:14" ht="13.5">
+    <row r="42" spans="1:14" ht="16">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -1733,7 +1733,7 @@
       <c r="M42" s="7"/>
       <c r="N42" s="7"/>
     </row>
-    <row r="43" spans="1:14" ht="13.5">
+    <row r="43" spans="1:14" ht="16">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -1748,7 +1748,7 @@
       <c r="M43" s="7"/>
       <c r="N43" s="7"/>
     </row>
-    <row r="44" spans="1:14" ht="13.5">
+    <row r="44" spans="1:14" ht="16">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -1763,7 +1763,7 @@
       <c r="M44" s="7"/>
       <c r="N44" s="7"/>
     </row>
-    <row r="45" spans="1:14" ht="13.5">
+    <row r="45" spans="1:14" ht="16">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -1778,7 +1778,7 @@
       <c r="M45" s="7"/>
       <c r="N45" s="7"/>
     </row>
-    <row r="46" spans="1:14" ht="13.5">
+    <row r="46" spans="1:14" ht="16">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -1793,7 +1793,7 @@
       <c r="M46" s="7"/>
       <c r="N46" s="7"/>
     </row>
-    <row r="47" spans="1:14" ht="13.5">
+    <row r="47" spans="1:14" ht="16">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -1808,7 +1808,7 @@
       <c r="M47" s="7"/>
       <c r="N47" s="7"/>
     </row>
-    <row r="48" spans="1:14" ht="13.5">
+    <row r="48" spans="1:14" ht="16">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -1823,7 +1823,7 @@
       <c r="M48" s="7"/>
       <c r="N48" s="7"/>
     </row>
-    <row r="49" spans="1:14" ht="13.5">
+    <row r="49" spans="1:14" ht="16">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -1838,7 +1838,7 @@
       <c r="M49" s="7"/>
       <c r="N49" s="7"/>
     </row>
-    <row r="50" spans="1:14" ht="13.5">
+    <row r="50" spans="1:14" ht="16">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -1853,7 +1853,7 @@
       <c r="M50" s="7"/>
       <c r="N50" s="7"/>
     </row>
-    <row r="51" spans="1:14" ht="13.5">
+    <row r="51" spans="1:14" ht="16">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -1868,7 +1868,7 @@
       <c r="M51" s="7"/>
       <c r="N51" s="7"/>
     </row>
-    <row r="52" spans="1:14" ht="13.5">
+    <row r="52" spans="1:14" ht="16">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -1883,7 +1883,7 @@
       <c r="M52" s="7"/>
       <c r="N52" s="7"/>
     </row>
-    <row r="53" spans="1:14" ht="13.5">
+    <row r="53" spans="1:14" ht="16">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -1898,7 +1898,7 @@
       <c r="M53" s="7"/>
       <c r="N53" s="7"/>
     </row>
-    <row r="54" spans="1:14" ht="13.5">
+    <row r="54" spans="1:14" ht="16">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -1913,7 +1913,7 @@
       <c r="M54" s="7"/>
       <c r="N54" s="7"/>
     </row>
-    <row r="55" spans="1:14" ht="13.5">
+    <row r="55" spans="1:14" ht="16">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -1928,7 +1928,7 @@
       <c r="M55" s="7"/>
       <c r="N55" s="7"/>
     </row>
-    <row r="56" spans="1:14" ht="13.5">
+    <row r="56" spans="1:14" ht="16">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -1943,7 +1943,7 @@
       <c r="M56" s="7"/>
       <c r="N56" s="7"/>
     </row>
-    <row r="57" spans="1:14" ht="13.5">
+    <row r="57" spans="1:14" ht="16">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -1958,7 +1958,7 @@
       <c r="M57" s="7"/>
       <c r="N57" s="7"/>
     </row>
-    <row r="58" spans="1:14" ht="13.5">
+    <row r="58" spans="1:14" ht="16">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -1973,7 +1973,7 @@
       <c r="M58" s="7"/>
       <c r="N58" s="7"/>
     </row>
-    <row r="59" spans="1:14" ht="13.5">
+    <row r="59" spans="1:14" ht="16">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -1988,7 +1988,7 @@
       <c r="M59" s="7"/>
       <c r="N59" s="7"/>
     </row>
-    <row r="60" spans="1:14" ht="13.5">
+    <row r="60" spans="1:14" ht="16">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -2003,7 +2003,7 @@
       <c r="M60" s="7"/>
       <c r="N60" s="7"/>
     </row>
-    <row r="61" spans="1:14" ht="13.5">
+    <row r="61" spans="1:14" ht="16">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -2018,7 +2018,7 @@
       <c r="M61" s="7"/>
       <c r="N61" s="7"/>
     </row>
-    <row r="62" spans="1:14" ht="13.5">
+    <row r="62" spans="1:14" ht="16">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -2033,7 +2033,7 @@
       <c r="M62" s="7"/>
       <c r="N62" s="7"/>
     </row>
-    <row r="63" spans="1:14" ht="13.5">
+    <row r="63" spans="1:14" ht="16">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -2048,7 +2048,7 @@
       <c r="M63" s="7"/>
       <c r="N63" s="7"/>
     </row>
-    <row r="64" spans="1:14" ht="13.5">
+    <row r="64" spans="1:14" ht="16">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -2063,7 +2063,7 @@
       <c r="M64" s="7"/>
       <c r="N64" s="7"/>
     </row>
-    <row r="65" spans="1:14" ht="13.5">
+    <row r="65" spans="1:14" ht="16">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -2078,7 +2078,7 @@
       <c r="M65" s="7"/>
       <c r="N65" s="7"/>
     </row>
-    <row r="66" spans="1:14" ht="13.5">
+    <row r="66" spans="1:14" ht="16">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -2093,7 +2093,7 @@
       <c r="M66" s="7"/>
       <c r="N66" s="7"/>
     </row>
-    <row r="67" spans="1:14" ht="13.5">
+    <row r="67" spans="1:14" ht="16">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -2108,7 +2108,7 @@
       <c r="M67" s="7"/>
       <c r="N67" s="7"/>
     </row>
-    <row r="68" spans="1:14" ht="13.5">
+    <row r="68" spans="1:14" ht="16">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -2123,7 +2123,7 @@
       <c r="M68" s="7"/>
       <c r="N68" s="7"/>
     </row>
-    <row r="69" spans="1:14" ht="13.5">
+    <row r="69" spans="1:14" ht="16">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -2138,7 +2138,7 @@
       <c r="M69" s="7"/>
       <c r="N69" s="7"/>
     </row>
-    <row r="70" spans="1:14" ht="13.5">
+    <row r="70" spans="1:14" ht="16">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -2153,7 +2153,7 @@
       <c r="M70" s="7"/>
       <c r="N70" s="7"/>
     </row>
-    <row r="71" spans="1:14" ht="13.5">
+    <row r="71" spans="1:14" ht="16">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -2168,7 +2168,7 @@
       <c r="M71" s="7"/>
       <c r="N71" s="7"/>
     </row>
-    <row r="72" spans="1:14" ht="13.5">
+    <row r="72" spans="1:14" ht="16">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -2183,7 +2183,7 @@
       <c r="M72" s="7"/>
       <c r="N72" s="7"/>
     </row>
-    <row r="73" spans="1:14" ht="13.5">
+    <row r="73" spans="1:14" ht="16">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -2198,7 +2198,7 @@
       <c r="M73" s="7"/>
       <c r="N73" s="7"/>
     </row>
-    <row r="74" spans="1:14" ht="13.5">
+    <row r="74" spans="1:14" ht="16">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -2213,7 +2213,7 @@
       <c r="M74" s="7"/>
       <c r="N74" s="7"/>
     </row>
-    <row r="75" spans="1:14" ht="13.5">
+    <row r="75" spans="1:14" ht="16">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -2228,7 +2228,7 @@
       <c r="M75" s="7"/>
       <c r="N75" s="7"/>
     </row>
-    <row r="76" spans="1:14" ht="13.5">
+    <row r="76" spans="1:14" ht="16">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -2243,7 +2243,7 @@
       <c r="M76" s="7"/>
       <c r="N76" s="7"/>
     </row>
-    <row r="77" spans="1:14" ht="13.5">
+    <row r="77" spans="1:14" ht="16">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -2258,7 +2258,7 @@
       <c r="M77" s="7"/>
       <c r="N77" s="7"/>
     </row>
-    <row r="78" spans="1:14" ht="13.5">
+    <row r="78" spans="1:14" ht="16">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -2273,7 +2273,7 @@
       <c r="M78" s="7"/>
       <c r="N78" s="7"/>
     </row>
-    <row r="79" spans="1:14" ht="13.5">
+    <row r="79" spans="1:14" ht="16">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -2288,7 +2288,7 @@
       <c r="M79" s="7"/>
       <c r="N79" s="7"/>
     </row>
-    <row r="80" spans="1:14" ht="13.5">
+    <row r="80" spans="1:14" ht="16">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -2303,7 +2303,7 @@
       <c r="M80" s="7"/>
       <c r="N80" s="7"/>
     </row>
-    <row r="81" spans="1:14" ht="13.5">
+    <row r="81" spans="1:14" ht="16">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -2318,7 +2318,7 @@
       <c r="M81" s="7"/>
       <c r="N81" s="7"/>
     </row>
-    <row r="82" spans="1:14" ht="13.5">
+    <row r="82" spans="1:14" ht="16">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -2333,7 +2333,7 @@
       <c r="M82" s="7"/>
       <c r="N82" s="7"/>
     </row>
-    <row r="83" spans="1:14" ht="13.5">
+    <row r="83" spans="1:14" ht="16">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -2348,7 +2348,7 @@
       <c r="M83" s="7"/>
       <c r="N83" s="7"/>
     </row>
-    <row r="84" spans="1:14" ht="13.5">
+    <row r="84" spans="1:14" ht="16">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -2363,7 +2363,7 @@
       <c r="M84" s="7"/>
       <c r="N84" s="7"/>
     </row>
-    <row r="85" spans="1:14" ht="13.5">
+    <row r="85" spans="1:14" ht="16">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -2378,7 +2378,7 @@
       <c r="M85" s="7"/>
       <c r="N85" s="7"/>
     </row>
-    <row r="86" spans="1:14" ht="13.5">
+    <row r="86" spans="1:14" ht="16">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -2393,7 +2393,7 @@
       <c r="M86" s="7"/>
       <c r="N86" s="7"/>
     </row>
-    <row r="87" spans="1:14" ht="13.5">
+    <row r="87" spans="1:14" ht="16">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -2408,7 +2408,7 @@
       <c r="M87" s="7"/>
       <c r="N87" s="7"/>
     </row>
-    <row r="88" spans="1:14" ht="13.5">
+    <row r="88" spans="1:14" ht="16">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -2423,7 +2423,7 @@
       <c r="M88" s="7"/>
       <c r="N88" s="7"/>
     </row>
-    <row r="89" spans="1:14" ht="13.5">
+    <row r="89" spans="1:14" ht="16">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -2438,7 +2438,7 @@
       <c r="M89" s="7"/>
       <c r="N89" s="7"/>
     </row>
-    <row r="90" spans="1:14" ht="13.5">
+    <row r="90" spans="1:14" ht="16">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -2453,7 +2453,7 @@
       <c r="M90" s="7"/>
       <c r="N90" s="7"/>
     </row>
-    <row r="91" spans="1:14" ht="13.5">
+    <row r="91" spans="1:14" ht="16">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -2468,7 +2468,7 @@
       <c r="M91" s="7"/>
       <c r="N91" s="7"/>
     </row>
-    <row r="92" spans="1:14" ht="13.5">
+    <row r="92" spans="1:14" ht="16">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -2483,7 +2483,7 @@
       <c r="M92" s="7"/>
       <c r="N92" s="7"/>
     </row>
-    <row r="93" spans="1:14" ht="13.5">
+    <row r="93" spans="1:14" ht="16">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -2498,7 +2498,7 @@
       <c r="M93" s="7"/>
       <c r="N93" s="7"/>
     </row>
-    <row r="94" spans="1:14" ht="13.5">
+    <row r="94" spans="1:14" ht="16">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -2513,7 +2513,7 @@
       <c r="M94" s="7"/>
       <c r="N94" s="7"/>
     </row>
-    <row r="95" spans="1:14" ht="13.5">
+    <row r="95" spans="1:14" ht="16">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -2528,7 +2528,7 @@
       <c r="M95" s="7"/>
       <c r="N95" s="7"/>
     </row>
-    <row r="96" spans="1:14" ht="13.5">
+    <row r="96" spans="1:14" ht="16">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -2543,7 +2543,7 @@
       <c r="M96" s="7"/>
       <c r="N96" s="7"/>
     </row>
-    <row r="97" spans="1:14" ht="13.5">
+    <row r="97" spans="1:14" ht="16">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -2558,7 +2558,7 @@
       <c r="M97" s="7"/>
       <c r="N97" s="7"/>
     </row>
-    <row r="98" spans="1:14" ht="13.5">
+    <row r="98" spans="1:14" ht="16">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -2573,7 +2573,7 @@
       <c r="M98" s="7"/>
       <c r="N98" s="7"/>
     </row>
-    <row r="99" spans="1:14" ht="13.5">
+    <row r="99" spans="1:14" ht="16">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -2588,7 +2588,7 @@
       <c r="M99" s="7"/>
       <c r="N99" s="7"/>
     </row>
-    <row r="100" spans="1:14" ht="13.5">
+    <row r="100" spans="1:14" ht="16">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -2603,7 +2603,7 @@
       <c r="M100" s="7"/>
       <c r="N100" s="7"/>
     </row>
-    <row r="101" spans="1:14" ht="13.5">
+    <row r="101" spans="1:14" ht="16">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -2618,7 +2618,7 @@
       <c r="M101" s="7"/>
       <c r="N101" s="7"/>
     </row>
-    <row r="102" spans="1:14" ht="13.5">
+    <row r="102" spans="1:14" ht="16">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -2633,7 +2633,7 @@
       <c r="M102" s="7"/>
       <c r="N102" s="7"/>
     </row>
-    <row r="103" spans="1:14" ht="13.5">
+    <row r="103" spans="1:14" ht="16">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -2648,7 +2648,7 @@
       <c r="M103" s="7"/>
       <c r="N103" s="7"/>
     </row>
-    <row r="104" spans="1:14" ht="13.5">
+    <row r="104" spans="1:14" ht="16">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -2663,7 +2663,7 @@
       <c r="M104" s="7"/>
       <c r="N104" s="7"/>
     </row>
-    <row r="105" spans="1:14" ht="13.5">
+    <row r="105" spans="1:14" ht="16">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -2678,7 +2678,7 @@
       <c r="M105" s="7"/>
       <c r="N105" s="7"/>
     </row>
-    <row r="106" spans="1:14" ht="13.5">
+    <row r="106" spans="1:14" ht="16">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -2693,7 +2693,7 @@
       <c r="M106" s="7"/>
       <c r="N106" s="7"/>
     </row>
-    <row r="107" spans="1:14" ht="13.5">
+    <row r="107" spans="1:14" ht="16">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -2708,7 +2708,7 @@
       <c r="M107" s="7"/>
       <c r="N107" s="7"/>
     </row>
-    <row r="108" spans="1:14" ht="13.5">
+    <row r="108" spans="1:14" ht="16">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -2723,7 +2723,7 @@
       <c r="M108" s="7"/>
       <c r="N108" s="7"/>
     </row>
-    <row r="109" spans="1:14" ht="13.5">
+    <row r="109" spans="1:14" ht="16">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -2738,7 +2738,7 @@
       <c r="M109" s="7"/>
       <c r="N109" s="7"/>
     </row>
-    <row r="110" spans="1:14" ht="13.5">
+    <row r="110" spans="1:14" ht="16">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -2753,7 +2753,7 @@
       <c r="M110" s="7"/>
       <c r="N110" s="7"/>
     </row>
-    <row r="111" spans="1:14" ht="13.5">
+    <row r="111" spans="1:14" ht="16">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -2768,7 +2768,7 @@
       <c r="M111" s="7"/>
       <c r="N111" s="7"/>
     </row>
-    <row r="112" spans="1:14" ht="13.5">
+    <row r="112" spans="1:14" ht="16">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -2783,7 +2783,7 @@
       <c r="M112" s="7"/>
       <c r="N112" s="7"/>
     </row>
-    <row r="113" spans="1:14" ht="13.5">
+    <row r="113" spans="1:14" ht="16">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -2798,7 +2798,7 @@
       <c r="M113" s="7"/>
       <c r="N113" s="7"/>
     </row>
-    <row r="114" spans="1:14" ht="13.5">
+    <row r="114" spans="1:14" ht="16">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -2813,7 +2813,7 @@
       <c r="M114" s="7"/>
       <c r="N114" s="7"/>
     </row>
-    <row r="115" spans="1:14" ht="13.5">
+    <row r="115" spans="1:14" ht="16">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -2828,7 +2828,7 @@
       <c r="M115" s="7"/>
       <c r="N115" s="7"/>
     </row>
-    <row r="116" spans="1:14" ht="13.5">
+    <row r="116" spans="1:14" ht="16">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -2843,7 +2843,7 @@
       <c r="M116" s="7"/>
       <c r="N116" s="7"/>
     </row>
-    <row r="117" spans="1:14" ht="13.5">
+    <row r="117" spans="1:14" ht="16">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -2858,7 +2858,7 @@
       <c r="M117" s="7"/>
       <c r="N117" s="7"/>
     </row>
-    <row r="118" spans="1:14" ht="13.5">
+    <row r="118" spans="1:14" ht="16">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -2873,7 +2873,7 @@
       <c r="M118" s="7"/>
       <c r="N118" s="7"/>
     </row>
-    <row r="119" spans="1:14" ht="13.5">
+    <row r="119" spans="1:14" ht="16">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -2888,7 +2888,7 @@
       <c r="M119" s="7"/>
       <c r="N119" s="7"/>
     </row>
-    <row r="120" spans="1:14" ht="13.5">
+    <row r="120" spans="1:14" ht="16">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -2903,7 +2903,7 @@
       <c r="M120" s="7"/>
       <c r="N120" s="7"/>
     </row>
-    <row r="121" spans="1:14" ht="13.5">
+    <row r="121" spans="1:14" ht="16">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -2918,7 +2918,7 @@
       <c r="M121" s="7"/>
       <c r="N121" s="7"/>
     </row>
-    <row r="122" spans="1:14" ht="13.5">
+    <row r="122" spans="1:14" ht="16">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -2933,7 +2933,7 @@
       <c r="M122" s="7"/>
       <c r="N122" s="7"/>
     </row>
-    <row r="123" spans="1:14" ht="13.5">
+    <row r="123" spans="1:14" ht="16">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -2948,7 +2948,7 @@
       <c r="M123" s="7"/>
       <c r="N123" s="7"/>
     </row>
-    <row r="124" spans="1:14" ht="13.5">
+    <row r="124" spans="1:14" ht="16">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -2963,7 +2963,7 @@
       <c r="M124" s="7"/>
       <c r="N124" s="7"/>
     </row>
-    <row r="125" spans="1:14" ht="13.5">
+    <row r="125" spans="1:14" ht="16">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -2978,7 +2978,7 @@
       <c r="M125" s="7"/>
       <c r="N125" s="7"/>
     </row>
-    <row r="126" spans="1:14" ht="13.5">
+    <row r="126" spans="1:14" ht="16">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -2993,7 +2993,7 @@
       <c r="M126" s="7"/>
       <c r="N126" s="7"/>
     </row>
-    <row r="127" spans="1:14" ht="13.5">
+    <row r="127" spans="1:14" ht="16">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -3008,7 +3008,7 @@
       <c r="M127" s="7"/>
       <c r="N127" s="7"/>
     </row>
-    <row r="128" spans="1:14" ht="13.5">
+    <row r="128" spans="1:14" ht="16">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -3023,7 +3023,7 @@
       <c r="M128" s="7"/>
       <c r="N128" s="7"/>
     </row>
-    <row r="129" spans="1:14" ht="13.5">
+    <row r="129" spans="1:14" ht="16">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -3038,7 +3038,7 @@
       <c r="M129" s="7"/>
       <c r="N129" s="7"/>
     </row>
-    <row r="130" spans="1:14" ht="13.5">
+    <row r="130" spans="1:14" ht="16">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -3053,7 +3053,7 @@
       <c r="M130" s="7"/>
       <c r="N130" s="7"/>
     </row>
-    <row r="131" spans="1:14" ht="13.5">
+    <row r="131" spans="1:14" ht="16">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -3068,7 +3068,7 @@
       <c r="M131" s="7"/>
       <c r="N131" s="7"/>
     </row>
-    <row r="132" spans="1:14" ht="13.5">
+    <row r="132" spans="1:14" ht="16">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -3083,7 +3083,7 @@
       <c r="M132" s="7"/>
       <c r="N132" s="7"/>
     </row>
-    <row r="133" spans="1:14" ht="13.5">
+    <row r="133" spans="1:14" ht="16">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -3098,7 +3098,7 @@
       <c r="M133" s="7"/>
       <c r="N133" s="7"/>
     </row>
-    <row r="134" spans="1:14" ht="13.5">
+    <row r="134" spans="1:14" ht="16">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -3113,7 +3113,7 @@
       <c r="M134" s="7"/>
       <c r="N134" s="7"/>
     </row>
-    <row r="135" spans="1:14" ht="13.5">
+    <row r="135" spans="1:14" ht="16">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -3128,7 +3128,7 @@
       <c r="M135" s="7"/>
       <c r="N135" s="7"/>
     </row>
-    <row r="136" spans="1:14" ht="13.5">
+    <row r="136" spans="1:14" ht="16">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -3143,7 +3143,7 @@
       <c r="M136" s="7"/>
       <c r="N136" s="7"/>
     </row>
-    <row r="137" spans="1:14" ht="13.5">
+    <row r="137" spans="1:14" ht="16">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -3158,7 +3158,7 @@
       <c r="M137" s="7"/>
       <c r="N137" s="7"/>
     </row>
-    <row r="138" spans="1:14" ht="13.5">
+    <row r="138" spans="1:14" ht="16">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -3173,7 +3173,7 @@
       <c r="M138" s="7"/>
       <c r="N138" s="7"/>
     </row>
-    <row r="139" spans="1:14" ht="13.5">
+    <row r="139" spans="1:14" ht="16">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -3188,7 +3188,7 @@
       <c r="M139" s="7"/>
       <c r="N139" s="7"/>
     </row>
-    <row r="140" spans="1:14" ht="13.5">
+    <row r="140" spans="1:14" ht="16">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -3203,7 +3203,7 @@
       <c r="M140" s="7"/>
       <c r="N140" s="7"/>
     </row>
-    <row r="141" spans="1:14" ht="13.5">
+    <row r="141" spans="1:14" ht="16">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -3218,7 +3218,7 @@
       <c r="M141" s="7"/>
       <c r="N141" s="7"/>
     </row>
-    <row r="142" spans="1:14" ht="13.5">
+    <row r="142" spans="1:14" ht="16">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -3233,7 +3233,7 @@
       <c r="M142" s="7"/>
       <c r="N142" s="7"/>
     </row>
-    <row r="143" spans="1:14" ht="13.5">
+    <row r="143" spans="1:14" ht="16">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -3248,7 +3248,7 @@
       <c r="M143" s="7"/>
       <c r="N143" s="7"/>
     </row>
-    <row r="144" spans="1:14" ht="13.5">
+    <row r="144" spans="1:14" ht="16">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -3263,7 +3263,7 @@
       <c r="M144" s="7"/>
       <c r="N144" s="7"/>
     </row>
-    <row r="145" spans="1:14" ht="13.5">
+    <row r="145" spans="1:14" ht="16">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -3278,7 +3278,7 @@
       <c r="M145" s="7"/>
       <c r="N145" s="7"/>
     </row>
-    <row r="146" spans="1:14" ht="13.5">
+    <row r="146" spans="1:14" ht="16">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -3293,7 +3293,7 @@
       <c r="M146" s="7"/>
       <c r="N146" s="7"/>
     </row>
-    <row r="147" spans="1:14" ht="13.5">
+    <row r="147" spans="1:14" ht="16">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -3308,7 +3308,7 @@
       <c r="M147" s="7"/>
       <c r="N147" s="7"/>
     </row>
-    <row r="148" spans="1:14" ht="13.5">
+    <row r="148" spans="1:14" ht="16">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -3323,7 +3323,7 @@
       <c r="M148" s="7"/>
       <c r="N148" s="7"/>
     </row>
-    <row r="149" spans="1:14" ht="13.5">
+    <row r="149" spans="1:14" ht="16">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -3338,7 +3338,7 @@
       <c r="M149" s="7"/>
       <c r="N149" s="7"/>
     </row>
-    <row r="150" spans="1:14" ht="13.5">
+    <row r="150" spans="1:14" ht="16">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -3353,7 +3353,7 @@
       <c r="M150" s="7"/>
       <c r="N150" s="7"/>
     </row>
-    <row r="151" spans="1:14" ht="13.5">
+    <row r="151" spans="1:14" ht="16">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -3368,7 +3368,7 @@
       <c r="M151" s="7"/>
       <c r="N151" s="7"/>
     </row>
-    <row r="152" spans="1:14" ht="13.5">
+    <row r="152" spans="1:14" ht="16">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -3383,7 +3383,7 @@
       <c r="M152" s="7"/>
       <c r="N152" s="7"/>
     </row>
-    <row r="153" spans="1:14" ht="13.5">
+    <row r="153" spans="1:14" ht="16">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -3398,7 +3398,7 @@
       <c r="M153" s="7"/>
       <c r="N153" s="7"/>
     </row>
-    <row r="154" spans="1:14" ht="13.5">
+    <row r="154" spans="1:14" ht="16">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -3413,7 +3413,7 @@
       <c r="M154" s="7"/>
       <c r="N154" s="7"/>
     </row>
-    <row r="155" spans="1:14" ht="13.5">
+    <row r="155" spans="1:14" ht="16">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -3428,7 +3428,7 @@
       <c r="M155" s="7"/>
       <c r="N155" s="7"/>
     </row>
-    <row r="156" spans="1:14" ht="13.5">
+    <row r="156" spans="1:14" ht="16">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -3443,7 +3443,7 @@
       <c r="M156" s="7"/>
       <c r="N156" s="7"/>
     </row>
-    <row r="157" spans="1:14" ht="13.5">
+    <row r="157" spans="1:14" ht="16">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -3458,7 +3458,7 @@
       <c r="M157" s="7"/>
       <c r="N157" s="7"/>
     </row>
-    <row r="158" spans="1:14" ht="13.5">
+    <row r="158" spans="1:14" ht="16">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -3473,7 +3473,7 @@
       <c r="M158" s="7"/>
       <c r="N158" s="7"/>
     </row>
-    <row r="159" spans="1:14" ht="13.5">
+    <row r="159" spans="1:14" ht="16">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -3488,7 +3488,7 @@
       <c r="M159" s="7"/>
       <c r="N159" s="7"/>
     </row>
-    <row r="160" spans="1:14" ht="13.5">
+    <row r="160" spans="1:14" ht="16">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -3503,7 +3503,7 @@
       <c r="M160" s="7"/>
       <c r="N160" s="7"/>
     </row>
-    <row r="161" spans="1:14" ht="13.5">
+    <row r="161" spans="1:14" ht="16">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -3518,7 +3518,7 @@
       <c r="M161" s="7"/>
       <c r="N161" s="7"/>
     </row>
-    <row r="162" spans="1:14" ht="13.5">
+    <row r="162" spans="1:14" ht="16">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -3533,7 +3533,7 @@
       <c r="M162" s="7"/>
       <c r="N162" s="7"/>
     </row>
-    <row r="163" spans="1:14" ht="13.5">
+    <row r="163" spans="1:14" ht="16">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -3548,7 +3548,7 @@
       <c r="M163" s="7"/>
       <c r="N163" s="7"/>
     </row>
-    <row r="164" spans="1:14" ht="13.5">
+    <row r="164" spans="1:14" ht="16">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -3563,7 +3563,7 @@
       <c r="M164" s="7"/>
       <c r="N164" s="7"/>
     </row>
-    <row r="165" spans="1:14" ht="13.5">
+    <row r="165" spans="1:14" ht="16">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -3578,7 +3578,7 @@
       <c r="M165" s="7"/>
       <c r="N165" s="7"/>
     </row>
-    <row r="166" spans="1:14" ht="13.5">
+    <row r="166" spans="1:14" ht="16">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -3593,7 +3593,7 @@
       <c r="M166" s="7"/>
       <c r="N166" s="7"/>
     </row>
-    <row r="167" spans="1:14" ht="13.5">
+    <row r="167" spans="1:14" ht="16">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -3608,7 +3608,7 @@
       <c r="M167" s="7"/>
       <c r="N167" s="7"/>
     </row>
-    <row r="168" spans="1:14" ht="13.5">
+    <row r="168" spans="1:14" ht="16">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -3623,7 +3623,7 @@
       <c r="M168" s="7"/>
       <c r="N168" s="7"/>
     </row>
-    <row r="169" spans="1:14" ht="13.5">
+    <row r="169" spans="1:14" ht="16">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -3638,7 +3638,7 @@
       <c r="M169" s="7"/>
       <c r="N169" s="7"/>
     </row>
-    <row r="170" spans="1:14" ht="13.5">
+    <row r="170" spans="1:14" ht="16">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -3653,7 +3653,7 @@
       <c r="M170" s="7"/>
       <c r="N170" s="7"/>
     </row>
-    <row r="171" spans="1:14" ht="13.5">
+    <row r="171" spans="1:14" ht="16">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -3668,7 +3668,7 @@
       <c r="M171" s="7"/>
       <c r="N171" s="7"/>
     </row>
-    <row r="172" spans="1:14" ht="13.5">
+    <row r="172" spans="1:14" ht="16">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -3683,7 +3683,7 @@
       <c r="M172" s="7"/>
       <c r="N172" s="7"/>
     </row>
-    <row r="173" spans="1:14" ht="13.5">
+    <row r="173" spans="1:14" ht="16">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -3698,7 +3698,7 @@
       <c r="M173" s="7"/>
       <c r="N173" s="7"/>
     </row>
-    <row r="174" spans="1:14" ht="13.5">
+    <row r="174" spans="1:14" ht="16">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -3713,7 +3713,7 @@
       <c r="M174" s="7"/>
       <c r="N174" s="7"/>
     </row>
-    <row r="175" spans="1:14" ht="13.5">
+    <row r="175" spans="1:14" ht="16">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -3728,7 +3728,7 @@
       <c r="M175" s="7"/>
       <c r="N175" s="7"/>
     </row>
-    <row r="176" spans="1:14" ht="13.5">
+    <row r="176" spans="1:14" ht="16">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -3743,7 +3743,7 @@
       <c r="M176" s="7"/>
       <c r="N176" s="7"/>
     </row>
-    <row r="177" spans="1:14" ht="13.5">
+    <row r="177" spans="1:14" ht="16">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -3758,7 +3758,7 @@
       <c r="M177" s="7"/>
       <c r="N177" s="7"/>
     </row>
-    <row r="178" spans="1:14" ht="13.5">
+    <row r="178" spans="1:14" ht="16">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -3773,7 +3773,7 @@
       <c r="M178" s="7"/>
       <c r="N178" s="7"/>
     </row>
-    <row r="179" spans="1:14" ht="13.5">
+    <row r="179" spans="1:14" ht="16">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -3788,7 +3788,7 @@
       <c r="M179" s="7"/>
       <c r="N179" s="7"/>
     </row>
-    <row r="180" spans="1:14" ht="13.5">
+    <row r="180" spans="1:14" ht="16">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -3803,7 +3803,7 @@
       <c r="M180" s="7"/>
       <c r="N180" s="7"/>
     </row>
-    <row r="181" spans="1:14" ht="13.5">
+    <row r="181" spans="1:14" ht="16">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -3818,7 +3818,7 @@
       <c r="M181" s="7"/>
       <c r="N181" s="7"/>
     </row>
-    <row r="182" spans="1:14" ht="13.5">
+    <row r="182" spans="1:14" ht="16">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -3833,7 +3833,7 @@
       <c r="M182" s="7"/>
       <c r="N182" s="7"/>
     </row>
-    <row r="183" spans="1:14" ht="13.5">
+    <row r="183" spans="1:14" ht="16">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -3848,7 +3848,7 @@
       <c r="M183" s="7"/>
       <c r="N183" s="7"/>
     </row>
-    <row r="184" spans="1:14" ht="13.5">
+    <row r="184" spans="1:14" ht="16">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -3863,7 +3863,7 @@
       <c r="M184" s="7"/>
       <c r="N184" s="7"/>
     </row>
-    <row r="185" spans="1:14" ht="13.5">
+    <row r="185" spans="1:14" ht="16">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
@@ -3878,7 +3878,7 @@
       <c r="M185" s="7"/>
       <c r="N185" s="7"/>
     </row>
-    <row r="186" spans="1:14" ht="13.5">
+    <row r="186" spans="1:14" ht="16">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -3893,7 +3893,7 @@
       <c r="M186" s="7"/>
       <c r="N186" s="7"/>
     </row>
-    <row r="187" spans="1:14" ht="13.5">
+    <row r="187" spans="1:14" ht="16">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -3908,7 +3908,7 @@
       <c r="M187" s="7"/>
       <c r="N187" s="7"/>
     </row>
-    <row r="188" spans="1:14" ht="13.5">
+    <row r="188" spans="1:14" ht="16">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -3923,7 +3923,7 @@
       <c r="M188" s="7"/>
       <c r="N188" s="7"/>
     </row>
-    <row r="189" spans="1:14" ht="13.5">
+    <row r="189" spans="1:14" ht="16">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -3938,7 +3938,7 @@
       <c r="M189" s="7"/>
       <c r="N189" s="7"/>
     </row>
-    <row r="190" spans="1:14" ht="13.5">
+    <row r="190" spans="1:14" ht="16">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -3953,7 +3953,7 @@
       <c r="M190" s="7"/>
       <c r="N190" s="7"/>
     </row>
-    <row r="191" spans="1:14" ht="13.5">
+    <row r="191" spans="1:14" ht="16">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -3968,7 +3968,7 @@
       <c r="M191" s="7"/>
       <c r="N191" s="7"/>
     </row>
-    <row r="192" spans="1:14" ht="13.5">
+    <row r="192" spans="1:14" ht="16">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -3983,7 +3983,7 @@
       <c r="M192" s="7"/>
       <c r="N192" s="7"/>
     </row>
-    <row r="193" spans="1:14" ht="13.5">
+    <row r="193" spans="1:14" ht="16">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -3998,7 +3998,7 @@
       <c r="M193" s="7"/>
       <c r="N193" s="7"/>
     </row>
-    <row r="194" spans="1:14" ht="13.5">
+    <row r="194" spans="1:14" ht="16">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -4013,7 +4013,7 @@
       <c r="M194" s="7"/>
       <c r="N194" s="7"/>
     </row>
-    <row r="195" spans="1:14" ht="13.5">
+    <row r="195" spans="1:14" ht="16">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -4028,7 +4028,7 @@
       <c r="M195" s="7"/>
       <c r="N195" s="7"/>
     </row>
-    <row r="196" spans="1:14" ht="13.5">
+    <row r="196" spans="1:14" ht="16">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -4043,7 +4043,7 @@
       <c r="M196" s="7"/>
       <c r="N196" s="7"/>
     </row>
-    <row r="197" spans="1:14" ht="13.5">
+    <row r="197" spans="1:14" ht="16">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -4058,7 +4058,7 @@
       <c r="M197" s="7"/>
       <c r="N197" s="7"/>
     </row>
-    <row r="198" spans="1:14" ht="13.5">
+    <row r="198" spans="1:14" ht="16">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -4073,7 +4073,7 @@
       <c r="M198" s="7"/>
       <c r="N198" s="7"/>
     </row>
-    <row r="199" spans="1:14" ht="13.5">
+    <row r="199" spans="1:14" ht="16">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -4088,7 +4088,7 @@
       <c r="M199" s="7"/>
       <c r="N199" s="7"/>
     </row>
-    <row r="200" spans="1:14" ht="13.5">
+    <row r="200" spans="1:14" ht="16">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -4103,7 +4103,7 @@
       <c r="M200" s="7"/>
       <c r="N200" s="7"/>
     </row>
-    <row r="201" spans="1:14" ht="13.5">
+    <row r="201" spans="1:14" ht="16">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -4118,7 +4118,7 @@
       <c r="M201" s="7"/>
       <c r="N201" s="7"/>
     </row>
-    <row r="202" spans="1:14" ht="13.5">
+    <row r="202" spans="1:14" ht="16">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -4133,7 +4133,7 @@
       <c r="M202" s="7"/>
       <c r="N202" s="7"/>
     </row>
-    <row r="203" spans="1:14" ht="13.5">
+    <row r="203" spans="1:14" ht="16">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
@@ -4148,7 +4148,7 @@
       <c r="M203" s="7"/>
       <c r="N203" s="7"/>
     </row>
-    <row r="204" spans="1:14" ht="13.5">
+    <row r="204" spans="1:14" ht="16">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
@@ -4163,7 +4163,7 @@
       <c r="M204" s="7"/>
       <c r="N204" s="7"/>
     </row>
-    <row r="205" spans="1:14" ht="13.5">
+    <row r="205" spans="1:14" ht="16">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
@@ -4178,7 +4178,7 @@
       <c r="M205" s="7"/>
       <c r="N205" s="7"/>
     </row>
-    <row r="206" spans="1:14" ht="13.5">
+    <row r="206" spans="1:14" ht="16">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
@@ -4193,7 +4193,7 @@
       <c r="M206" s="7"/>
       <c r="N206" s="7"/>
     </row>
-    <row r="207" spans="1:14" ht="13.5">
+    <row r="207" spans="1:14" ht="16">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
@@ -4208,7 +4208,7 @@
       <c r="M207" s="7"/>
       <c r="N207" s="7"/>
     </row>
-    <row r="208" spans="1:14" ht="13.5">
+    <row r="208" spans="1:14" ht="16">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
@@ -4223,7 +4223,7 @@
       <c r="M208" s="7"/>
       <c r="N208" s="7"/>
     </row>
-    <row r="209" spans="1:14" ht="13.5">
+    <row r="209" spans="1:14" ht="16">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
@@ -4238,7 +4238,7 @@
       <c r="M209" s="7"/>
       <c r="N209" s="7"/>
     </row>
-    <row r="210" spans="1:14" ht="13.5">
+    <row r="210" spans="1:14" ht="16">
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
@@ -4253,7 +4253,7 @@
       <c r="M210" s="7"/>
       <c r="N210" s="7"/>
     </row>
-    <row r="211" spans="1:14" ht="13.5">
+    <row r="211" spans="1:14" ht="16">
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
@@ -4268,7 +4268,7 @@
       <c r="M211" s="7"/>
       <c r="N211" s="7"/>
     </row>
-    <row r="212" spans="1:14" ht="13.5">
+    <row r="212" spans="1:14" ht="16">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
@@ -4283,7 +4283,7 @@
       <c r="M212" s="7"/>
       <c r="N212" s="7"/>
     </row>
-    <row r="213" spans="1:14" ht="13.5">
+    <row r="213" spans="1:14" ht="16">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
@@ -4298,7 +4298,7 @@
       <c r="M213" s="7"/>
       <c r="N213" s="7"/>
     </row>
-    <row r="214" spans="1:14" ht="13.5">
+    <row r="214" spans="1:14" ht="16">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
@@ -4313,7 +4313,7 @@
       <c r="M214" s="7"/>
       <c r="N214" s="7"/>
     </row>
-    <row r="215" spans="1:14" ht="13.5">
+    <row r="215" spans="1:14" ht="16">
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
@@ -4328,7 +4328,7 @@
       <c r="M215" s="7"/>
       <c r="N215" s="7"/>
     </row>
-    <row r="216" spans="1:14" ht="13.5">
+    <row r="216" spans="1:14" ht="16">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
@@ -4343,7 +4343,7 @@
       <c r="M216" s="7"/>
       <c r="N216" s="7"/>
     </row>
-    <row r="217" spans="1:14" ht="13.5">
+    <row r="217" spans="1:14" ht="16">
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
@@ -4358,7 +4358,7 @@
       <c r="M217" s="7"/>
       <c r="N217" s="7"/>
     </row>
-    <row r="218" spans="1:14" ht="13.5">
+    <row r="218" spans="1:14" ht="16">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
@@ -4373,7 +4373,7 @@
       <c r="M218" s="7"/>
       <c r="N218" s="7"/>
     </row>
-    <row r="219" spans="1:14" ht="13.5">
+    <row r="219" spans="1:14" ht="16">
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
@@ -4388,7 +4388,7 @@
       <c r="M219" s="7"/>
       <c r="N219" s="7"/>
     </row>
-    <row r="220" spans="1:14" ht="13.5">
+    <row r="220" spans="1:14" ht="16">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
@@ -4403,7 +4403,7 @@
       <c r="M220" s="7"/>
       <c r="N220" s="7"/>
     </row>
-    <row r="221" spans="1:14" ht="13.5">
+    <row r="221" spans="1:14" ht="16">
       <c r="A221" s="2"/>
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
@@ -4418,7 +4418,7 @@
       <c r="M221" s="7"/>
       <c r="N221" s="7"/>
     </row>
-    <row r="222" spans="1:14" ht="13.5">
+    <row r="222" spans="1:14" ht="16">
       <c r="A222" s="2"/>
       <c r="B222" s="2"/>
       <c r="C222" s="2"/>
@@ -4433,7 +4433,7 @@
       <c r="M222" s="7"/>
       <c r="N222" s="7"/>
     </row>
-    <row r="223" spans="1:14" ht="13.5">
+    <row r="223" spans="1:14" ht="16">
       <c r="A223" s="2"/>
       <c r="B223" s="2"/>
       <c r="C223" s="2"/>
@@ -4448,7 +4448,7 @@
       <c r="M223" s="7"/>
       <c r="N223" s="7"/>
     </row>
-    <row r="224" spans="1:14" ht="13.5">
+    <row r="224" spans="1:14" ht="16">
       <c r="A224" s="2"/>
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
@@ -4463,7 +4463,7 @@
       <c r="M224" s="7"/>
       <c r="N224" s="7"/>
     </row>
-    <row r="225" spans="1:14" ht="13.5">
+    <row r="225" spans="1:14" ht="16">
       <c r="A225" s="2"/>
       <c r="B225" s="2"/>
       <c r="C225" s="2"/>
@@ -4478,7 +4478,7 @@
       <c r="M225" s="7"/>
       <c r="N225" s="7"/>
     </row>
-    <row r="226" spans="1:14" ht="13.5">
+    <row r="226" spans="1:14" ht="16">
       <c r="A226" s="2"/>
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
@@ -4493,7 +4493,7 @@
       <c r="M226" s="7"/>
       <c r="N226" s="7"/>
     </row>
-    <row r="227" spans="1:14" ht="13.5">
+    <row r="227" spans="1:14" ht="16">
       <c r="A227" s="2"/>
       <c r="B227" s="2"/>
       <c r="C227" s="2"/>
@@ -4508,7 +4508,7 @@
       <c r="M227" s="7"/>
       <c r="N227" s="7"/>
     </row>
-    <row r="228" spans="1:14" ht="13.5">
+    <row r="228" spans="1:14" ht="16">
       <c r="A228" s="2"/>
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
@@ -4523,7 +4523,7 @@
       <c r="M228" s="7"/>
       <c r="N228" s="7"/>
     </row>
-    <row r="229" spans="1:14" ht="13.5">
+    <row r="229" spans="1:14" ht="16">
       <c r="A229" s="2"/>
       <c r="B229" s="2"/>
       <c r="C229" s="2"/>
@@ -4538,7 +4538,7 @@
       <c r="M229" s="7"/>
       <c r="N229" s="7"/>
     </row>
-    <row r="230" spans="1:14" ht="13.5">
+    <row r="230" spans="1:14" ht="16">
       <c r="A230" s="2"/>
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
@@ -4553,7 +4553,7 @@
       <c r="M230" s="7"/>
       <c r="N230" s="7"/>
     </row>
-    <row r="231" spans="1:14" ht="13.5">
+    <row r="231" spans="1:14" ht="16">
       <c r="A231" s="2"/>
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
@@ -4568,7 +4568,7 @@
       <c r="M231" s="7"/>
       <c r="N231" s="7"/>
     </row>
-    <row r="232" spans="1:14" ht="13.5">
+    <row r="232" spans="1:14" ht="16">
       <c r="A232" s="2"/>
       <c r="B232" s="2"/>
       <c r="C232" s="2"/>
@@ -4583,7 +4583,7 @@
       <c r="M232" s="7"/>
       <c r="N232" s="7"/>
     </row>
-    <row r="233" spans="1:14" ht="13.5">
+    <row r="233" spans="1:14" ht="16">
       <c r="A233" s="2"/>
       <c r="B233" s="2"/>
       <c r="C233" s="2"/>
@@ -4598,7 +4598,7 @@
       <c r="M233" s="7"/>
       <c r="N233" s="7"/>
     </row>
-    <row r="234" spans="1:14" ht="13.5">
+    <row r="234" spans="1:14" ht="16">
       <c r="A234" s="2"/>
       <c r="B234" s="2"/>
       <c r="C234" s="2"/>
@@ -4613,7 +4613,7 @@
       <c r="M234" s="7"/>
       <c r="N234" s="7"/>
     </row>
-    <row r="235" spans="1:14" ht="13.5">
+    <row r="235" spans="1:14" ht="16">
       <c r="A235" s="2"/>
       <c r="B235" s="2"/>
       <c r="C235" s="2"/>
@@ -4628,7 +4628,7 @@
       <c r="M235" s="7"/>
       <c r="N235" s="7"/>
     </row>
-    <row r="236" spans="1:14" ht="13.5">
+    <row r="236" spans="1:14" ht="16">
       <c r="A236" s="2"/>
       <c r="B236" s="2"/>
       <c r="C236" s="2"/>
@@ -4643,7 +4643,7 @@
       <c r="M236" s="7"/>
       <c r="N236" s="7"/>
     </row>
-    <row r="237" spans="1:14" ht="13.5">
+    <row r="237" spans="1:14" ht="16">
       <c r="A237" s="2"/>
       <c r="B237" s="2"/>
       <c r="C237" s="2"/>
@@ -4658,7 +4658,7 @@
       <c r="M237" s="7"/>
       <c r="N237" s="7"/>
     </row>
-    <row r="238" spans="1:14" ht="13.5">
+    <row r="238" spans="1:14" ht="16">
       <c r="A238" s="2"/>
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>
@@ -4673,7 +4673,7 @@
       <c r="M238" s="7"/>
       <c r="N238" s="7"/>
     </row>
-    <row r="239" spans="1:14" ht="13.5">
+    <row r="239" spans="1:14" ht="16">
       <c r="A239" s="2"/>
       <c r="B239" s="2"/>
       <c r="C239" s="2"/>
@@ -4688,7 +4688,7 @@
       <c r="M239" s="7"/>
       <c r="N239" s="7"/>
     </row>
-    <row r="240" spans="1:14" ht="13.5">
+    <row r="240" spans="1:14" ht="16">
       <c r="A240" s="2"/>
       <c r="B240" s="2"/>
       <c r="C240" s="2"/>
@@ -4703,7 +4703,7 @@
       <c r="M240" s="7"/>
       <c r="N240" s="7"/>
     </row>
-    <row r="241" spans="1:14" ht="13.5">
+    <row r="241" spans="1:14" ht="16">
       <c r="A241" s="2"/>
       <c r="B241" s="2"/>
       <c r="C241" s="2"/>
@@ -4718,7 +4718,7 @@
       <c r="M241" s="7"/>
       <c r="N241" s="7"/>
     </row>
-    <row r="242" spans="1:14" ht="13.5">
+    <row r="242" spans="1:14" ht="16">
       <c r="A242" s="2"/>
       <c r="B242" s="2"/>
       <c r="C242" s="2"/>
@@ -4733,7 +4733,7 @@
       <c r="M242" s="7"/>
       <c r="N242" s="7"/>
     </row>
-    <row r="243" spans="1:14" ht="13.5">
+    <row r="243" spans="1:14" ht="16">
       <c r="A243" s="2"/>
       <c r="B243" s="2"/>
       <c r="C243" s="2"/>
@@ -4748,7 +4748,7 @@
       <c r="M243" s="7"/>
       <c r="N243" s="7"/>
     </row>
-    <row r="244" spans="1:14" ht="13.5">
+    <row r="244" spans="1:14" ht="16">
       <c r="A244" s="2"/>
       <c r="B244" s="2"/>
       <c r="C244" s="2"/>
@@ -4763,7 +4763,7 @@
       <c r="M244" s="7"/>
       <c r="N244" s="7"/>
     </row>
-    <row r="245" spans="1:14" ht="13.5">
+    <row r="245" spans="1:14" ht="16">
       <c r="A245" s="2"/>
       <c r="B245" s="2"/>
       <c r="C245" s="2"/>
@@ -4778,7 +4778,7 @@
       <c r="M245" s="7"/>
       <c r="N245" s="7"/>
     </row>
-    <row r="246" spans="1:14" ht="13.5">
+    <row r="246" spans="1:14" ht="16">
       <c r="A246" s="2"/>
       <c r="B246" s="2"/>
       <c r="C246" s="2"/>
@@ -4793,7 +4793,7 @@
       <c r="M246" s="7"/>
       <c r="N246" s="7"/>
     </row>
-    <row r="247" spans="1:14" ht="13.5">
+    <row r="247" spans="1:14" ht="16">
       <c r="A247" s="2"/>
       <c r="B247" s="2"/>
       <c r="C247" s="2"/>
@@ -4808,7 +4808,7 @@
       <c r="M247" s="7"/>
       <c r="N247" s="7"/>
     </row>
-    <row r="248" spans="1:14" ht="13.5">
+    <row r="248" spans="1:14" ht="16">
       <c r="A248" s="2"/>
       <c r="B248" s="2"/>
       <c r="C248" s="2"/>
@@ -4823,7 +4823,7 @@
       <c r="M248" s="7"/>
       <c r="N248" s="7"/>
     </row>
-    <row r="249" spans="1:14" ht="13.5">
+    <row r="249" spans="1:14" ht="16">
       <c r="A249" s="2"/>
       <c r="B249" s="2"/>
       <c r="C249" s="2"/>
@@ -4838,7 +4838,7 @@
       <c r="M249" s="7"/>
       <c r="N249" s="7"/>
     </row>
-    <row r="250" spans="1:14" ht="13.5">
+    <row r="250" spans="1:14" ht="16">
       <c r="A250" s="2"/>
       <c r="B250" s="2"/>
       <c r="C250" s="2"/>
@@ -4853,7 +4853,7 @@
       <c r="M250" s="7"/>
       <c r="N250" s="7"/>
     </row>
-    <row r="251" spans="1:14" ht="13.5">
+    <row r="251" spans="1:14" ht="16">
       <c r="A251" s="2"/>
       <c r="B251" s="2"/>
       <c r="C251" s="2"/>
@@ -4868,7 +4868,7 @@
       <c r="M251" s="7"/>
       <c r="N251" s="7"/>
     </row>
-    <row r="252" spans="1:14" ht="13.5">
+    <row r="252" spans="1:14" ht="16">
       <c r="A252" s="2"/>
       <c r="B252" s="2"/>
       <c r="C252" s="2"/>
@@ -4883,7 +4883,7 @@
       <c r="M252" s="7"/>
       <c r="N252" s="7"/>
     </row>
-    <row r="253" spans="1:14" ht="13.5">
+    <row r="253" spans="1:14" ht="16">
       <c r="A253" s="2"/>
       <c r="B253" s="2"/>
       <c r="C253" s="2"/>
@@ -4898,7 +4898,7 @@
       <c r="M253" s="7"/>
       <c r="N253" s="7"/>
     </row>
-    <row r="254" spans="1:14" ht="13.5">
+    <row r="254" spans="1:14" ht="16">
       <c r="A254" s="2"/>
       <c r="B254" s="2"/>
       <c r="C254" s="2"/>
@@ -4913,7 +4913,7 @@
       <c r="M254" s="7"/>
       <c r="N254" s="7"/>
     </row>
-    <row r="255" spans="1:14" ht="13.5">
+    <row r="255" spans="1:14" ht="16">
       <c r="A255" s="2"/>
       <c r="B255" s="2"/>
       <c r="C255" s="2"/>
@@ -4928,7 +4928,7 @@
       <c r="M255" s="7"/>
       <c r="N255" s="7"/>
     </row>
-    <row r="256" spans="1:14" ht="13.5">
+    <row r="256" spans="1:14" ht="16">
       <c r="A256" s="2"/>
       <c r="B256" s="2"/>
       <c r="C256" s="2"/>
@@ -4943,7 +4943,7 @@
       <c r="M256" s="7"/>
       <c r="N256" s="7"/>
     </row>
-    <row r="257" spans="1:14" ht="13.5">
+    <row r="257" spans="1:14" ht="16">
       <c r="A257" s="2"/>
       <c r="B257" s="2"/>
       <c r="C257" s="2"/>
@@ -4958,7 +4958,7 @@
       <c r="M257" s="7"/>
       <c r="N257" s="7"/>
     </row>
-    <row r="258" spans="1:14" ht="13.5">
+    <row r="258" spans="1:14" ht="16">
       <c r="A258" s="2"/>
       <c r="B258" s="2"/>
       <c r="C258" s="2"/>
@@ -4973,7 +4973,7 @@
       <c r="M258" s="7"/>
       <c r="N258" s="7"/>
     </row>
-    <row r="259" spans="1:14" ht="13.5">
+    <row r="259" spans="1:14" ht="16">
       <c r="A259" s="2"/>
       <c r="B259" s="2"/>
       <c r="C259" s="2"/>
@@ -4988,7 +4988,7 @@
       <c r="M259" s="7"/>
       <c r="N259" s="7"/>
     </row>
-    <row r="260" spans="1:14" ht="13.5">
+    <row r="260" spans="1:14" ht="16">
       <c r="A260" s="2"/>
       <c r="B260" s="2"/>
       <c r="C260" s="2"/>
@@ -5003,7 +5003,7 @@
       <c r="M260" s="7"/>
       <c r="N260" s="7"/>
     </row>
-    <row r="261" spans="1:14" ht="13.5">
+    <row r="261" spans="1:14" ht="16">
       <c r="A261" s="2"/>
       <c r="B261" s="2"/>
       <c r="C261" s="2"/>
@@ -5018,7 +5018,7 @@
       <c r="M261" s="7"/>
       <c r="N261" s="7"/>
     </row>
-    <row r="262" spans="1:14" ht="13.5">
+    <row r="262" spans="1:14" ht="16">
       <c r="A262" s="2"/>
       <c r="B262" s="2"/>
       <c r="C262" s="2"/>
@@ -5033,7 +5033,7 @@
       <c r="M262" s="7"/>
       <c r="N262" s="7"/>
     </row>
-    <row r="263" spans="1:14" ht="13.5">
+    <row r="263" spans="1:14" ht="16">
       <c r="A263" s="2"/>
       <c r="B263" s="2"/>
       <c r="C263" s="2"/>
@@ -5048,7 +5048,7 @@
       <c r="M263" s="7"/>
       <c r="N263" s="7"/>
     </row>
-    <row r="264" spans="1:14" ht="13.5">
+    <row r="264" spans="1:14" ht="16">
       <c r="A264" s="2"/>
       <c r="B264" s="2"/>
       <c r="C264" s="2"/>
@@ -5063,7 +5063,7 @@
       <c r="M264" s="7"/>
       <c r="N264" s="7"/>
     </row>
-    <row r="265" spans="1:14" ht="13.5">
+    <row r="265" spans="1:14" ht="16">
       <c r="A265" s="2"/>
       <c r="B265" s="2"/>
       <c r="C265" s="2"/>
@@ -5078,7 +5078,7 @@
       <c r="M265" s="7"/>
       <c r="N265" s="7"/>
     </row>
-    <row r="266" spans="1:14" ht="13.5">
+    <row r="266" spans="1:14" ht="16">
       <c r="A266" s="2"/>
       <c r="B266" s="2"/>
       <c r="C266" s="2"/>
@@ -5093,7 +5093,7 @@
       <c r="M266" s="7"/>
       <c r="N266" s="7"/>
     </row>
-    <row r="267" spans="1:14" ht="13.5">
+    <row r="267" spans="1:14" ht="16">
       <c r="A267" s="2"/>
       <c r="B267" s="2"/>
       <c r="C267" s="2"/>
@@ -5108,7 +5108,7 @@
       <c r="M267" s="7"/>
       <c r="N267" s="7"/>
     </row>
-    <row r="268" spans="1:14" ht="13.5">
+    <row r="268" spans="1:14" ht="16">
       <c r="A268" s="2"/>
       <c r="B268" s="2"/>
       <c r="C268" s="2"/>
@@ -5123,7 +5123,7 @@
       <c r="M268" s="7"/>
       <c r="N268" s="7"/>
     </row>
-    <row r="269" spans="1:14" ht="13.5">
+    <row r="269" spans="1:14" ht="16">
       <c r="A269" s="2"/>
       <c r="B269" s="2"/>
       <c r="C269" s="2"/>
@@ -5138,7 +5138,7 @@
       <c r="M269" s="7"/>
       <c r="N269" s="7"/>
     </row>
-    <row r="270" spans="1:14" ht="13.5">
+    <row r="270" spans="1:14" ht="16">
       <c r="A270" s="2"/>
       <c r="B270" s="2"/>
       <c r="C270" s="2"/>
@@ -5153,7 +5153,7 @@
       <c r="M270" s="7"/>
       <c r="N270" s="7"/>
     </row>
-    <row r="271" spans="1:14" ht="13.5">
+    <row r="271" spans="1:14" ht="16">
       <c r="A271" s="2"/>
       <c r="B271" s="2"/>
       <c r="C271" s="2"/>
@@ -5168,7 +5168,7 @@
       <c r="M271" s="7"/>
       <c r="N271" s="7"/>
     </row>
-    <row r="272" spans="1:14" ht="13.5">
+    <row r="272" spans="1:14" ht="16">
       <c r="A272" s="2"/>
       <c r="B272" s="2"/>
       <c r="C272" s="2"/>
@@ -5183,7 +5183,7 @@
       <c r="M272" s="7"/>
       <c r="N272" s="7"/>
     </row>
-    <row r="273" spans="1:14" ht="13.5">
+    <row r="273" spans="1:14" ht="16">
       <c r="A273" s="2"/>
       <c r="B273" s="2"/>
       <c r="C273" s="2"/>
@@ -5198,7 +5198,7 @@
       <c r="M273" s="7"/>
       <c r="N273" s="7"/>
     </row>
-    <row r="274" spans="1:14" ht="13.5">
+    <row r="274" spans="1:14" ht="16">
       <c r="A274" s="2"/>
       <c r="B274" s="2"/>
       <c r="C274" s="2"/>
@@ -5213,7 +5213,7 @@
       <c r="M274" s="7"/>
       <c r="N274" s="7"/>
     </row>
-    <row r="275" spans="1:14" ht="13.5">
+    <row r="275" spans="1:14" ht="16">
       <c r="A275" s="2"/>
       <c r="B275" s="2"/>
       <c r="C275" s="2"/>
@@ -5228,7 +5228,7 @@
       <c r="M275" s="7"/>
       <c r="N275" s="7"/>
     </row>
-    <row r="276" spans="1:14" ht="13.5">
+    <row r="276" spans="1:14" ht="16">
       <c r="A276" s="2"/>
       <c r="B276" s="2"/>
       <c r="C276" s="2"/>
@@ -5243,7 +5243,7 @@
       <c r="M276" s="7"/>
       <c r="N276" s="7"/>
     </row>
-    <row r="277" spans="1:14" ht="13.5">
+    <row r="277" spans="1:14" ht="16">
       <c r="A277" s="2"/>
       <c r="B277" s="2"/>
       <c r="C277" s="2"/>
@@ -5258,7 +5258,7 @@
       <c r="M277" s="7"/>
       <c r="N277" s="7"/>
     </row>
-    <row r="278" spans="1:14" ht="13.5">
+    <row r="278" spans="1:14" ht="16">
       <c r="A278" s="2"/>
       <c r="B278" s="2"/>
       <c r="C278" s="2"/>
@@ -5273,7 +5273,7 @@
       <c r="M278" s="7"/>
       <c r="N278" s="7"/>
     </row>
-    <row r="279" spans="1:14" ht="13.5">
+    <row r="279" spans="1:14" ht="16">
       <c r="A279" s="2"/>
       <c r="B279" s="2"/>
       <c r="C279" s="2"/>
@@ -5288,7 +5288,7 @@
       <c r="M279" s="7"/>
       <c r="N279" s="7"/>
     </row>
-    <row r="280" spans="1:14" ht="13.5">
+    <row r="280" spans="1:14" ht="16">
       <c r="A280" s="2"/>
       <c r="B280" s="2"/>
       <c r="C280" s="2"/>
@@ -5303,7 +5303,7 @@
       <c r="M280" s="7"/>
       <c r="N280" s="7"/>
     </row>
-    <row r="281" spans="1:14" ht="13.5">
+    <row r="281" spans="1:14" ht="16">
       <c r="A281" s="2"/>
       <c r="B281" s="2"/>
       <c r="C281" s="2"/>
@@ -5318,7 +5318,7 @@
       <c r="M281" s="7"/>
       <c r="N281" s="7"/>
     </row>
-    <row r="282" spans="1:14" ht="13.5">
+    <row r="282" spans="1:14" ht="16">
       <c r="A282" s="2"/>
       <c r="B282" s="2"/>
       <c r="C282" s="2"/>
@@ -5333,7 +5333,7 @@
       <c r="M282" s="7"/>
       <c r="N282" s="7"/>
     </row>
-    <row r="283" spans="1:14" ht="13.5">
+    <row r="283" spans="1:14" ht="16">
       <c r="A283" s="2"/>
       <c r="B283" s="2"/>
       <c r="C283" s="2"/>
@@ -5348,7 +5348,7 @@
       <c r="M283" s="7"/>
       <c r="N283" s="7"/>
     </row>
-    <row r="284" spans="1:14" ht="13.5">
+    <row r="284" spans="1:14" ht="16">
       <c r="A284" s="2"/>
       <c r="B284" s="2"/>
       <c r="C284" s="2"/>
@@ -5363,7 +5363,7 @@
       <c r="M284" s="7"/>
       <c r="N284" s="7"/>
     </row>
-    <row r="285" spans="1:14" ht="13.5">
+    <row r="285" spans="1:14" ht="16">
       <c r="A285" s="2"/>
       <c r="B285" s="2"/>
       <c r="C285" s="2"/>
@@ -5378,7 +5378,7 @@
       <c r="M285" s="7"/>
       <c r="N285" s="7"/>
     </row>
-    <row r="286" spans="1:14" ht="13.5">
+    <row r="286" spans="1:14" ht="16">
       <c r="A286" s="2"/>
       <c r="B286" s="2"/>
       <c r="C286" s="2"/>
@@ -5393,7 +5393,7 @@
       <c r="M286" s="7"/>
       <c r="N286" s="7"/>
     </row>
-    <row r="287" spans="1:14" ht="13.5">
+    <row r="287" spans="1:14" ht="16">
       <c r="A287" s="2"/>
       <c r="B287" s="2"/>
       <c r="C287" s="2"/>
@@ -5408,7 +5408,7 @@
       <c r="M287" s="7"/>
       <c r="N287" s="7"/>
     </row>
-    <row r="288" spans="1:14" ht="13.5">
+    <row r="288" spans="1:14" ht="16">
       <c r="A288" s="2"/>
       <c r="B288" s="2"/>
       <c r="C288" s="2"/>
@@ -5423,7 +5423,7 @@
       <c r="M288" s="7"/>
       <c r="N288" s="7"/>
     </row>
-    <row r="289" spans="1:14" ht="13.5">
+    <row r="289" spans="1:14" ht="16">
       <c r="A289" s="2"/>
       <c r="B289" s="2"/>
       <c r="C289" s="2"/>
@@ -5438,7 +5438,7 @@
       <c r="M289" s="7"/>
       <c r="N289" s="7"/>
     </row>
-    <row r="290" spans="1:14" ht="13.5">
+    <row r="290" spans="1:14" ht="16">
       <c r="A290" s="2"/>
       <c r="B290" s="2"/>
       <c r="C290" s="2"/>
@@ -5453,7 +5453,7 @@
       <c r="M290" s="7"/>
       <c r="N290" s="7"/>
     </row>
-    <row r="291" spans="1:14" ht="13.5">
+    <row r="291" spans="1:14" ht="16">
       <c r="A291" s="2"/>
       <c r="B291" s="2"/>
       <c r="C291" s="2"/>
@@ -5468,7 +5468,7 @@
       <c r="M291" s="7"/>
       <c r="N291" s="7"/>
     </row>
-    <row r="292" spans="1:14" ht="13.5">
+    <row r="292" spans="1:14" ht="16">
       <c r="A292" s="2"/>
       <c r="B292" s="2"/>
       <c r="C292" s="2"/>
@@ -5483,7 +5483,7 @@
       <c r="M292" s="7"/>
       <c r="N292" s="7"/>
     </row>
-    <row r="293" spans="1:14" ht="13.5">
+    <row r="293" spans="1:14" ht="16">
       <c r="A293" s="2"/>
       <c r="B293" s="2"/>
       <c r="C293" s="2"/>
@@ -5498,7 +5498,7 @@
       <c r="M293" s="7"/>
       <c r="N293" s="7"/>
     </row>
-    <row r="294" spans="1:14" ht="13.5">
+    <row r="294" spans="1:14" ht="16">
       <c r="A294" s="2"/>
       <c r="B294" s="2"/>
       <c r="C294" s="2"/>
@@ -5513,7 +5513,7 @@
       <c r="M294" s="7"/>
       <c r="N294" s="7"/>
     </row>
-    <row r="295" spans="1:14" ht="13.5">
+    <row r="295" spans="1:14" ht="16">
       <c r="A295" s="2"/>
       <c r="B295" s="2"/>
       <c r="C295" s="2"/>
@@ -5528,7 +5528,7 @@
       <c r="M295" s="7"/>
       <c r="N295" s="7"/>
     </row>
-    <row r="296" spans="1:14" ht="13.5">
+    <row r="296" spans="1:14" ht="16">
       <c r="A296" s="2"/>
       <c r="B296" s="2"/>
       <c r="C296" s="2"/>
@@ -5543,7 +5543,7 @@
       <c r="M296" s="7"/>
       <c r="N296" s="7"/>
     </row>
-    <row r="297" spans="1:14" ht="13.5">
+    <row r="297" spans="1:14" ht="16">
       <c r="A297" s="2"/>
       <c r="B297" s="2"/>
       <c r="C297" s="2"/>
@@ -5558,7 +5558,7 @@
       <c r="M297" s="7"/>
       <c r="N297" s="7"/>
     </row>
-    <row r="298" spans="1:14" ht="13.5">
+    <row r="298" spans="1:14" ht="16">
       <c r="A298" s="2"/>
       <c r="B298" s="2"/>
       <c r="C298" s="2"/>
@@ -5573,7 +5573,7 @@
       <c r="M298" s="7"/>
       <c r="N298" s="7"/>
     </row>
-    <row r="299" spans="1:14" ht="13.5">
+    <row r="299" spans="1:14" ht="16">
       <c r="A299" s="2"/>
       <c r="B299" s="2"/>
       <c r="C299" s="2"/>
@@ -5588,7 +5588,7 @@
       <c r="M299" s="7"/>
       <c r="N299" s="7"/>
     </row>
-    <row r="300" spans="1:14" ht="13.5">
+    <row r="300" spans="1:14" ht="16">
       <c r="A300" s="2"/>
       <c r="B300" s="2"/>
       <c r="C300" s="2"/>
@@ -5603,7 +5603,7 @@
       <c r="M300" s="7"/>
       <c r="N300" s="7"/>
     </row>
-    <row r="301" spans="1:14" ht="13.5">
+    <row r="301" spans="1:14" ht="16">
       <c r="A301" s="2"/>
       <c r="B301" s="2"/>
       <c r="C301" s="2"/>
@@ -5618,7 +5618,7 @@
       <c r="M301" s="7"/>
       <c r="N301" s="7"/>
     </row>
-    <row r="302" spans="1:14" ht="13.5">
+    <row r="302" spans="1:14" ht="16">
       <c r="A302" s="2"/>
       <c r="B302" s="2"/>
       <c r="C302" s="2"/>
@@ -5633,7 +5633,7 @@
       <c r="M302" s="7"/>
       <c r="N302" s="7"/>
     </row>
-    <row r="303" spans="1:14" ht="13.5">
+    <row r="303" spans="1:14" ht="16">
       <c r="A303" s="2"/>
       <c r="B303" s="2"/>
       <c r="C303" s="2"/>
@@ -5648,7 +5648,7 @@
       <c r="M303" s="7"/>
       <c r="N303" s="7"/>
     </row>
-    <row r="304" spans="1:14" ht="13.5">
+    <row r="304" spans="1:14" ht="16">
       <c r="A304" s="2"/>
       <c r="B304" s="2"/>
       <c r="C304" s="2"/>
@@ -5663,7 +5663,7 @@
       <c r="M304" s="7"/>
       <c r="N304" s="7"/>
     </row>
-    <row r="305" spans="1:14" ht="13.5">
+    <row r="305" spans="1:14" ht="16">
       <c r="A305" s="2"/>
       <c r="B305" s="2"/>
       <c r="C305" s="2"/>
@@ -5678,7 +5678,7 @@
       <c r="M305" s="7"/>
       <c r="N305" s="7"/>
     </row>
-    <row r="306" spans="1:14" ht="13.5">
+    <row r="306" spans="1:14" ht="16">
       <c r="A306" s="2"/>
       <c r="B306" s="2"/>
       <c r="C306" s="2"/>
@@ -5693,7 +5693,7 @@
       <c r="M306" s="7"/>
       <c r="N306" s="7"/>
     </row>
-    <row r="307" spans="1:14" ht="13.5">
+    <row r="307" spans="1:14" ht="16">
       <c r="A307" s="2"/>
       <c r="B307" s="2"/>
       <c r="C307" s="2"/>
@@ -5708,7 +5708,7 @@
       <c r="M307" s="7"/>
       <c r="N307" s="7"/>
     </row>
-    <row r="308" spans="1:14" ht="13.5">
+    <row r="308" spans="1:14" ht="16">
       <c r="A308" s="2"/>
       <c r="B308" s="2"/>
       <c r="C308" s="2"/>
@@ -5723,7 +5723,7 @@
       <c r="M308" s="7"/>
       <c r="N308" s="7"/>
     </row>
-    <row r="309" spans="1:14" ht="13.5">
+    <row r="309" spans="1:14" ht="16">
       <c r="A309" s="2"/>
       <c r="B309" s="2"/>
       <c r="C309" s="2"/>
@@ -5738,7 +5738,7 @@
       <c r="M309" s="7"/>
       <c r="N309" s="7"/>
     </row>
-    <row r="310" spans="1:14" ht="13.5">
+    <row r="310" spans="1:14" ht="16">
       <c r="A310" s="2"/>
       <c r="B310" s="2"/>
       <c r="C310" s="2"/>
@@ -5753,7 +5753,7 @@
       <c r="M310" s="7"/>
       <c r="N310" s="7"/>
     </row>
-    <row r="311" spans="1:14" ht="13.5">
+    <row r="311" spans="1:14" ht="16">
       <c r="A311" s="2"/>
       <c r="B311" s="2"/>
       <c r="C311" s="2"/>
@@ -5768,7 +5768,7 @@
       <c r="M311" s="7"/>
       <c r="N311" s="7"/>
     </row>
-    <row r="312" spans="1:14" ht="13.5">
+    <row r="312" spans="1:14" ht="16">
       <c r="A312" s="2"/>
       <c r="B312" s="2"/>
       <c r="C312" s="2"/>
@@ -5783,7 +5783,7 @@
       <c r="M312" s="7"/>
       <c r="N312" s="7"/>
     </row>
-    <row r="313" spans="1:14" ht="13.5">
+    <row r="313" spans="1:14" ht="16">
       <c r="A313" s="2"/>
       <c r="B313" s="2"/>
       <c r="C313" s="2"/>
@@ -5798,7 +5798,7 @@
       <c r="M313" s="7"/>
       <c r="N313" s="7"/>
     </row>
-    <row r="314" spans="1:14" ht="13.5">
+    <row r="314" spans="1:14" ht="16">
       <c r="A314" s="2"/>
       <c r="B314" s="2"/>
       <c r="C314" s="2"/>
@@ -5813,7 +5813,7 @@
       <c r="M314" s="7"/>
       <c r="N314" s="7"/>
     </row>
-    <row r="315" spans="1:14" ht="13.5">
+    <row r="315" spans="1:14" ht="16">
       <c r="A315" s="2"/>
       <c r="B315" s="2"/>
       <c r="C315" s="2"/>
@@ -5828,7 +5828,7 @@
       <c r="M315" s="7"/>
       <c r="N315" s="7"/>
     </row>
-    <row r="316" spans="1:14" ht="13.5">
+    <row r="316" spans="1:14" ht="16">
       <c r="A316" s="2"/>
       <c r="B316" s="2"/>
       <c r="C316" s="2"/>
@@ -5843,7 +5843,7 @@
       <c r="M316" s="7"/>
       <c r="N316" s="7"/>
     </row>
-    <row r="317" spans="1:14" ht="13.5">
+    <row r="317" spans="1:14" ht="16">
       <c r="A317" s="2"/>
       <c r="B317" s="2"/>
       <c r="C317" s="2"/>
@@ -5858,7 +5858,7 @@
       <c r="M317" s="7"/>
       <c r="N317" s="7"/>
     </row>
-    <row r="318" spans="1:14" ht="13.5">
+    <row r="318" spans="1:14" ht="16">
       <c r="A318" s="2"/>
       <c r="B318" s="2"/>
       <c r="C318" s="2"/>
@@ -5873,7 +5873,7 @@
       <c r="M318" s="7"/>
       <c r="N318" s="7"/>
     </row>
-    <row r="319" spans="1:14" ht="13.5">
+    <row r="319" spans="1:14" ht="16">
       <c r="A319" s="2"/>
       <c r="B319" s="2"/>
       <c r="C319" s="2"/>
@@ -5888,7 +5888,7 @@
       <c r="M319" s="7"/>
       <c r="N319" s="7"/>
     </row>
-    <row r="320" spans="1:14" ht="13.5">
+    <row r="320" spans="1:14" ht="16">
       <c r="A320" s="2"/>
       <c r="B320" s="2"/>
       <c r="C320" s="2"/>
@@ -5903,7 +5903,7 @@
       <c r="M320" s="7"/>
       <c r="N320" s="7"/>
     </row>
-    <row r="321" spans="1:14" ht="13.5">
+    <row r="321" spans="1:14" ht="16">
       <c r="A321" s="2"/>
       <c r="B321" s="2"/>
       <c r="C321" s="2"/>
@@ -5918,7 +5918,7 @@
       <c r="M321" s="7"/>
       <c r="N321" s="7"/>
     </row>
-    <row r="322" spans="1:14" ht="13.5">
+    <row r="322" spans="1:14" ht="16">
       <c r="A322" s="2"/>
       <c r="B322" s="2"/>
       <c r="C322" s="2"/>
@@ -5933,7 +5933,7 @@
       <c r="M322" s="7"/>
       <c r="N322" s="7"/>
     </row>
-    <row r="323" spans="1:14" ht="13.5">
+    <row r="323" spans="1:14" ht="16">
       <c r="A323" s="2"/>
       <c r="B323" s="2"/>
       <c r="C323" s="2"/>
@@ -5948,7 +5948,7 @@
       <c r="M323" s="7"/>
       <c r="N323" s="7"/>
     </row>
-    <row r="324" spans="1:14" ht="13.5">
+    <row r="324" spans="1:14" ht="16">
       <c r="A324" s="2"/>
       <c r="B324" s="2"/>
       <c r="C324" s="2"/>
@@ -5963,7 +5963,7 @@
       <c r="M324" s="7"/>
       <c r="N324" s="7"/>
     </row>
-    <row r="325" spans="1:14" ht="13.5">
+    <row r="325" spans="1:14" ht="16">
       <c r="A325" s="2"/>
       <c r="B325" s="2"/>
       <c r="C325" s="2"/>
@@ -5978,7 +5978,7 @@
       <c r="M325" s="7"/>
       <c r="N325" s="7"/>
     </row>
-    <row r="326" spans="1:14" ht="13.5">
+    <row r="326" spans="1:14" ht="16">
       <c r="A326" s="2"/>
       <c r="B326" s="2"/>
       <c r="C326" s="2"/>
@@ -5993,7 +5993,7 @@
       <c r="M326" s="7"/>
       <c r="N326" s="7"/>
     </row>
-    <row r="327" spans="1:14" ht="13.5">
+    <row r="327" spans="1:14" ht="16">
       <c r="A327" s="2"/>
       <c r="B327" s="2"/>
       <c r="C327" s="2"/>
@@ -6008,7 +6008,7 @@
       <c r="M327" s="7"/>
       <c r="N327" s="7"/>
     </row>
-    <row r="328" spans="1:14" ht="13.5">
+    <row r="328" spans="1:14" ht="16">
       <c r="A328" s="2"/>
       <c r="B328" s="2"/>
       <c r="C328" s="2"/>
@@ -6023,7 +6023,7 @@
       <c r="M328" s="7"/>
       <c r="N328" s="7"/>
     </row>
-    <row r="329" spans="1:14" ht="13.5">
+    <row r="329" spans="1:14" ht="16">
       <c r="A329" s="2"/>
       <c r="B329" s="2"/>
       <c r="C329" s="2"/>
@@ -6038,7 +6038,7 @@
       <c r="M329" s="7"/>
       <c r="N329" s="7"/>
     </row>
-    <row r="330" spans="1:14" ht="13.5">
+    <row r="330" spans="1:14" ht="16">
       <c r="A330" s="2"/>
       <c r="B330" s="2"/>
       <c r="C330" s="2"/>
@@ -6053,7 +6053,7 @@
       <c r="M330" s="7"/>
       <c r="N330" s="7"/>
     </row>
-    <row r="331" spans="1:14" ht="13.5">
+    <row r="331" spans="1:14" ht="16">
       <c r="A331" s="2"/>
       <c r="B331" s="2"/>
       <c r="C331" s="2"/>
@@ -6068,7 +6068,7 @@
       <c r="M331" s="7"/>
       <c r="N331" s="7"/>
     </row>
-    <row r="332" spans="1:14" ht="13.5">
+    <row r="332" spans="1:14" ht="16">
       <c r="A332" s="2"/>
       <c r="B332" s="2"/>
       <c r="C332" s="2"/>
@@ -6083,7 +6083,7 @@
       <c r="M332" s="7"/>
       <c r="N332" s="7"/>
     </row>
-    <row r="333" spans="1:14" ht="13.5">
+    <row r="333" spans="1:14" ht="16">
       <c r="A333" s="2"/>
       <c r="B333" s="2"/>
       <c r="C333" s="2"/>
@@ -6098,7 +6098,7 @@
       <c r="M333" s="7"/>
       <c r="N333" s="7"/>
     </row>
-    <row r="334" spans="1:14" ht="13.5">
+    <row r="334" spans="1:14" ht="16">
       <c r="A334" s="2"/>
       <c r="B334" s="2"/>
       <c r="C334" s="2"/>
@@ -6113,7 +6113,7 @@
       <c r="M334" s="7"/>
       <c r="N334" s="7"/>
     </row>
-    <row r="335" spans="1:14" ht="13.5">
+    <row r="335" spans="1:14" ht="16">
       <c r="A335" s="2"/>
       <c r="B335" s="2"/>
       <c r="C335" s="2"/>
@@ -6128,7 +6128,7 @@
       <c r="M335" s="7"/>
       <c r="N335" s="7"/>
     </row>
-    <row r="336" spans="1:14" ht="13.5">
+    <row r="336" spans="1:14" ht="16">
       <c r="A336" s="2"/>
       <c r="B336" s="2"/>
       <c r="C336" s="2"/>
@@ -6143,7 +6143,7 @@
       <c r="M336" s="7"/>
       <c r="N336" s="7"/>
     </row>
-    <row r="337" spans="1:14" ht="13.5">
+    <row r="337" spans="1:14" ht="16">
       <c r="A337" s="2"/>
       <c r="B337" s="2"/>
       <c r="C337" s="2"/>
@@ -6158,7 +6158,7 @@
       <c r="M337" s="7"/>
       <c r="N337" s="7"/>
     </row>
-    <row r="338" spans="1:14" ht="13.5">
+    <row r="338" spans="1:14" ht="16">
       <c r="A338" s="2"/>
       <c r="B338" s="2"/>
       <c r="C338" s="2"/>
@@ -6173,7 +6173,7 @@
       <c r="M338" s="7"/>
       <c r="N338" s="7"/>
     </row>
-    <row r="339" spans="1:14" ht="13.5">
+    <row r="339" spans="1:14" ht="16">
       <c r="A339" s="2"/>
       <c r="B339" s="2"/>
       <c r="C339" s="2"/>
@@ -6188,7 +6188,7 @@
       <c r="M339" s="7"/>
       <c r="N339" s="7"/>
     </row>
-    <row r="340" spans="1:14" ht="13.5">
+    <row r="340" spans="1:14" ht="16">
       <c r="A340" s="2"/>
       <c r="B340" s="2"/>
       <c r="C340" s="2"/>
@@ -6203,7 +6203,7 @@
       <c r="M340" s="7"/>
       <c r="N340" s="7"/>
     </row>
-    <row r="341" spans="1:14" ht="13.5">
+    <row r="341" spans="1:14" ht="16">
       <c r="A341" s="2"/>
       <c r="B341" s="2"/>
       <c r="C341" s="2"/>
@@ -6218,7 +6218,7 @@
       <c r="M341" s="7"/>
       <c r="N341" s="7"/>
     </row>
-    <row r="342" spans="1:14" ht="13.5">
+    <row r="342" spans="1:14" ht="16">
       <c r="A342" s="2"/>
       <c r="B342" s="2"/>
       <c r="C342" s="2"/>
@@ -6233,7 +6233,7 @@
       <c r="M342" s="7"/>
       <c r="N342" s="7"/>
     </row>
-    <row r="343" spans="1:14" ht="13.5">
+    <row r="343" spans="1:14" ht="16">
       <c r="A343" s="2"/>
       <c r="B343" s="2"/>
       <c r="C343" s="2"/>
@@ -6248,7 +6248,7 @@
       <c r="M343" s="7"/>
       <c r="N343" s="7"/>
     </row>
-    <row r="344" spans="1:14" ht="13.5">
+    <row r="344" spans="1:14" ht="16">
       <c r="A344" s="2"/>
       <c r="B344" s="2"/>
       <c r="C344" s="2"/>
@@ -6263,7 +6263,7 @@
       <c r="M344" s="7"/>
       <c r="N344" s="7"/>
     </row>
-    <row r="345" spans="1:14" ht="13.5">
+    <row r="345" spans="1:14" ht="16">
       <c r="A345" s="2"/>
       <c r="B345" s="2"/>
       <c r="C345" s="2"/>
@@ -6278,7 +6278,7 @@
       <c r="M345" s="7"/>
       <c r="N345" s="7"/>
     </row>
-    <row r="346" spans="1:14" ht="13.5">
+    <row r="346" spans="1:14" ht="16">
       <c r="A346" s="2"/>
       <c r="B346" s="2"/>
       <c r="C346" s="2"/>
@@ -6293,7 +6293,7 @@
       <c r="M346" s="7"/>
       <c r="N346" s="7"/>
     </row>
-    <row r="347" spans="1:14" ht="13.5">
+    <row r="347" spans="1:14" ht="16">
       <c r="A347" s="2"/>
       <c r="B347" s="2"/>
       <c r="C347" s="2"/>
@@ -6308,7 +6308,7 @@
       <c r="M347" s="7"/>
       <c r="N347" s="7"/>
     </row>
-    <row r="348" spans="1:14" ht="13.5">
+    <row r="348" spans="1:14" ht="16">
       <c r="A348" s="2"/>
       <c r="B348" s="2"/>
       <c r="C348" s="2"/>
@@ -6323,7 +6323,7 @@
       <c r="M348" s="7"/>
       <c r="N348" s="7"/>
     </row>
-    <row r="349" spans="1:14" ht="13.5">
+    <row r="349" spans="1:14" ht="16">
       <c r="A349" s="2"/>
       <c r="B349" s="2"/>
       <c r="C349" s="2"/>
@@ -6338,7 +6338,7 @@
       <c r="M349" s="7"/>
       <c r="N349" s="7"/>
     </row>
-    <row r="350" spans="1:14" ht="13.5">
+    <row r="350" spans="1:14" ht="16">
       <c r="A350" s="2"/>
       <c r="B350" s="2"/>
       <c r="C350" s="2"/>
@@ -6353,7 +6353,7 @@
       <c r="M350" s="7"/>
       <c r="N350" s="7"/>
     </row>
-    <row r="351" spans="1:14" ht="13.5">
+    <row r="351" spans="1:14" ht="16">
       <c r="A351" s="2"/>
       <c r="B351" s="2"/>
       <c r="C351" s="2"/>
@@ -6368,7 +6368,7 @@
       <c r="M351" s="7"/>
       <c r="N351" s="7"/>
     </row>
-    <row r="352" spans="1:14" ht="13.5">
+    <row r="352" spans="1:14" ht="16">
       <c r="A352" s="2"/>
       <c r="B352" s="2"/>
       <c r="C352" s="2"/>
@@ -6383,7 +6383,7 @@
       <c r="M352" s="7"/>
       <c r="N352" s="7"/>
     </row>
-    <row r="353" spans="1:14" ht="13.5">
+    <row r="353" spans="1:14" ht="16">
       <c r="A353" s="2"/>
       <c r="B353" s="2"/>
       <c r="C353" s="2"/>
@@ -6398,7 +6398,7 @@
       <c r="M353" s="7"/>
       <c r="N353" s="7"/>
     </row>
-    <row r="354" spans="1:14" ht="13.5">
+    <row r="354" spans="1:14" ht="16">
       <c r="A354" s="2"/>
       <c r="B354" s="2"/>
       <c r="C354" s="2"/>
@@ -6413,7 +6413,7 @@
       <c r="M354" s="7"/>
       <c r="N354" s="7"/>
     </row>
-    <row r="355" spans="1:14" ht="13.5">
+    <row r="355" spans="1:14" ht="16">
       <c r="A355" s="2"/>
       <c r="B355" s="2"/>
       <c r="C355" s="2"/>
@@ -6428,7 +6428,7 @@
       <c r="M355" s="7"/>
       <c r="N355" s="7"/>
     </row>
-    <row r="356" spans="1:14" ht="13.5">
+    <row r="356" spans="1:14" ht="16">
       <c r="A356" s="2"/>
       <c r="B356" s="2"/>
       <c r="C356" s="2"/>
@@ -6443,7 +6443,7 @@
       <c r="M356" s="7"/>
       <c r="N356" s="7"/>
     </row>
-    <row r="357" spans="1:14" ht="13.5">
+    <row r="357" spans="1:14" ht="16">
       <c r="A357" s="2"/>
       <c r="B357" s="2"/>
       <c r="C357" s="2"/>
@@ -6458,7 +6458,7 @@
       <c r="M357" s="7"/>
       <c r="N357" s="7"/>
     </row>
-    <row r="358" spans="1:14" ht="13.5">
+    <row r="358" spans="1:14" ht="16">
       <c r="A358" s="2"/>
       <c r="B358" s="2"/>
       <c r="C358" s="2"/>
@@ -6473,7 +6473,7 @@
       <c r="M358" s="7"/>
       <c r="N358" s="7"/>
     </row>
-    <row r="359" spans="1:14" ht="13.5">
+    <row r="359" spans="1:14" ht="16">
       <c r="A359" s="2"/>
       <c r="B359" s="2"/>
       <c r="C359" s="2"/>
@@ -6488,7 +6488,7 @@
       <c r="M359" s="7"/>
       <c r="N359" s="7"/>
     </row>
-    <row r="360" spans="1:14" ht="13.5">
+    <row r="360" spans="1:14" ht="16">
       <c r="A360" s="2"/>
       <c r="B360" s="2"/>
       <c r="C360" s="2"/>
@@ -6503,7 +6503,7 @@
       <c r="M360" s="7"/>
       <c r="N360" s="7"/>
     </row>
-    <row r="361" spans="1:14" ht="13.5">
+    <row r="361" spans="1:14" ht="16">
       <c r="A361" s="2"/>
       <c r="B361" s="2"/>
       <c r="C361" s="2"/>
@@ -6518,7 +6518,7 @@
       <c r="M361" s="7"/>
       <c r="N361" s="7"/>
     </row>
-    <row r="362" spans="1:14" ht="13.5">
+    <row r="362" spans="1:14" ht="16">
       <c r="A362" s="2"/>
       <c r="B362" s="2"/>
       <c r="C362" s="2"/>
@@ -6533,7 +6533,7 @@
       <c r="M362" s="7"/>
       <c r="N362" s="7"/>
     </row>
-    <row r="363" spans="1:14" ht="13.5">
+    <row r="363" spans="1:14" ht="16">
       <c r="A363" s="2"/>
       <c r="B363" s="2"/>
       <c r="C363" s="2"/>
@@ -6548,7 +6548,7 @@
       <c r="M363" s="7"/>
       <c r="N363" s="7"/>
     </row>
-    <row r="364" spans="1:14" ht="13.5">
+    <row r="364" spans="1:14" ht="16">
       <c r="A364" s="2"/>
       <c r="B364" s="2"/>
       <c r="C364" s="2"/>
@@ -6563,7 +6563,7 @@
       <c r="M364" s="7"/>
       <c r="N364" s="7"/>
     </row>
-    <row r="365" spans="1:14" ht="13.5">
+    <row r="365" spans="1:14" ht="16">
       <c r="A365" s="2"/>
       <c r="B365" s="2"/>
       <c r="C365" s="2"/>
@@ -6578,7 +6578,7 @@
       <c r="M365" s="7"/>
       <c r="N365" s="7"/>
     </row>
-    <row r="366" spans="1:14" ht="13.5">
+    <row r="366" spans="1:14" ht="16">
       <c r="A366" s="2"/>
       <c r="B366" s="2"/>
       <c r="C366" s="2"/>
@@ -6593,7 +6593,7 @@
       <c r="M366" s="7"/>
       <c r="N366" s="7"/>
     </row>
-    <row r="367" spans="1:14" ht="13.5">
+    <row r="367" spans="1:14" ht="16">
       <c r="A367" s="2"/>
       <c r="B367" s="2"/>
       <c r="C367" s="2"/>
@@ -6608,7 +6608,7 @@
       <c r="M367" s="7"/>
       <c r="N367" s="7"/>
     </row>
-    <row r="368" spans="1:14" ht="13.5">
+    <row r="368" spans="1:14" ht="16">
       <c r="A368" s="2"/>
       <c r="B368" s="2"/>
       <c r="C368" s="2"/>
@@ -6623,7 +6623,7 @@
       <c r="M368" s="7"/>
       <c r="N368" s="7"/>
     </row>
-    <row r="369" spans="1:14" ht="13.5">
+    <row r="369" spans="1:14" ht="16">
       <c r="A369" s="2"/>
       <c r="B369" s="2"/>
       <c r="C369" s="2"/>
@@ -6638,7 +6638,7 @@
       <c r="M369" s="7"/>
       <c r="N369" s="7"/>
     </row>
-    <row r="370" spans="1:14" ht="13.5">
+    <row r="370" spans="1:14" ht="16">
       <c r="A370" s="2"/>
       <c r="B370" s="2"/>
       <c r="C370" s="2"/>
@@ -6653,7 +6653,7 @@
       <c r="M370" s="7"/>
       <c r="N370" s="7"/>
     </row>
-    <row r="371" spans="1:14" ht="13.5">
+    <row r="371" spans="1:14" ht="16">
       <c r="A371" s="2"/>
       <c r="B371" s="2"/>
       <c r="C371" s="2"/>
@@ -6668,7 +6668,7 @@
       <c r="M371" s="7"/>
       <c r="N371" s="7"/>
     </row>
-    <row r="372" spans="1:14" ht="13.5">
+    <row r="372" spans="1:14" ht="16">
       <c r="A372" s="2"/>
       <c r="B372" s="2"/>
       <c r="C372" s="2"/>
@@ -6683,7 +6683,7 @@
       <c r="M372" s="7"/>
       <c r="N372" s="7"/>
     </row>
-    <row r="373" spans="1:14" ht="13.5">
+    <row r="373" spans="1:14" ht="16">
       <c r="A373" s="2"/>
       <c r="B373" s="2"/>
       <c r="C373" s="2"/>
@@ -6698,7 +6698,7 @@
       <c r="M373" s="7"/>
       <c r="N373" s="7"/>
     </row>
-    <row r="374" spans="1:14" ht="13.5">
+    <row r="374" spans="1:14" ht="16">
       <c r="A374" s="2"/>
       <c r="B374" s="2"/>
       <c r="C374" s="2"/>
@@ -6713,7 +6713,7 @@
       <c r="M374" s="7"/>
       <c r="N374" s="7"/>
     </row>
-    <row r="375" spans="1:14" ht="13.5">
+    <row r="375" spans="1:14" ht="16">
       <c r="A375" s="2"/>
       <c r="B375" s="2"/>
       <c r="C375" s="2"/>
@@ -6728,7 +6728,7 @@
       <c r="M375" s="7"/>
       <c r="N375" s="7"/>
     </row>
-    <row r="376" spans="1:14" ht="13.5">
+    <row r="376" spans="1:14" ht="16">
       <c r="A376" s="2"/>
       <c r="B376" s="2"/>
       <c r="C376" s="2"/>
@@ -6743,7 +6743,7 @@
       <c r="M376" s="7"/>
       <c r="N376" s="7"/>
     </row>
-    <row r="377" spans="1:14" ht="13.5">
+    <row r="377" spans="1:14" ht="16">
       <c r="A377" s="2"/>
       <c r="B377" s="2"/>
       <c r="C377" s="2"/>
@@ -6758,7 +6758,7 @@
       <c r="M377" s="7"/>
       <c r="N377" s="7"/>
     </row>
-    <row r="378" spans="1:14" ht="13.5">
+    <row r="378" spans="1:14" ht="16">
       <c r="A378" s="2"/>
       <c r="B378" s="2"/>
       <c r="C378" s="2"/>
@@ -6773,7 +6773,7 @@
       <c r="M378" s="7"/>
       <c r="N378" s="7"/>
     </row>
-    <row r="379" spans="1:14" ht="13.5">
+    <row r="379" spans="1:14" ht="16">
       <c r="A379" s="2"/>
       <c r="B379" s="2"/>
       <c r="C379" s="2"/>
@@ -6788,7 +6788,7 @@
       <c r="M379" s="7"/>
       <c r="N379" s="7"/>
     </row>
-    <row r="380" spans="1:14" ht="13.5">
+    <row r="380" spans="1:14" ht="16">
       <c r="A380" s="2"/>
       <c r="B380" s="2"/>
       <c r="C380" s="2"/>
@@ -6803,7 +6803,7 @@
       <c r="M380" s="7"/>
       <c r="N380" s="7"/>
     </row>
-    <row r="381" spans="1:14" ht="13.5">
+    <row r="381" spans="1:14" ht="16">
       <c r="A381" s="2"/>
       <c r="B381" s="2"/>
       <c r="C381" s="2"/>
@@ -6818,7 +6818,7 @@
       <c r="M381" s="7"/>
       <c r="N381" s="7"/>
     </row>
-    <row r="382" spans="1:14" ht="13.5">
+    <row r="382" spans="1:14" ht="16">
       <c r="A382" s="2"/>
       <c r="B382" s="2"/>
       <c r="C382" s="2"/>
@@ -6833,7 +6833,7 @@
       <c r="M382" s="7"/>
       <c r="N382" s="7"/>
     </row>
-    <row r="383" spans="1:14" ht="13.5">
+    <row r="383" spans="1:14" ht="16">
       <c r="A383" s="2"/>
       <c r="B383" s="2"/>
       <c r="C383" s="2"/>
@@ -6848,7 +6848,7 @@
       <c r="M383" s="7"/>
       <c r="N383" s="7"/>
     </row>
-    <row r="384" spans="1:14" ht="13.5">
+    <row r="384" spans="1:14" ht="16">
       <c r="A384" s="2"/>
       <c r="B384" s="2"/>
       <c r="C384" s="2"/>
@@ -6863,7 +6863,7 @@
       <c r="M384" s="7"/>
       <c r="N384" s="7"/>
     </row>
-    <row r="385" spans="1:14" ht="13.5">
+    <row r="385" spans="1:14" ht="16">
       <c r="A385" s="2"/>
       <c r="B385" s="2"/>
       <c r="C385" s="2"/>
@@ -6878,7 +6878,7 @@
       <c r="M385" s="7"/>
       <c r="N385" s="7"/>
     </row>
-    <row r="386" spans="1:14" ht="13.5">
+    <row r="386" spans="1:14" ht="16">
       <c r="A386" s="2"/>
       <c r="B386" s="2"/>
       <c r="C386" s="2"/>
@@ -6893,7 +6893,7 @@
       <c r="M386" s="7"/>
       <c r="N386" s="7"/>
     </row>
-    <row r="387" spans="1:14" ht="13.5">
+    <row r="387" spans="1:14" ht="16">
       <c r="A387" s="2"/>
       <c r="B387" s="2"/>
       <c r="C387" s="2"/>
@@ -6908,7 +6908,7 @@
       <c r="M387" s="7"/>
       <c r="N387" s="7"/>
     </row>
-    <row r="388" spans="1:14" ht="13.5">
+    <row r="388" spans="1:14" ht="16">
       <c r="A388" s="2"/>
       <c r="B388" s="2"/>
       <c r="C388" s="2"/>
@@ -6923,7 +6923,7 @@
       <c r="M388" s="7"/>
       <c r="N388" s="7"/>
     </row>
-    <row r="389" spans="1:14" ht="13.5">
+    <row r="389" spans="1:14" ht="16">
       <c r="A389" s="2"/>
       <c r="B389" s="2"/>
       <c r="C389" s="2"/>
@@ -6938,7 +6938,7 @@
       <c r="M389" s="7"/>
       <c r="N389" s="7"/>
     </row>
-    <row r="390" spans="1:14" ht="13.5">
+    <row r="390" spans="1:14" ht="16">
       <c r="A390" s="2"/>
       <c r="B390" s="2"/>
       <c r="C390" s="2"/>
@@ -6953,7 +6953,7 @@
       <c r="M390" s="7"/>
       <c r="N390" s="7"/>
     </row>
-    <row r="391" spans="1:14" ht="13.5">
+    <row r="391" spans="1:14" ht="16">
       <c r="A391" s="2"/>
       <c r="B391" s="2"/>
       <c r="C391" s="2"/>
@@ -6968,7 +6968,7 @@
       <c r="M391" s="7"/>
       <c r="N391" s="7"/>
     </row>
-    <row r="392" spans="1:14" ht="13.5">
+    <row r="392" spans="1:14" ht="16">
       <c r="A392" s="2"/>
       <c r="B392" s="2"/>
       <c r="C392" s="2"/>
@@ -6983,7 +6983,7 @@
       <c r="M392" s="7"/>
       <c r="N392" s="7"/>
     </row>
-    <row r="393" spans="1:14" ht="13.5">
+    <row r="393" spans="1:14" ht="16">
       <c r="A393" s="2"/>
       <c r="B393" s="2"/>
       <c r="C393" s="2"/>
@@ -6998,7 +6998,7 @@
       <c r="M393" s="7"/>
       <c r="N393" s="7"/>
     </row>
-    <row r="394" spans="1:14" ht="13.5">
+    <row r="394" spans="1:14" ht="16">
       <c r="A394" s="2"/>
       <c r="B394" s="2"/>
       <c r="C394" s="2"/>
@@ -7013,7 +7013,7 @@
       <c r="M394" s="7"/>
       <c r="N394" s="7"/>
     </row>
-    <row r="395" spans="1:14" ht="13.5">
+    <row r="395" spans="1:14" ht="16">
       <c r="A395" s="2"/>
       <c r="B395" s="2"/>
       <c r="C395" s="2"/>
@@ -7028,7 +7028,7 @@
       <c r="M395" s="7"/>
       <c r="N395" s="7"/>
     </row>
-    <row r="396" spans="1:14" ht="13.5">
+    <row r="396" spans="1:14" ht="16">
       <c r="A396" s="2"/>
       <c r="B396" s="2"/>
       <c r="C396" s="2"/>
@@ -7043,7 +7043,7 @@
       <c r="M396" s="7"/>
       <c r="N396" s="7"/>
     </row>
-    <row r="397" spans="1:14" ht="13.5">
+    <row r="397" spans="1:14" ht="16">
       <c r="A397" s="2"/>
       <c r="B397" s="2"/>
       <c r="C397" s="2"/>
@@ -7058,7 +7058,7 @@
       <c r="M397" s="7"/>
       <c r="N397" s="7"/>
     </row>
-    <row r="398" spans="1:14" ht="13.5">
+    <row r="398" spans="1:14" ht="16">
       <c r="A398" s="2"/>
       <c r="B398" s="2"/>
       <c r="C398" s="2"/>
@@ -7073,7 +7073,7 @@
       <c r="M398" s="7"/>
       <c r="N398" s="7"/>
     </row>
-    <row r="399" spans="1:14" ht="13.5">
+    <row r="399" spans="1:14" ht="16">
       <c r="A399" s="2"/>
       <c r="B399" s="2"/>
       <c r="C399" s="2"/>
@@ -7088,7 +7088,7 @@
       <c r="M399" s="7"/>
       <c r="N399" s="7"/>
     </row>
-    <row r="400" spans="1:14" ht="13.5">
+    <row r="400" spans="1:14" ht="16">
       <c r="A400" s="2"/>
       <c r="B400" s="2"/>
       <c r="C400" s="2"/>
@@ -7103,7 +7103,7 @@
       <c r="M400" s="7"/>
       <c r="N400" s="7"/>
     </row>
-    <row r="401" spans="1:14" ht="13.5">
+    <row r="401" spans="1:14" ht="16">
       <c r="A401" s="2"/>
       <c r="B401" s="2"/>
       <c r="C401" s="2"/>
@@ -7118,7 +7118,7 @@
       <c r="M401" s="7"/>
       <c r="N401" s="7"/>
     </row>
-    <row r="402" spans="1:14" ht="13.5">
+    <row r="402" spans="1:14" ht="16">
       <c r="A402" s="2"/>
       <c r="B402" s="2"/>
       <c r="C402" s="2"/>
@@ -7133,7 +7133,7 @@
       <c r="M402" s="7"/>
       <c r="N402" s="7"/>
     </row>
-    <row r="403" spans="1:14" ht="13.5">
+    <row r="403" spans="1:14" ht="16">
       <c r="A403" s="2"/>
       <c r="B403" s="2"/>
       <c r="C403" s="2"/>
@@ -7148,7 +7148,7 @@
       <c r="M403" s="7"/>
       <c r="N403" s="7"/>
     </row>
-    <row r="404" spans="1:14" ht="13.5">
+    <row r="404" spans="1:14" ht="16">
       <c r="A404" s="2"/>
       <c r="B404" s="2"/>
       <c r="C404" s="2"/>
@@ -7163,7 +7163,7 @@
       <c r="M404" s="7"/>
       <c r="N404" s="7"/>
     </row>
-    <row r="405" spans="1:14" ht="13.5">
+    <row r="405" spans="1:14" ht="16">
       <c r="A405" s="2"/>
       <c r="B405" s="2"/>
       <c r="C405" s="2"/>
@@ -7178,7 +7178,7 @@
       <c r="M405" s="7"/>
       <c r="N405" s="7"/>
     </row>
-    <row r="406" spans="1:14" ht="13.5">
+    <row r="406" spans="1:14" ht="16">
       <c r="A406" s="2"/>
       <c r="B406" s="2"/>
       <c r="C406" s="2"/>
@@ -7193,7 +7193,7 @@
       <c r="M406" s="7"/>
       <c r="N406" s="7"/>
     </row>
-    <row r="407" spans="1:14" ht="13.5">
+    <row r="407" spans="1:14" ht="16">
       <c r="A407" s="2"/>
       <c r="B407" s="2"/>
       <c r="C407" s="2"/>
@@ -7208,7 +7208,7 @@
       <c r="M407" s="7"/>
       <c r="N407" s="7"/>
     </row>
-    <row r="408" spans="1:14" ht="13.5">
+    <row r="408" spans="1:14" ht="16">
       <c r="A408" s="2"/>
       <c r="B408" s="2"/>
       <c r="C408" s="2"/>
@@ -7223,7 +7223,7 @@
       <c r="M408" s="7"/>
       <c r="N408" s="7"/>
     </row>
-    <row r="409" spans="1:14" ht="13.5">
+    <row r="409" spans="1:14" ht="16">
       <c r="A409" s="2"/>
       <c r="B409" s="2"/>
       <c r="C409" s="2"/>
@@ -7238,7 +7238,7 @@
       <c r="M409" s="7"/>
       <c r="N409" s="7"/>
     </row>
-    <row r="410" spans="1:14" ht="13.5">
+    <row r="410" spans="1:14" ht="16">
       <c r="A410" s="2"/>
       <c r="B410" s="2"/>
       <c r="C410" s="2"/>
@@ -7253,7 +7253,7 @@
       <c r="M410" s="7"/>
       <c r="N410" s="7"/>
     </row>
-    <row r="411" spans="1:14" ht="13.5">
+    <row r="411" spans="1:14" ht="16">
       <c r="A411" s="2"/>
       <c r="B411" s="2"/>
       <c r="C411" s="2"/>
@@ -7268,7 +7268,7 @@
       <c r="M411" s="7"/>
       <c r="N411" s="7"/>
     </row>
-    <row r="412" spans="1:14" ht="13.5">
+    <row r="412" spans="1:14" ht="16">
       <c r="A412" s="2"/>
       <c r="B412" s="2"/>
       <c r="C412" s="2"/>
@@ -7283,7 +7283,7 @@
       <c r="M412" s="7"/>
       <c r="N412" s="7"/>
     </row>
-    <row r="413" spans="1:14" ht="13.5">
+    <row r="413" spans="1:14" ht="16">
       <c r="A413" s="2"/>
       <c r="B413" s="2"/>
       <c r="C413" s="2"/>
@@ -7298,7 +7298,7 @@
       <c r="M413" s="7"/>
       <c r="N413" s="7"/>
     </row>
-    <row r="414" spans="1:14" ht="13.5">
+    <row r="414" spans="1:14" ht="16">
       <c r="A414" s="2"/>
       <c r="B414" s="2"/>
       <c r="C414" s="2"/>
@@ -7313,7 +7313,7 @@
       <c r="M414" s="7"/>
       <c r="N414" s="7"/>
     </row>
-    <row r="415" spans="1:14" ht="13.5">
+    <row r="415" spans="1:14" ht="16">
       <c r="A415" s="2"/>
       <c r="B415" s="2"/>
       <c r="C415" s="2"/>
@@ -7328,7 +7328,7 @@
       <c r="M415" s="7"/>
       <c r="N415" s="7"/>
     </row>
-    <row r="416" spans="1:14" ht="13.5">
+    <row r="416" spans="1:14" ht="16">
       <c r="A416" s="2"/>
       <c r="B416" s="2"/>
       <c r="C416" s="2"/>
@@ -7343,7 +7343,7 @@
       <c r="M416" s="7"/>
       <c r="N416" s="7"/>
     </row>
-    <row r="417" spans="1:14" ht="13.5">
+    <row r="417" spans="1:14" ht="16">
       <c r="A417" s="2"/>
       <c r="B417" s="2"/>
       <c r="C417" s="2"/>
@@ -7358,7 +7358,7 @@
       <c r="M417" s="7"/>
       <c r="N417" s="7"/>
     </row>
-    <row r="418" spans="1:14" ht="13.5">
+    <row r="418" spans="1:14" ht="16">
       <c r="A418" s="2"/>
       <c r="B418" s="2"/>
       <c r="C418" s="2"/>
@@ -7373,7 +7373,7 @@
       <c r="M418" s="7"/>
       <c r="N418" s="7"/>
     </row>
-    <row r="419" spans="1:14" ht="13.5">
+    <row r="419" spans="1:14" ht="16">
       <c r="A419" s="2"/>
       <c r="B419" s="2"/>
       <c r="C419" s="2"/>
@@ -7388,7 +7388,7 @@
       <c r="M419" s="7"/>
       <c r="N419" s="7"/>
     </row>
-    <row r="420" spans="1:14" ht="13.5">
+    <row r="420" spans="1:14" ht="16">
       <c r="A420" s="2"/>
       <c r="B420" s="2"/>
       <c r="C420" s="2"/>
@@ -7403,7 +7403,7 @@
       <c r="M420" s="7"/>
       <c r="N420" s="7"/>
     </row>
-    <row r="421" spans="1:14" ht="13.5">
+    <row r="421" spans="1:14" ht="16">
       <c r="A421" s="2"/>
       <c r="B421" s="2"/>
       <c r="C421" s="2"/>
@@ -7418,7 +7418,7 @@
       <c r="M421" s="7"/>
       <c r="N421" s="7"/>
     </row>
-    <row r="422" spans="1:14" ht="13.5">
+    <row r="422" spans="1:14" ht="16">
       <c r="A422" s="2"/>
       <c r="B422" s="2"/>
       <c r="C422" s="2"/>
@@ -7433,7 +7433,7 @@
       <c r="M422" s="7"/>
       <c r="N422" s="7"/>
     </row>
-    <row r="423" spans="1:14" ht="13.5">
+    <row r="423" spans="1:14" ht="16">
       <c r="A423" s="2"/>
       <c r="B423" s="2"/>
       <c r="C423" s="2"/>
@@ -7448,7 +7448,7 @@
       <c r="M423" s="7"/>
       <c r="N423" s="7"/>
     </row>
-    <row r="424" spans="1:14" ht="13.5">
+    <row r="424" spans="1:14" ht="16">
       <c r="A424" s="2"/>
       <c r="B424" s="2"/>
       <c r="C424" s="2"/>
@@ -7463,7 +7463,7 @@
       <c r="M424" s="7"/>
       <c r="N424" s="7"/>
     </row>
-    <row r="425" spans="1:14" ht="13.5">
+    <row r="425" spans="1:14" ht="16">
       <c r="A425" s="2"/>
       <c r="B425" s="2"/>
       <c r="C425" s="2"/>
@@ -7478,7 +7478,7 @@
       <c r="M425" s="7"/>
       <c r="N425" s="7"/>
     </row>
-    <row r="426" spans="1:14" ht="13.5">
+    <row r="426" spans="1:14" ht="16">
       <c r="A426" s="2"/>
       <c r="B426" s="2"/>
       <c r="C426" s="2"/>
@@ -7493,7 +7493,7 @@
       <c r="M426" s="7"/>
       <c r="N426" s="7"/>
     </row>
-    <row r="427" spans="1:14" ht="13.5">
+    <row r="427" spans="1:14" ht="16">
       <c r="A427" s="2"/>
       <c r="B427" s="2"/>
       <c r="C427" s="2"/>
@@ -7508,7 +7508,7 @@
       <c r="M427" s="7"/>
       <c r="N427" s="7"/>
     </row>
-    <row r="428" spans="1:14" ht="13.5">
+    <row r="428" spans="1:14" ht="16">
       <c r="A428" s="2"/>
       <c r="B428" s="2"/>
       <c r="C428" s="2"/>
@@ -7523,7 +7523,7 @@
       <c r="M428" s="7"/>
       <c r="N428" s="7"/>
     </row>
-    <row r="429" spans="1:14" ht="13.5">
+    <row r="429" spans="1:14" ht="16">
       <c r="A429" s="2"/>
       <c r="B429" s="2"/>
       <c r="C429" s="2"/>
@@ -7538,7 +7538,7 @@
       <c r="M429" s="7"/>
       <c r="N429" s="7"/>
     </row>
-    <row r="430" spans="1:14" ht="13.5">
+    <row r="430" spans="1:14" ht="16">
       <c r="A430" s="2"/>
       <c r="B430" s="2"/>
       <c r="C430" s="2"/>
@@ -7553,7 +7553,7 @@
       <c r="M430" s="7"/>
       <c r="N430" s="7"/>
     </row>
-    <row r="431" spans="1:14" ht="13.5">
+    <row r="431" spans="1:14" ht="16">
       <c r="A431" s="2"/>
       <c r="B431" s="2"/>
       <c r="C431" s="2"/>
@@ -7568,7 +7568,7 @@
       <c r="M431" s="7"/>
       <c r="N431" s="7"/>
     </row>
-    <row r="432" spans="1:14" ht="13.5">
+    <row r="432" spans="1:14" ht="16">
       <c r="A432" s="2"/>
       <c r="B432" s="2"/>
       <c r="C432" s="2"/>
@@ -7583,7 +7583,7 @@
       <c r="M432" s="7"/>
       <c r="N432" s="7"/>
     </row>
-    <row r="433" spans="1:14" ht="13.5">
+    <row r="433" spans="1:14" ht="16">
       <c r="A433" s="2"/>
       <c r="B433" s="2"/>
       <c r="C433" s="2"/>
@@ -7598,7 +7598,7 @@
       <c r="M433" s="7"/>
       <c r="N433" s="7"/>
     </row>
-    <row r="434" spans="1:14" ht="13.5">
+    <row r="434" spans="1:14" ht="16">
       <c r="A434" s="2"/>
       <c r="B434" s="2"/>
       <c r="C434" s="2"/>
@@ -7613,7 +7613,7 @@
       <c r="M434" s="7"/>
       <c r="N434" s="7"/>
     </row>
-    <row r="435" spans="1:14" ht="13.5">
+    <row r="435" spans="1:14" ht="16">
       <c r="A435" s="2"/>
       <c r="B435" s="2"/>
       <c r="C435" s="2"/>
@@ -7628,7 +7628,7 @@
       <c r="M435" s="7"/>
       <c r="N435" s="7"/>
     </row>
-    <row r="436" spans="1:14" ht="13.5">
+    <row r="436" spans="1:14" ht="16">
       <c r="A436" s="2"/>
       <c r="B436" s="2"/>
       <c r="C436" s="2"/>
@@ -7643,7 +7643,7 @@
       <c r="M436" s="7"/>
       <c r="N436" s="7"/>
     </row>
-    <row r="437" spans="1:14" ht="13.5">
+    <row r="437" spans="1:14" ht="16">
       <c r="A437" s="2"/>
       <c r="B437" s="2"/>
       <c r="C437" s="2"/>
@@ -7658,7 +7658,7 @@
       <c r="M437" s="7"/>
       <c r="N437" s="7"/>
     </row>
-    <row r="438" spans="1:14" ht="13.5">
+    <row r="438" spans="1:14" ht="16">
       <c r="A438" s="2"/>
       <c r="B438" s="2"/>
       <c r="C438" s="2"/>
@@ -7673,7 +7673,7 @@
       <c r="M438" s="7"/>
       <c r="N438" s="7"/>
     </row>
-    <row r="439" spans="1:14" ht="13.5">
+    <row r="439" spans="1:14" ht="16">
       <c r="A439" s="2"/>
       <c r="B439" s="2"/>
       <c r="C439" s="2"/>
@@ -7688,7 +7688,7 @@
       <c r="M439" s="7"/>
       <c r="N439" s="7"/>
     </row>
-    <row r="440" spans="1:14" ht="13.5">
+    <row r="440" spans="1:14" ht="16">
       <c r="A440" s="2"/>
       <c r="B440" s="2"/>
       <c r="C440" s="2"/>
@@ -7703,7 +7703,7 @@
       <c r="M440" s="7"/>
       <c r="N440" s="7"/>
     </row>
-    <row r="441" spans="1:14" ht="13.5">
+    <row r="441" spans="1:14" ht="16">
       <c r="A441" s="2"/>
       <c r="B441" s="2"/>
       <c r="C441" s="2"/>
@@ -7718,7 +7718,7 @@
       <c r="M441" s="7"/>
       <c r="N441" s="7"/>
     </row>
-    <row r="442" spans="1:14" ht="13.5">
+    <row r="442" spans="1:14" ht="16">
       <c r="A442" s="2"/>
       <c r="B442" s="2"/>
       <c r="C442" s="2"/>
@@ -7733,7 +7733,7 @@
       <c r="M442" s="7"/>
       <c r="N442" s="7"/>
     </row>
-    <row r="443" spans="1:14" ht="13.5">
+    <row r="443" spans="1:14" ht="16">
       <c r="A443" s="2"/>
       <c r="B443" s="2"/>
       <c r="C443" s="2"/>
@@ -7748,7 +7748,7 @@
       <c r="M443" s="7"/>
       <c r="N443" s="7"/>
     </row>
-    <row r="444" spans="1:14" ht="13.5">
+    <row r="444" spans="1:14" ht="16">
       <c r="A444" s="2"/>
       <c r="B444" s="2"/>
       <c r="C444" s="2"/>
@@ -7763,7 +7763,7 @@
       <c r="M444" s="7"/>
       <c r="N444" s="7"/>
     </row>
-    <row r="445" spans="1:14" ht="13.5">
+    <row r="445" spans="1:14" ht="16">
       <c r="A445" s="2"/>
       <c r="B445" s="2"/>
       <c r="C445" s="2"/>
@@ -7778,7 +7778,7 @@
       <c r="M445" s="7"/>
       <c r="N445" s="7"/>
     </row>
-    <row r="446" spans="1:14" ht="13.5">
+    <row r="446" spans="1:14" ht="16">
       <c r="A446" s="2"/>
       <c r="B446" s="2"/>
       <c r="C446" s="2"/>
@@ -7793,7 +7793,7 @@
       <c r="M446" s="7"/>
       <c r="N446" s="7"/>
     </row>
-    <row r="447" spans="1:14" ht="13.5">
+    <row r="447" spans="1:14" ht="16">
       <c r="A447" s="2"/>
       <c r="B447" s="2"/>
       <c r="C447" s="2"/>
@@ -7808,7 +7808,7 @@
       <c r="M447" s="7"/>
       <c r="N447" s="7"/>
     </row>
-    <row r="448" spans="1:14" ht="13.5">
+    <row r="448" spans="1:14" ht="16">
       <c r="A448" s="2"/>
       <c r="B448" s="2"/>
       <c r="C448" s="2"/>
@@ -7823,7 +7823,7 @@
       <c r="M448" s="7"/>
       <c r="N448" s="7"/>
     </row>
-    <row r="449" spans="1:14" ht="13.5">
+    <row r="449" spans="1:14" ht="16">
       <c r="A449" s="2"/>
       <c r="B449" s="2"/>
       <c r="C449" s="2"/>
@@ -7838,7 +7838,7 @@
       <c r="M449" s="7"/>
       <c r="N449" s="7"/>
     </row>
-    <row r="450" spans="1:14" ht="13.5">
+    <row r="450" spans="1:14" ht="16">
       <c r="A450" s="2"/>
       <c r="B450" s="2"/>
       <c r="C450" s="2"/>
@@ -7853,7 +7853,7 @@
       <c r="M450" s="7"/>
       <c r="N450" s="7"/>
     </row>
-    <row r="451" spans="1:14" ht="13.5">
+    <row r="451" spans="1:14" ht="16">
       <c r="A451" s="2"/>
       <c r="B451" s="2"/>
       <c r="C451" s="2"/>
@@ -7868,7 +7868,7 @@
       <c r="M451" s="7"/>
       <c r="N451" s="7"/>
     </row>
-    <row r="452" spans="1:14" ht="13.5">
+    <row r="452" spans="1:14" ht="16">
       <c r="A452" s="2"/>
       <c r="B452" s="2"/>
       <c r="C452" s="2"/>
@@ -7883,7 +7883,7 @@
       <c r="M452" s="7"/>
       <c r="N452" s="7"/>
     </row>
-    <row r="453" spans="1:14" ht="13.5">
+    <row r="453" spans="1:14" ht="16">
       <c r="A453" s="2"/>
       <c r="B453" s="2"/>
       <c r="C453" s="2"/>
@@ -7898,7 +7898,7 @@
       <c r="M453" s="7"/>
       <c r="N453" s="7"/>
     </row>
-    <row r="454" spans="1:14" ht="13.5">
+    <row r="454" spans="1:14" ht="16">
       <c r="A454" s="2"/>
       <c r="B454" s="2"/>
       <c r="C454" s="2"/>
@@ -7913,7 +7913,7 @@
       <c r="M454" s="7"/>
       <c r="N454" s="7"/>
     </row>
-    <row r="455" spans="1:14" ht="13.5">
+    <row r="455" spans="1:14" ht="16">
       <c r="A455" s="2"/>
       <c r="B455" s="2"/>
       <c r="C455" s="2"/>
@@ -7928,7 +7928,7 @@
       <c r="M455" s="7"/>
       <c r="N455" s="7"/>
     </row>
-    <row r="456" spans="1:14" ht="13.5">
+    <row r="456" spans="1:14" ht="16">
       <c r="A456" s="2"/>
       <c r="B456" s="2"/>
       <c r="C456" s="2"/>
@@ -7943,7 +7943,7 @@
       <c r="M456" s="7"/>
       <c r="N456" s="7"/>
     </row>
-    <row r="457" spans="1:14" ht="13.5">
+    <row r="457" spans="1:14" ht="16">
       <c r="A457" s="2"/>
       <c r="B457" s="2"/>
       <c r="C457" s="2"/>
@@ -7958,7 +7958,7 @@
       <c r="M457" s="7"/>
       <c r="N457" s="7"/>
     </row>
-    <row r="458" spans="1:14" ht="13.5">
+    <row r="458" spans="1:14" ht="16">
       <c r="A458" s="2"/>
       <c r="B458" s="2"/>
       <c r="C458" s="2"/>
@@ -7973,7 +7973,7 @@
       <c r="M458" s="7"/>
       <c r="N458" s="7"/>
     </row>
-    <row r="459" spans="1:14" ht="13.5">
+    <row r="459" spans="1:14" ht="16">
       <c r="A459" s="2"/>
       <c r="B459" s="2"/>
       <c r="C459" s="2"/>
@@ -7988,7 +7988,7 @@
       <c r="M459" s="7"/>
       <c r="N459" s="7"/>
     </row>
-    <row r="460" spans="1:14" ht="13.5">
+    <row r="460" spans="1:14" ht="16">
       <c r="A460" s="2"/>
       <c r="B460" s="2"/>
       <c r="C460" s="2"/>
@@ -8003,7 +8003,7 @@
       <c r="M460" s="7"/>
       <c r="N460" s="7"/>
     </row>
-    <row r="461" spans="1:14" ht="13.5">
+    <row r="461" spans="1:14" ht="16">
       <c r="A461" s="2"/>
       <c r="B461" s="2"/>
       <c r="C461" s="2"/>
@@ -8018,7 +8018,7 @@
       <c r="M461" s="7"/>
       <c r="N461" s="7"/>
     </row>
-    <row r="462" spans="1:14" ht="13.5">
+    <row r="462" spans="1:14" ht="16">
       <c r="A462" s="2"/>
       <c r="B462" s="2"/>
       <c r="C462" s="2"/>
@@ -8033,7 +8033,7 @@
       <c r="M462" s="7"/>
       <c r="N462" s="7"/>
     </row>
-    <row r="463" spans="1:14" ht="13.5">
+    <row r="463" spans="1:14" ht="16">
       <c r="A463" s="2"/>
       <c r="B463" s="2"/>
       <c r="C463" s="2"/>
@@ -8048,7 +8048,7 @@
       <c r="M463" s="7"/>
       <c r="N463" s="7"/>
     </row>
-    <row r="464" spans="1:14" ht="13.5">
+    <row r="464" spans="1:14" ht="16">
       <c r="A464" s="2"/>
       <c r="B464" s="2"/>
       <c r="C464" s="2"/>
@@ -8063,7 +8063,7 @@
       <c r="M464" s="7"/>
       <c r="N464" s="7"/>
     </row>
-    <row r="465" spans="1:14" ht="13.5">
+    <row r="465" spans="1:14" ht="16">
       <c r="A465" s="2"/>
       <c r="B465" s="2"/>
       <c r="C465" s="2"/>
@@ -8078,7 +8078,7 @@
       <c r="M465" s="7"/>
       <c r="N465" s="7"/>
     </row>
-    <row r="466" spans="1:14" ht="13.5">
+    <row r="466" spans="1:14" ht="16">
       <c r="A466" s="2"/>
       <c r="B466" s="2"/>
       <c r="C466" s="2"/>
@@ -8093,7 +8093,7 @@
       <c r="M466" s="7"/>
       <c r="N466" s="7"/>
     </row>
-    <row r="467" spans="1:14" ht="13.5">
+    <row r="467" spans="1:14" ht="16">
       <c r="A467" s="2"/>
       <c r="B467" s="2"/>
       <c r="C467" s="2"/>
@@ -8108,7 +8108,7 @@
       <c r="M467" s="7"/>
       <c r="N467" s="7"/>
     </row>
-    <row r="468" spans="1:14" ht="13.5">
+    <row r="468" spans="1:14" ht="16">
       <c r="A468" s="2"/>
       <c r="B468" s="2"/>
       <c r="C468" s="2"/>
@@ -8123,7 +8123,7 @@
       <c r="M468" s="7"/>
       <c r="N468" s="7"/>
     </row>
-    <row r="469" spans="1:14" ht="13.5">
+    <row r="469" spans="1:14" ht="16">
       <c r="A469" s="2"/>
       <c r="B469" s="2"/>
       <c r="C469" s="2"/>
@@ -8138,7 +8138,7 @@
       <c r="M469" s="7"/>
       <c r="N469" s="7"/>
     </row>
-    <row r="470" spans="1:14" ht="13.5">
+    <row r="470" spans="1:14" ht="16">
       <c r="A470" s="2"/>
       <c r="B470" s="2"/>
       <c r="C470" s="2"/>
@@ -8153,7 +8153,7 @@
       <c r="M470" s="7"/>
       <c r="N470" s="7"/>
     </row>
-    <row r="471" spans="1:14" ht="13.5">
+    <row r="471" spans="1:14" ht="16">
       <c r="A471" s="2"/>
       <c r="B471" s="2"/>
       <c r="C471" s="2"/>
@@ -8168,7 +8168,7 @@
       <c r="M471" s="7"/>
       <c r="N471" s="7"/>
     </row>
-    <row r="472" spans="1:14" ht="13.5">
+    <row r="472" spans="1:14" ht="16">
       <c r="A472" s="2"/>
       <c r="B472" s="2"/>
       <c r="C472" s="2"/>
@@ -8183,7 +8183,7 @@
       <c r="M472" s="7"/>
       <c r="N472" s="7"/>
     </row>
-    <row r="473" spans="1:14" ht="13.5">
+    <row r="473" spans="1:14" ht="16">
       <c r="A473" s="2"/>
       <c r="B473" s="2"/>
       <c r="C473" s="2"/>
@@ -8198,7 +8198,7 @@
       <c r="M473" s="7"/>
       <c r="N473" s="7"/>
     </row>
-    <row r="474" spans="1:14" ht="13.5">
+    <row r="474" spans="1:14" ht="16">
       <c r="A474" s="2"/>
       <c r="B474" s="2"/>
       <c r="C474" s="2"/>
@@ -8213,7 +8213,7 @@
       <c r="M474" s="7"/>
       <c r="N474" s="7"/>
     </row>
-    <row r="475" spans="1:14" ht="13.5">
+    <row r="475" spans="1:14" ht="16">
       <c r="A475" s="2"/>
       <c r="B475" s="2"/>
       <c r="C475" s="2"/>
@@ -8228,7 +8228,7 @@
       <c r="M475" s="7"/>
       <c r="N475" s="7"/>
     </row>
-    <row r="476" spans="1:14" ht="13.5">
+    <row r="476" spans="1:14" ht="16">
       <c r="A476" s="2"/>
       <c r="B476" s="2"/>
       <c r="C476" s="2"/>
@@ -8243,7 +8243,7 @@
       <c r="M476" s="7"/>
       <c r="N476" s="7"/>
     </row>
-    <row r="477" spans="1:14" ht="13.5">
+    <row r="477" spans="1:14" ht="16">
       <c r="A477" s="2"/>
       <c r="B477" s="2"/>
       <c r="C477" s="2"/>
@@ -8258,7 +8258,7 @@
       <c r="M477" s="7"/>
       <c r="N477" s="7"/>
     </row>
-    <row r="478" spans="1:14" ht="13.5">
+    <row r="478" spans="1:14" ht="16">
       <c r="A478" s="2"/>
       <c r="B478" s="2"/>
       <c r="C478" s="2"/>
@@ -8273,7 +8273,7 @@
       <c r="M478" s="7"/>
       <c r="N478" s="7"/>
     </row>
-    <row r="479" spans="1:14" ht="13.5">
+    <row r="479" spans="1:14" ht="16">
       <c r="A479" s="2"/>
       <c r="B479" s="2"/>
       <c r="C479" s="2"/>
@@ -8288,7 +8288,7 @@
       <c r="M479" s="7"/>
       <c r="N479" s="7"/>
     </row>
-    <row r="480" spans="1:14" ht="13.5">
+    <row r="480" spans="1:14" ht="16">
       <c r="A480" s="2"/>
       <c r="B480" s="2"/>
       <c r="C480" s="2"/>
@@ -8303,7 +8303,7 @@
       <c r="M480" s="7"/>
       <c r="N480" s="7"/>
     </row>
-    <row r="481" spans="1:14" ht="13.5">
+    <row r="481" spans="1:14" ht="16">
       <c r="A481" s="2"/>
       <c r="B481" s="2"/>
       <c r="C481" s="2"/>
@@ -8318,7 +8318,7 @@
       <c r="M481" s="7"/>
       <c r="N481" s="7"/>
     </row>
-    <row r="482" spans="1:14" ht="13.5">
+    <row r="482" spans="1:14" ht="16">
       <c r="A482" s="2"/>
       <c r="B482" s="2"/>
       <c r="C482" s="2"/>
@@ -8333,7 +8333,7 @@
       <c r="M482" s="7"/>
       <c r="N482" s="7"/>
     </row>
-    <row r="483" spans="1:14" ht="13.5">
+    <row r="483" spans="1:14" ht="16">
       <c r="A483" s="2"/>
       <c r="B483" s="2"/>
       <c r="C483" s="2"/>
@@ -8348,7 +8348,7 @@
       <c r="M483" s="7"/>
       <c r="N483" s="7"/>
     </row>
-    <row r="484" spans="1:14" ht="13.5">
+    <row r="484" spans="1:14" ht="16">
       <c r="A484" s="2"/>
       <c r="B484" s="2"/>
       <c r="C484" s="2"/>
@@ -8363,7 +8363,7 @@
       <c r="M484" s="7"/>
       <c r="N484" s="7"/>
     </row>
-    <row r="485" spans="1:14" ht="13.5">
+    <row r="485" spans="1:14" ht="16">
       <c r="A485" s="2"/>
       <c r="B485" s="2"/>
       <c r="C485" s="2"/>
@@ -8378,7 +8378,7 @@
       <c r="M485" s="7"/>
       <c r="N485" s="7"/>
     </row>
-    <row r="486" spans="1:14" ht="13.5">
+    <row r="486" spans="1:14" ht="16">
       <c r="A486" s="2"/>
       <c r="B486" s="2"/>
       <c r="C486" s="2"/>
@@ -8393,7 +8393,7 @@
       <c r="M486" s="7"/>
       <c r="N486" s="7"/>
     </row>
-    <row r="487" spans="1:14" ht="13.5">
+    <row r="487" spans="1:14" ht="16">
       <c r="A487" s="2"/>
       <c r="B487" s="2"/>
       <c r="C487" s="2"/>
@@ -8408,7 +8408,7 @@
       <c r="M487" s="7"/>
       <c r="N487" s="7"/>
     </row>
-    <row r="488" spans="1:14" ht="13.5">
+    <row r="488" spans="1:14" ht="16">
       <c r="A488" s="2"/>
       <c r="B488" s="2"/>
       <c r="C488" s="2"/>
@@ -8423,7 +8423,7 @@
       <c r="M488" s="7"/>
       <c r="N488" s="7"/>
     </row>
-    <row r="489" spans="1:14" ht="13.5">
+    <row r="489" spans="1:14" ht="16">
       <c r="A489" s="2"/>
       <c r="B489" s="2"/>
       <c r="C489" s="2"/>
@@ -8438,7 +8438,7 @@
       <c r="M489" s="7"/>
       <c r="N489" s="7"/>
     </row>
-    <row r="490" spans="1:14" ht="13.5">
+    <row r="490" spans="1:14" ht="16">
       <c r="A490" s="2"/>
       <c r="B490" s="2"/>
       <c r="C490" s="2"/>
@@ -8453,7 +8453,7 @@
       <c r="M490" s="7"/>
       <c r="N490" s="7"/>
     </row>
-    <row r="491" spans="1:14" ht="13.5">
+    <row r="491" spans="1:14" ht="16">
       <c r="A491" s="2"/>
       <c r="B491" s="2"/>
       <c r="C491" s="2"/>
@@ -8468,7 +8468,7 @@
       <c r="M491" s="7"/>
       <c r="N491" s="7"/>
     </row>
-    <row r="492" spans="1:14" ht="13.5">
+    <row r="492" spans="1:14" ht="16">
       <c r="A492" s="2"/>
       <c r="B492" s="2"/>
       <c r="C492" s="2"/>
@@ -8483,7 +8483,7 @@
       <c r="M492" s="7"/>
       <c r="N492" s="7"/>
     </row>
-    <row r="493" spans="1:14" ht="13.5">
+    <row r="493" spans="1:14" ht="16">
       <c r="A493" s="2"/>
       <c r="B493" s="2"/>
       <c r="C493" s="2"/>
@@ -8498,7 +8498,7 @@
       <c r="M493" s="7"/>
       <c r="N493" s="7"/>
     </row>
-    <row r="494" spans="1:14" ht="13.5">
+    <row r="494" spans="1:14" ht="16">
       <c r="A494" s="2"/>
       <c r="B494" s="2"/>
       <c r="C494" s="2"/>
@@ -8513,7 +8513,7 @@
       <c r="M494" s="7"/>
       <c r="N494" s="7"/>
     </row>
-    <row r="495" spans="1:14" ht="13.5">
+    <row r="495" spans="1:14" ht="16">
       <c r="A495" s="2"/>
       <c r="B495" s="2"/>
       <c r="C495" s="2"/>
@@ -8528,7 +8528,7 @@
       <c r="M495" s="7"/>
       <c r="N495" s="7"/>
     </row>
-    <row r="496" spans="1:14" ht="13.5">
+    <row r="496" spans="1:14" ht="16">
       <c r="A496" s="2"/>
       <c r="B496" s="2"/>
       <c r="C496" s="2"/>
@@ -8543,7 +8543,7 @@
       <c r="M496" s="7"/>
       <c r="N496" s="7"/>
     </row>
-    <row r="497" spans="1:14" ht="13.5">
+    <row r="497" spans="1:14" ht="16">
       <c r="A497" s="2"/>
       <c r="B497" s="2"/>
       <c r="C497" s="2"/>
@@ -8558,7 +8558,7 @@
       <c r="M497" s="7"/>
       <c r="N497" s="7"/>
     </row>
-    <row r="498" spans="1:14" ht="13.5">
+    <row r="498" spans="1:14" ht="16">
       <c r="A498" s="2"/>
       <c r="B498" s="2"/>
       <c r="C498" s="2"/>
@@ -8573,7 +8573,7 @@
       <c r="M498" s="7"/>
       <c r="N498" s="7"/>
     </row>
-    <row r="499" spans="1:14" ht="13.5">
+    <row r="499" spans="1:14" ht="16">
       <c r="A499" s="2"/>
       <c r="B499" s="2"/>
       <c r="C499" s="2"/>
@@ -8588,7 +8588,7 @@
       <c r="M499" s="7"/>
       <c r="N499" s="7"/>
     </row>
-    <row r="500" spans="1:14" ht="13.5">
+    <row r="500" spans="1:14" ht="16">
       <c r="A500" s="2"/>
       <c r="B500" s="2"/>
       <c r="C500" s="2"/>
@@ -8603,7 +8603,7 @@
       <c r="M500" s="7"/>
       <c r="N500" s="7"/>
     </row>
-    <row r="501" spans="1:14" ht="13.5">
+    <row r="501" spans="1:14" ht="16">
       <c r="A501" s="2"/>
       <c r="B501" s="2"/>
       <c r="C501" s="2"/>
@@ -8618,7 +8618,7 @@
       <c r="M501" s="7"/>
       <c r="N501" s="7"/>
     </row>
-    <row r="502" spans="1:14" ht="13.5">
+    <row r="502" spans="1:14" ht="16">
       <c r="A502" s="2"/>
       <c r="B502" s="2"/>
       <c r="C502" s="2"/>
@@ -8633,7 +8633,7 @@
       <c r="M502" s="7"/>
       <c r="N502" s="7"/>
     </row>
-    <row r="503" spans="1:14" ht="13.5">
+    <row r="503" spans="1:14" ht="16">
       <c r="A503" s="2"/>
       <c r="B503" s="2"/>
       <c r="C503" s="2"/>
@@ -8648,7 +8648,7 @@
       <c r="M503" s="7"/>
       <c r="N503" s="7"/>
     </row>
-    <row r="504" spans="1:14" ht="13.5">
+    <row r="504" spans="1:14" ht="16">
       <c r="A504" s="2"/>
       <c r="B504" s="2"/>
       <c r="C504" s="2"/>
@@ -8663,7 +8663,7 @@
       <c r="M504" s="7"/>
       <c r="N504" s="7"/>
     </row>
-    <row r="505" spans="1:14" ht="13.5">
+    <row r="505" spans="1:14" ht="16">
       <c r="A505" s="2"/>
       <c r="B505" s="2"/>
       <c r="C505" s="2"/>
@@ -8678,7 +8678,7 @@
       <c r="M505" s="7"/>
       <c r="N505" s="7"/>
     </row>
-    <row r="506" spans="1:14" ht="13.5">
+    <row r="506" spans="1:14" ht="16">
       <c r="A506" s="2"/>
       <c r="B506" s="2"/>
       <c r="C506" s="2"/>
@@ -8693,7 +8693,7 @@
       <c r="M506" s="7"/>
       <c r="N506" s="7"/>
     </row>
-    <row r="507" spans="1:14" ht="13.5">
+    <row r="507" spans="1:14" ht="16">
       <c r="A507" s="2"/>
       <c r="B507" s="2"/>
       <c r="C507" s="2"/>
@@ -8708,7 +8708,7 @@
       <c r="M507" s="7"/>
       <c r="N507" s="7"/>
     </row>
-    <row r="508" spans="1:14" ht="13.5">
+    <row r="508" spans="1:14" ht="16">
       <c r="A508" s="2"/>
       <c r="B508" s="2"/>
       <c r="C508" s="2"/>
@@ -8723,7 +8723,7 @@
       <c r="M508" s="7"/>
       <c r="N508" s="7"/>
     </row>
-    <row r="509" spans="1:14" ht="13.5">
+    <row r="509" spans="1:14" ht="16">
       <c r="A509" s="2"/>
       <c r="B509" s="2"/>
       <c r="C509" s="2"/>
@@ -8738,7 +8738,7 @@
       <c r="M509" s="7"/>
       <c r="N509" s="7"/>
     </row>
-    <row r="510" spans="1:14" ht="13.5">
+    <row r="510" spans="1:14" ht="16">
       <c r="A510" s="2"/>
       <c r="B510" s="2"/>
       <c r="C510" s="2"/>
@@ -8753,7 +8753,7 @@
       <c r="M510" s="7"/>
       <c r="N510" s="7"/>
     </row>
-    <row r="511" spans="1:14" ht="13.5">
+    <row r="511" spans="1:14" ht="16">
       <c r="A511" s="2"/>
       <c r="B511" s="2"/>
       <c r="C511" s="2"/>
@@ -8768,7 +8768,7 @@
       <c r="M511" s="7"/>
       <c r="N511" s="7"/>
     </row>
-    <row r="512" spans="1:14" ht="13.5">
+    <row r="512" spans="1:14" ht="16">
       <c r="A512" s="2"/>
       <c r="B512" s="2"/>
       <c r="C512" s="2"/>
@@ -8783,7 +8783,7 @@
       <c r="M512" s="7"/>
       <c r="N512" s="7"/>
     </row>
-    <row r="513" spans="1:14" ht="13.5">
+    <row r="513" spans="1:14" ht="16">
       <c r="A513" s="2"/>
       <c r="B513" s="2"/>
       <c r="C513" s="2"/>
@@ -8798,7 +8798,7 @@
       <c r="M513" s="7"/>
       <c r="N513" s="7"/>
     </row>
-    <row r="514" spans="1:14" ht="13.5">
+    <row r="514" spans="1:14" ht="16">
       <c r="A514" s="2"/>
       <c r="B514" s="2"/>
       <c r="C514" s="2"/>
@@ -8813,7 +8813,7 @@
       <c r="M514" s="7"/>
       <c r="N514" s="7"/>
     </row>
-    <row r="515" spans="1:14" ht="13.5">
+    <row r="515" spans="1:14" ht="16">
       <c r="A515" s="2"/>
       <c r="B515" s="2"/>
       <c r="C515" s="2"/>
@@ -8828,7 +8828,7 @@
       <c r="M515" s="7"/>
       <c r="N515" s="7"/>
     </row>
-    <row r="516" spans="1:14" ht="13.5">
+    <row r="516" spans="1:14" ht="16">
       <c r="A516" s="2"/>
       <c r="B516" s="2"/>
       <c r="C516" s="2"/>
@@ -8843,7 +8843,7 @@
       <c r="M516" s="7"/>
       <c r="N516" s="7"/>
     </row>
-    <row r="517" spans="1:14" ht="13.5">
+    <row r="517" spans="1:14" ht="16">
       <c r="A517" s="2"/>
       <c r="B517" s="2"/>
       <c r="C517" s="2"/>
@@ -8858,7 +8858,7 @@
       <c r="M517" s="7"/>
       <c r="N517" s="7"/>
     </row>
-    <row r="518" spans="1:14" ht="13.5">
+    <row r="518" spans="1:14" ht="16">
       <c r="A518" s="2"/>
       <c r="B518" s="2"/>
       <c r="C518" s="2"/>
@@ -8873,7 +8873,7 @@
       <c r="M518" s="7"/>
       <c r="N518" s="7"/>
     </row>
-    <row r="519" spans="1:14" ht="13.5">
+    <row r="519" spans="1:14" ht="16">
       <c r="A519" s="2"/>
       <c r="B519" s="2"/>
       <c r="C519" s="2"/>
@@ -8888,7 +8888,7 @@
       <c r="M519" s="7"/>
       <c r="N519" s="7"/>
     </row>
-    <row r="520" spans="1:14" ht="13.5">
+    <row r="520" spans="1:14" ht="16">
       <c r="A520" s="2"/>
       <c r="B520" s="2"/>
       <c r="C520" s="2"/>
@@ -8903,7 +8903,7 @@
       <c r="M520" s="7"/>
       <c r="N520" s="7"/>
     </row>
-    <row r="521" spans="1:14" ht="13.5">
+    <row r="521" spans="1:14" ht="16">
       <c r="A521" s="2"/>
       <c r="B521" s="2"/>
       <c r="C521" s="2"/>
@@ -8918,7 +8918,7 @@
       <c r="M521" s="7"/>
       <c r="N521" s="7"/>
     </row>
-    <row r="522" spans="1:14" ht="13.5">
+    <row r="522" spans="1:14" ht="16">
       <c r="A522" s="2"/>
       <c r="B522" s="2"/>
       <c r="C522" s="2"/>
@@ -8933,7 +8933,7 @@
       <c r="M522" s="7"/>
       <c r="N522" s="7"/>
     </row>
-    <row r="523" spans="1:14" ht="13.5">
+    <row r="523" spans="1:14" ht="16">
       <c r="A523" s="2"/>
       <c r="B523" s="2"/>
       <c r="C523" s="2"/>
@@ -8948,7 +8948,7 @@
       <c r="M523" s="7"/>
       <c r="N523" s="7"/>
     </row>
-    <row r="524" spans="1:14" ht="13.5">
+    <row r="524" spans="1:14" ht="16">
       <c r="A524" s="2"/>
       <c r="B524" s="2"/>
       <c r="C524" s="2"/>
@@ -8963,7 +8963,7 @@
       <c r="M524" s="7"/>
       <c r="N524" s="7"/>
     </row>
-    <row r="525" spans="1:14" ht="13.5">
+    <row r="525" spans="1:14" ht="16">
       <c r="A525" s="2"/>
       <c r="B525" s="2"/>
       <c r="C525" s="2"/>
@@ -8978,7 +8978,7 @@
       <c r="M525" s="7"/>
       <c r="N525" s="7"/>
     </row>
-    <row r="526" spans="1:14" ht="13.5">
+    <row r="526" spans="1:14" ht="16">
       <c r="A526" s="2"/>
       <c r="B526" s="2"/>
       <c r="C526" s="2"/>
@@ -8993,7 +8993,7 @@
       <c r="M526" s="7"/>
       <c r="N526" s="7"/>
     </row>
-    <row r="527" spans="1:14" ht="13.5">
+    <row r="527" spans="1:14" ht="16">
       <c r="A527" s="2"/>
       <c r="B527" s="2"/>
       <c r="C527" s="2"/>
@@ -9008,7 +9008,7 @@
       <c r="M527" s="7"/>
       <c r="N527" s="7"/>
     </row>
-    <row r="528" spans="1:14" ht="13.5">
+    <row r="528" spans="1:14" ht="16">
       <c r="A528" s="2"/>
       <c r="B528" s="2"/>
       <c r="C528" s="2"/>
@@ -9023,7 +9023,7 @@
       <c r="M528" s="7"/>
       <c r="N528" s="7"/>
     </row>
-    <row r="529" spans="1:14" ht="13.5">
+    <row r="529" spans="1:14" ht="16">
       <c r="A529" s="2"/>
       <c r="B529" s="2"/>
       <c r="C529" s="2"/>
@@ -9038,7 +9038,7 @@
       <c r="M529" s="7"/>
       <c r="N529" s="7"/>
     </row>
-    <row r="530" spans="1:14" ht="13.5">
+    <row r="530" spans="1:14" ht="16">
       <c r="A530" s="2"/>
       <c r="B530" s="2"/>
       <c r="C530" s="2"/>
@@ -9053,7 +9053,7 @@
       <c r="M530" s="7"/>
       <c r="N530" s="7"/>
     </row>
-    <row r="531" spans="1:14" ht="13.5">
+    <row r="531" spans="1:14" ht="16">
       <c r="A531" s="2"/>
       <c r="B531" s="2"/>
       <c r="C531" s="2"/>
@@ -9068,7 +9068,7 @@
       <c r="M531" s="7"/>
       <c r="N531" s="7"/>
     </row>
-    <row r="532" spans="1:14" ht="13.5">
+    <row r="532" spans="1:14" ht="16">
       <c r="A532" s="2"/>
       <c r="B532" s="2"/>
       <c r="C532" s="2"/>
@@ -9083,7 +9083,7 @@
       <c r="M532" s="7"/>
       <c r="N532" s="7"/>
     </row>
-    <row r="533" spans="1:14" ht="13.5">
+    <row r="533" spans="1:14" ht="16">
       <c r="A533" s="2"/>
       <c r="B533" s="2"/>
       <c r="C533" s="2"/>
@@ -9098,7 +9098,7 @@
       <c r="M533" s="7"/>
       <c r="N533" s="7"/>
     </row>
-    <row r="534" spans="1:14" ht="13.5">
+    <row r="534" spans="1:14" ht="16">
       <c r="A534" s="2"/>
       <c r="B534" s="2"/>
       <c r="C534" s="2"/>
@@ -9113,7 +9113,7 @@
       <c r="M534" s="7"/>
       <c r="N534" s="7"/>
     </row>
-    <row r="535" spans="1:14" ht="13.5">
+    <row r="535" spans="1:14" ht="16">
       <c r="A535" s="2"/>
       <c r="B535" s="2"/>
       <c r="C535" s="2"/>
@@ -9128,7 +9128,7 @@
       <c r="M535" s="7"/>
       <c r="N535" s="7"/>
     </row>
-    <row r="536" spans="1:14" ht="13.5">
+    <row r="536" spans="1:14" ht="16">
       <c r="A536" s="2"/>
       <c r="B536" s="2"/>
       <c r="C536" s="2"/>
@@ -9143,7 +9143,7 @@
       <c r="M536" s="7"/>
       <c r="N536" s="7"/>
     </row>
-    <row r="537" spans="1:14" ht="13.5">
+    <row r="537" spans="1:14" ht="16">
       <c r="A537" s="2"/>
       <c r="B537" s="2"/>
       <c r="C537" s="2"/>
@@ -9158,7 +9158,7 @@
       <c r="M537" s="7"/>
       <c r="N537" s="7"/>
     </row>
-    <row r="538" spans="1:14" ht="13.5">
+    <row r="538" spans="1:14" ht="16">
       <c r="A538" s="2"/>
       <c r="B538" s="2"/>
       <c r="C538" s="2"/>
@@ -9173,7 +9173,7 @@
       <c r="M538" s="7"/>
       <c r="N538" s="7"/>
     </row>
-    <row r="539" spans="1:14" ht="13.5">
+    <row r="539" spans="1:14" ht="16">
       <c r="A539" s="2"/>
       <c r="B539" s="2"/>
       <c r="C539" s="2"/>
@@ -9188,7 +9188,7 @@
       <c r="M539" s="7"/>
       <c r="N539" s="7"/>
     </row>
-    <row r="540" spans="1:14" ht="13.5">
+    <row r="540" spans="1:14" ht="16">
       <c r="A540" s="2"/>
       <c r="B540" s="2"/>
       <c r="C540" s="2"/>
@@ -9203,7 +9203,7 @@
       <c r="M540" s="7"/>
       <c r="N540" s="7"/>
     </row>
-    <row r="541" spans="1:14" ht="13.5">
+    <row r="541" spans="1:14" ht="16">
       <c r="A541" s="2"/>
       <c r="B541" s="2"/>
       <c r="C541" s="2"/>
@@ -9218,7 +9218,7 @@
       <c r="M541" s="7"/>
       <c r="N541" s="7"/>
     </row>
-    <row r="542" spans="1:14" ht="13.5">
+    <row r="542" spans="1:14" ht="16">
       <c r="A542" s="2"/>
       <c r="B542" s="2"/>
       <c r="C542" s="2"/>
@@ -9233,7 +9233,7 @@
       <c r="M542" s="7"/>
       <c r="N542" s="7"/>
     </row>
-    <row r="543" spans="1:14" ht="13.5">
+    <row r="543" spans="1:14" ht="16">
       <c r="A543" s="2"/>
       <c r="B543" s="2"/>
       <c r="C543" s="2"/>
@@ -9248,7 +9248,7 @@
       <c r="M543" s="7"/>
       <c r="N543" s="7"/>
     </row>
-    <row r="544" spans="1:14" ht="13.5">
+    <row r="544" spans="1:14" ht="16">
       <c r="A544" s="2"/>
       <c r="B544" s="2"/>
       <c r="C544" s="2"/>
@@ -9263,7 +9263,7 @@
       <c r="M544" s="7"/>
       <c r="N544" s="7"/>
     </row>
-    <row r="545" spans="1:14" ht="13.5">
+    <row r="545" spans="1:14" ht="16">
       <c r="A545" s="2"/>
       <c r="B545" s="2"/>
       <c r="C545" s="2"/>
@@ -9278,7 +9278,7 @@
       <c r="M545" s="7"/>
       <c r="N545" s="7"/>
     </row>
-    <row r="546" spans="1:14" ht="13.5">
+    <row r="546" spans="1:14" ht="16">
       <c r="A546" s="2"/>
       <c r="B546" s="2"/>
       <c r="C546" s="2"/>
@@ -9293,7 +9293,7 @@
       <c r="M546" s="7"/>
       <c r="N546" s="7"/>
     </row>
-    <row r="547" spans="1:14" ht="13.5">
+    <row r="547" spans="1:14" ht="16">
       <c r="A547" s="2"/>
       <c r="B547" s="2"/>
       <c r="C547" s="2"/>
@@ -9308,7 +9308,7 @@
       <c r="M547" s="7"/>
       <c r="N547" s="7"/>
     </row>
-    <row r="548" spans="1:14" ht="13.5">
+    <row r="548" spans="1:14" ht="16">
       <c r="A548" s="2"/>
       <c r="B548" s="2"/>
       <c r="C548" s="2"/>
@@ -9323,7 +9323,7 @@
       <c r="M548" s="7"/>
       <c r="N548" s="7"/>
     </row>
-    <row r="549" spans="1:14" ht="13.5">
+    <row r="549" spans="1:14" ht="16">
       <c r="A549" s="2"/>
       <c r="B549" s="2"/>
       <c r="C549" s="2"/>
@@ -9338,7 +9338,7 @@
       <c r="M549" s="7"/>
       <c r="N549" s="7"/>
     </row>
-    <row r="550" spans="1:14" ht="13.5">
+    <row r="550" spans="1:14" ht="16">
       <c r="A550" s="2"/>
       <c r="B550" s="2"/>
       <c r="C550" s="2"/>
@@ -9353,7 +9353,7 @@
       <c r="M550" s="7"/>
       <c r="N550" s="7"/>
     </row>
-    <row r="551" spans="1:14" ht="13.5">
+    <row r="551" spans="1:14" ht="16">
       <c r="A551" s="2"/>
       <c r="B551" s="2"/>
       <c r="C551" s="2"/>
@@ -9368,7 +9368,7 @@
       <c r="M551" s="7"/>
       <c r="N551" s="7"/>
     </row>
-    <row r="552" spans="1:14" ht="13.5">
+    <row r="552" spans="1:14" ht="16">
       <c r="A552" s="2"/>
       <c r="B552" s="2"/>
       <c r="C552" s="2"/>
@@ -9383,7 +9383,7 @@
       <c r="M552" s="7"/>
       <c r="N552" s="7"/>
     </row>
-    <row r="553" spans="1:14" ht="13.5">
+    <row r="553" spans="1:14" ht="16">
       <c r="A553" s="2"/>
       <c r="B553" s="2"/>
       <c r="C553" s="2"/>
@@ -9398,7 +9398,7 @@
       <c r="M553" s="7"/>
       <c r="N553" s="7"/>
     </row>
-    <row r="554" spans="1:14" ht="13.5">
+    <row r="554" spans="1:14" ht="16">
       <c r="A554" s="2"/>
       <c r="B554" s="2"/>
       <c r="C554" s="2"/>
@@ -9413,7 +9413,7 @@
       <c r="M554" s="7"/>
       <c r="N554" s="7"/>
     </row>
-    <row r="555" spans="1:14" ht="13.5">
+    <row r="555" spans="1:14" ht="16">
       <c r="A555" s="2"/>
       <c r="B555" s="2"/>
       <c r="C555" s="2"/>
@@ -9428,7 +9428,7 @@
       <c r="M555" s="7"/>
       <c r="N555" s="7"/>
     </row>
-    <row r="556" spans="1:14" ht="13.5">
+    <row r="556" spans="1:14" ht="16">
       <c r="A556" s="2"/>
       <c r="B556" s="2"/>
       <c r="C556" s="2"/>
@@ -9443,7 +9443,7 @@
       <c r="M556" s="7"/>
       <c r="N556" s="7"/>
     </row>
-    <row r="557" spans="1:14" ht="13.5">
+    <row r="557" spans="1:14" ht="16">
       <c r="A557" s="2"/>
       <c r="B557" s="2"/>
       <c r="C557" s="2"/>
@@ -9458,7 +9458,7 @@
       <c r="M557" s="7"/>
       <c r="N557" s="7"/>
     </row>
-    <row r="558" spans="1:14" ht="13.5">
+    <row r="558" spans="1:14" ht="16">
       <c r="A558" s="2"/>
       <c r="B558" s="2"/>
       <c r="C558" s="2"/>
@@ -9473,7 +9473,7 @@
       <c r="M558" s="7"/>
       <c r="N558" s="7"/>
     </row>
-    <row r="559" spans="1:14" ht="13.5">
+    <row r="559" spans="1:14" ht="16">
       <c r="A559" s="2"/>
       <c r="B559" s="2"/>
       <c r="C559" s="2"/>
@@ -9488,7 +9488,7 @@
       <c r="M559" s="7"/>
       <c r="N559" s="7"/>
     </row>
-    <row r="560" spans="1:14" ht="13.5">
+    <row r="560" spans="1:14" ht="16">
       <c r="A560" s="2"/>
       <c r="B560" s="2"/>
       <c r="C560" s="2"/>
@@ -9503,7 +9503,7 @@
       <c r="M560" s="7"/>
       <c r="N560" s="7"/>
     </row>
-    <row r="561" spans="1:14" ht="13.5">
+    <row r="561" spans="1:14" ht="16">
       <c r="A561" s="2"/>
       <c r="B561" s="2"/>
       <c r="C561" s="2"/>
@@ -9518,7 +9518,7 @@
       <c r="M561" s="7"/>
       <c r="N561" s="7"/>
     </row>
-    <row r="562" spans="1:14" ht="13.5">
+    <row r="562" spans="1:14" ht="16">
       <c r="A562" s="2"/>
       <c r="B562" s="2"/>
       <c r="C562" s="2"/>
@@ -9533,7 +9533,7 @@
       <c r="M562" s="7"/>
       <c r="N562" s="7"/>
     </row>
-    <row r="563" spans="1:14" ht="13.5">
+    <row r="563" spans="1:14" ht="16">
       <c r="A563" s="2"/>
       <c r="B563" s="2"/>
       <c r="C563" s="2"/>
@@ -9548,7 +9548,7 @@
       <c r="M563" s="7"/>
       <c r="N563" s="7"/>
     </row>
-    <row r="564" spans="1:14" ht="13.5">
+    <row r="564" spans="1:14" ht="16">
       <c r="A564" s="2"/>
       <c r="B564" s="2"/>
       <c r="C564" s="2"/>
@@ -9563,7 +9563,7 @@
       <c r="M564" s="7"/>
       <c r="N564" s="7"/>
     </row>
-    <row r="565" spans="1:14" ht="13.5">
+    <row r="565" spans="1:14" ht="16">
       <c r="A565" s="2"/>
       <c r="B565" s="2"/>
       <c r="C565" s="2"/>
@@ -9578,7 +9578,7 @@
       <c r="M565" s="7"/>
       <c r="N565" s="7"/>
     </row>
-    <row r="566" spans="1:14" ht="13.5">
+    <row r="566" spans="1:14" ht="16">
       <c r="A566" s="2"/>
       <c r="B566" s="2"/>
       <c r="C566" s="2"/>
@@ -9593,7 +9593,7 @@
       <c r="M566" s="7"/>
       <c r="N566" s="7"/>
     </row>
-    <row r="567" spans="1:14" ht="13.5">
+    <row r="567" spans="1:14" ht="16">
       <c r="A567" s="2"/>
       <c r="B567" s="2"/>
       <c r="C567" s="2"/>
@@ -9608,7 +9608,7 @@
       <c r="M567" s="7"/>
       <c r="N567" s="7"/>
     </row>
-    <row r="568" spans="1:14" ht="13.5">
+    <row r="568" spans="1:14" ht="16">
       <c r="A568" s="2"/>
       <c r="B568" s="2"/>
       <c r="C568" s="2"/>
@@ -9623,7 +9623,7 @@
       <c r="M568" s="7"/>
       <c r="N568" s="7"/>
     </row>
-    <row r="569" spans="1:14" ht="13.5">
+    <row r="569" spans="1:14" ht="16">
       <c r="A569" s="2"/>
       <c r="B569" s="2"/>
       <c r="C569" s="2"/>
@@ -9638,7 +9638,7 @@
       <c r="M569" s="7"/>
       <c r="N569" s="7"/>
     </row>
-    <row r="570" spans="1:14" ht="13.5">
+    <row r="570" spans="1:14" ht="16">
       <c r="A570" s="2"/>
       <c r="B570" s="2"/>
       <c r="C570" s="2"/>
@@ -9653,7 +9653,7 @@
       <c r="M570" s="7"/>
       <c r="N570" s="7"/>
     </row>
-    <row r="571" spans="1:14" ht="13.5">
+    <row r="571" spans="1:14" ht="16">
       <c r="A571" s="2"/>
       <c r="B571" s="2"/>
       <c r="C571" s="2"/>
@@ -9668,7 +9668,7 @@
       <c r="M571" s="7"/>
       <c r="N571" s="7"/>
     </row>
-    <row r="572" spans="1:14" ht="13.5">
+    <row r="572" spans="1:14" ht="16">
       <c r="A572" s="2"/>
       <c r="B572" s="2"/>
       <c r="C572" s="2"/>
@@ -9683,7 +9683,7 @@
       <c r="M572" s="7"/>
       <c r="N572" s="7"/>
     </row>
-    <row r="573" spans="1:14" ht="13.5">
+    <row r="573" spans="1:14" ht="16">
       <c r="A573" s="2"/>
       <c r="B573" s="2"/>
       <c r="C573" s="2"/>
@@ -9698,7 +9698,7 @@
       <c r="M573" s="7"/>
       <c r="N573" s="7"/>
     </row>
-    <row r="574" spans="1:14" ht="13.5">
+    <row r="574" spans="1:14" ht="16">
       <c r="A574" s="2"/>
       <c r="B574" s="2"/>
       <c r="C574" s="2"/>
@@ -9713,7 +9713,7 @@
       <c r="M574" s="7"/>
       <c r="N574" s="7"/>
     </row>
-    <row r="575" spans="1:14" ht="13.5">
+    <row r="575" spans="1:14" ht="16">
       <c r="A575" s="2"/>
       <c r="B575" s="2"/>
       <c r="C575" s="2"/>
@@ -9728,7 +9728,7 @@
       <c r="M575" s="7"/>
       <c r="N575" s="7"/>
     </row>
-    <row r="576" spans="1:14" ht="13.5">
+    <row r="576" spans="1:14" ht="16">
       <c r="A576" s="2"/>
       <c r="B576" s="2"/>
       <c r="C576" s="2"/>
@@ -9743,7 +9743,7 @@
       <c r="M576" s="7"/>
       <c r="N576" s="7"/>
     </row>
-    <row r="577" spans="1:14" ht="13.5">
+    <row r="577" spans="1:14" ht="16">
       <c r="A577" s="2"/>
       <c r="B577" s="2"/>
       <c r="C577" s="2"/>
@@ -9758,7 +9758,7 @@
       <c r="M577" s="7"/>
       <c r="N577" s="7"/>
     </row>
-    <row r="578" spans="1:14" ht="13.5">
+    <row r="578" spans="1:14" ht="16">
       <c r="A578" s="2"/>
       <c r="B578" s="2"/>
       <c r="C578" s="2"/>
@@ -9773,7 +9773,7 @@
       <c r="M578" s="7"/>
       <c r="N578" s="7"/>
     </row>
-    <row r="579" spans="1:14" ht="13.5">
+    <row r="579" spans="1:14" ht="16">
       <c r="A579" s="2"/>
       <c r="B579" s="2"/>
       <c r="C579" s="2"/>
@@ -9788,7 +9788,7 @@
       <c r="M579" s="7"/>
       <c r="N579" s="7"/>
     </row>
-    <row r="580" spans="1:14" ht="13.5">
+    <row r="580" spans="1:14" ht="16">
       <c r="A580" s="2"/>
       <c r="B580" s="2"/>
       <c r="C580" s="2"/>
@@ -9803,7 +9803,7 @@
       <c r="M580" s="7"/>
       <c r="N580" s="7"/>
     </row>
-    <row r="581" spans="1:14" ht="13.5">
+    <row r="581" spans="1:14" ht="16">
       <c r="A581" s="2"/>
       <c r="B581" s="2"/>
       <c r="C581" s="2"/>
@@ -9818,7 +9818,7 @@
       <c r="M581" s="7"/>
       <c r="N581" s="7"/>
     </row>
-    <row r="582" spans="1:14" ht="13.5">
+    <row r="582" spans="1:14" ht="16">
       <c r="A582" s="2"/>
       <c r="B582" s="2"/>
       <c r="C582" s="2"/>
@@ -9833,7 +9833,7 @@
       <c r="M582" s="7"/>
       <c r="N582" s="7"/>
     </row>
-    <row r="583" spans="1:14" ht="13.5">
+    <row r="583" spans="1:14" ht="16">
       <c r="A583" s="2"/>
       <c r="B583" s="2"/>
       <c r="C583" s="2"/>
@@ -9848,7 +9848,7 @@
       <c r="M583" s="7"/>
       <c r="N583" s="7"/>
     </row>
-    <row r="584" spans="1:14" ht="13.5">
+    <row r="584" spans="1:14" ht="16">
       <c r="A584" s="2"/>
       <c r="B584" s="2"/>
       <c r="C584" s="2"/>
@@ -9863,7 +9863,7 @@
       <c r="M584" s="7"/>
       <c r="N584" s="7"/>
     </row>
-    <row r="585" spans="1:14" ht="13.5">
+    <row r="585" spans="1:14" ht="16">
       <c r="A585" s="2"/>
       <c r="B585" s="2"/>
       <c r="C585" s="2"/>
@@ -9878,7 +9878,7 @@
       <c r="M585" s="7"/>
       <c r="N585" s="7"/>
     </row>
-    <row r="586" spans="1:14" ht="13.5">
+    <row r="586" spans="1:14" ht="16">
       <c r="A586" s="2"/>
       <c r="B586" s="2"/>
       <c r="C586" s="2"/>
@@ -9893,7 +9893,7 @@
       <c r="M586" s="7"/>
       <c r="N586" s="7"/>
     </row>
-    <row r="587" spans="1:14" ht="13.5">
+    <row r="587" spans="1:14" ht="16">
       <c r="A587" s="2"/>
       <c r="B587" s="2"/>
       <c r="C587" s="2"/>
@@ -9908,7 +9908,7 @@
       <c r="M587" s="7"/>
       <c r="N587" s="7"/>
     </row>
-    <row r="588" spans="1:14" ht="13.5">
+    <row r="588" spans="1:14" ht="16">
       <c r="A588" s="2"/>
       <c r="B588" s="2"/>
       <c r="C588" s="2"/>
@@ -9923,7 +9923,7 @@
       <c r="M588" s="7"/>
       <c r="N588" s="7"/>
     </row>
-    <row r="589" spans="1:14" ht="13.5">
+    <row r="589" spans="1:14" ht="16">
       <c r="A589" s="2"/>
       <c r="B589" s="2"/>
       <c r="C589" s="2"/>
@@ -9938,7 +9938,7 @@
       <c r="M589" s="7"/>
       <c r="N589" s="7"/>
     </row>
-    <row r="590" spans="1:14" ht="13.5">
+    <row r="590" spans="1:14" ht="16">
       <c r="A590" s="2"/>
       <c r="B590" s="2"/>
       <c r="C590" s="2"/>
@@ -9953,7 +9953,7 @@
       <c r="M590" s="7"/>
       <c r="N590" s="7"/>
     </row>
-    <row r="591" spans="1:14" ht="13.5">
+    <row r="591" spans="1:14" ht="16">
       <c r="A591" s="2"/>
       <c r="B591" s="2"/>
       <c r="C591" s="2"/>
@@ -9968,7 +9968,7 @@
       <c r="M591" s="7"/>
       <c r="N591" s="7"/>
     </row>
-    <row r="592" spans="1:14" ht="13.5">
+    <row r="592" spans="1:14" ht="16">
       <c r="A592" s="2"/>
       <c r="B592" s="2"/>
       <c r="C592" s="2"/>
@@ -9983,7 +9983,7 @@
       <c r="M592" s="7"/>
       <c r="N592" s="7"/>
     </row>
-    <row r="593" spans="1:14" ht="13.5">
+    <row r="593" spans="1:14" ht="16">
       <c r="A593" s="2"/>
       <c r="B593" s="2"/>
       <c r="C593" s="2"/>
@@ -9998,7 +9998,7 @@
       <c r="M593" s="7"/>
       <c r="N593" s="7"/>
     </row>
-    <row r="594" spans="1:14" ht="13.5">
+    <row r="594" spans="1:14" ht="16">
       <c r="A594" s="2"/>
       <c r="B594" s="2"/>
       <c r="C594" s="2"/>
@@ -10013,7 +10013,7 @@
       <c r="M594" s="7"/>
       <c r="N594" s="7"/>
     </row>
-    <row r="595" spans="1:14" ht="13.5">
+    <row r="595" spans="1:14" ht="16">
       <c r="A595" s="2"/>
       <c r="B595" s="2"/>
       <c r="C595" s="2"/>
@@ -10028,7 +10028,7 @@
       <c r="M595" s="7"/>
       <c r="N595" s="7"/>
     </row>
-    <row r="596" spans="1:14" ht="13.5">
+    <row r="596" spans="1:14" ht="16">
       <c r="A596" s="2"/>
       <c r="B596" s="2"/>
       <c r="C596" s="2"/>
@@ -10043,7 +10043,7 @@
       <c r="M596" s="7"/>
       <c r="N596" s="7"/>
     </row>
-    <row r="597" spans="1:14" ht="13.5">
+    <row r="597" spans="1:14" ht="16">
       <c r="A597" s="2"/>
       <c r="B597" s="2"/>
       <c r="C597" s="2"/>
@@ -10058,7 +10058,7 @@
       <c r="M597" s="7"/>
       <c r="N597" s="7"/>
     </row>
-    <row r="598" spans="1:14" ht="13.5">
+    <row r="598" spans="1:14" ht="16">
       <c r="A598" s="2"/>
       <c r="B598" s="2"/>
       <c r="C598" s="2"/>
@@ -10073,7 +10073,7 @@
       <c r="M598" s="7"/>
       <c r="N598" s="7"/>
     </row>
-    <row r="599" spans="1:14" ht="13.5">
+    <row r="599" spans="1:14" ht="16">
       <c r="A599" s="2"/>
       <c r="B599" s="2"/>
       <c r="C599" s="2"/>
@@ -10088,7 +10088,7 @@
       <c r="M599" s="7"/>
       <c r="N599" s="7"/>
     </row>
-    <row r="600" spans="1:14" ht="13.5">
+    <row r="600" spans="1:14" ht="16">
       <c r="A600" s="2"/>
       <c r="B600" s="2"/>
       <c r="C600" s="2"/>
@@ -10103,7 +10103,7 @@
       <c r="M600" s="7"/>
       <c r="N600" s="7"/>
     </row>
-    <row r="601" spans="1:14" ht="13.5">
+    <row r="601" spans="1:14" ht="16">
       <c r="A601" s="2"/>
       <c r="B601" s="2"/>
       <c r="C601" s="2"/>
@@ -10118,7 +10118,7 @@
       <c r="M601" s="7"/>
       <c r="N601" s="7"/>
     </row>
-    <row r="602" spans="1:14" ht="13.5">
+    <row r="602" spans="1:14" ht="16">
       <c r="A602" s="2"/>
       <c r="B602" s="2"/>
       <c r="C602" s="2"/>
@@ -10133,7 +10133,7 @@
       <c r="M602" s="7"/>
       <c r="N602" s="7"/>
     </row>
-    <row r="603" spans="1:14" ht="13.5">
+    <row r="603" spans="1:14" ht="16">
       <c r="A603" s="2"/>
       <c r="B603" s="2"/>
       <c r="C603" s="2"/>
@@ -10148,7 +10148,7 @@
       <c r="M603" s="7"/>
       <c r="N603" s="7"/>
     </row>
-    <row r="604" spans="1:14" ht="13.5">
+    <row r="604" spans="1:14" ht="16">
       <c r="A604" s="2"/>
       <c r="B604" s="2"/>
       <c r="C604" s="2"/>
@@ -10163,7 +10163,7 @@
       <c r="M604" s="7"/>
       <c r="N604" s="7"/>
     </row>
-    <row r="605" spans="1:14" ht="13.5">
+    <row r="605" spans="1:14" ht="16">
       <c r="A605" s="2"/>
       <c r="B605" s="2"/>
       <c r="C605" s="2"/>
@@ -10178,7 +10178,7 @@
       <c r="M605" s="7"/>
       <c r="N605" s="7"/>
     </row>
-    <row r="606" spans="1:14" ht="13.5">
+    <row r="606" spans="1:14" ht="16">
       <c r="A606" s="2"/>
       <c r="B606" s="2"/>
       <c r="C606" s="2"/>
@@ -10193,7 +10193,7 @@
       <c r="M606" s="7"/>
       <c r="N606" s="7"/>
     </row>
-    <row r="607" spans="1:14" ht="13.5">
+    <row r="607" spans="1:14" ht="16">
       <c r="A607" s="2"/>
       <c r="B607" s="2"/>
       <c r="C607" s="2"/>
@@ -10208,7 +10208,7 @@
       <c r="M607" s="7"/>
       <c r="N607" s="7"/>
     </row>
-    <row r="608" spans="1:14" ht="13.5">
+    <row r="608" spans="1:14" ht="16">
       <c r="A608" s="2"/>
       <c r="B608" s="2"/>
       <c r="C608" s="2"/>
@@ -10223,7 +10223,7 @@
       <c r="M608" s="7"/>
       <c r="N608" s="7"/>
     </row>
-    <row r="609" spans="1:14" ht="13.5">
+    <row r="609" spans="1:14" ht="16">
       <c r="A609" s="2"/>
       <c r="B609" s="2"/>
       <c r="C609" s="2"/>
@@ -10238,7 +10238,7 @@
       <c r="M609" s="7"/>
       <c r="N609" s="7"/>
     </row>
-    <row r="610" spans="1:14" ht="13.5">
+    <row r="610" spans="1:14" ht="16">
       <c r="A610" s="2"/>
       <c r="B610" s="2"/>
       <c r="C610" s="2"/>
@@ -10253,7 +10253,7 @@
       <c r="M610" s="7"/>
       <c r="N610" s="7"/>
     </row>
-    <row r="611" spans="1:14" ht="13.5">
+    <row r="611" spans="1:14" ht="16">
       <c r="A611" s="2"/>
       <c r="B611" s="2"/>
       <c r="C611" s="2"/>
@@ -10268,7 +10268,7 @@
       <c r="M611" s="7"/>
       <c r="N611" s="7"/>
     </row>
-    <row r="612" spans="1:14" ht="13.5">
+    <row r="612" spans="1:14" ht="16">
       <c r="A612" s="2"/>
       <c r="B612" s="2"/>
       <c r="C612" s="2"/>
@@ -10283,7 +10283,7 @@
       <c r="M612" s="7"/>
       <c r="N612" s="7"/>
     </row>
-    <row r="613" spans="1:14" ht="13.5">
+    <row r="613" spans="1:14" ht="16">
       <c r="A613" s="2"/>
       <c r="B613" s="2"/>
       <c r="C613" s="2"/>
@@ -10298,7 +10298,7 @@
       <c r="M613" s="7"/>
       <c r="N613" s="7"/>
     </row>
-    <row r="614" spans="1:14" ht="13.5">
+    <row r="614" spans="1:14" ht="16">
       <c r="A614" s="2"/>
       <c r="B614" s="2"/>
       <c r="C614" s="2"/>
@@ -10313,7 +10313,7 @@
       <c r="M614" s="7"/>
       <c r="N614" s="7"/>
     </row>
-    <row r="615" spans="1:14" ht="13.5">
+    <row r="615" spans="1:14" ht="16">
       <c r="A615" s="2"/>
       <c r="B615" s="2"/>
       <c r="C615" s="2"/>
@@ -10328,7 +10328,7 @@
       <c r="M615" s="7"/>
       <c r="N615" s="7"/>
     </row>
-    <row r="616" spans="1:14" ht="13.5">
+    <row r="616" spans="1:14" ht="16">
       <c r="A616" s="2"/>
       <c r="B616" s="2"/>
       <c r="C616" s="2"/>
@@ -10343,7 +10343,7 @@
       <c r="M616" s="7"/>
       <c r="N616" s="7"/>
     </row>
-    <row r="617" spans="1:14" ht="13.5">
+    <row r="617" spans="1:14" ht="16">
       <c r="A617" s="2"/>
       <c r="B617" s="2"/>
       <c r="C617" s="2"/>
@@ -10358,7 +10358,7 @@
       <c r="M617" s="7"/>
       <c r="N617" s="7"/>
     </row>
-    <row r="618" spans="1:14" ht="13.5">
+    <row r="618" spans="1:14" ht="16">
       <c r="A618" s="2"/>
       <c r="B618" s="2"/>
       <c r="C618" s="2"/>
@@ -10373,7 +10373,7 @@
       <c r="M618" s="7"/>
       <c r="N618" s="7"/>
     </row>
-    <row r="619" spans="1:14" ht="13.5">
+    <row r="619" spans="1:14" ht="16">
       <c r="A619" s="2"/>
       <c r="B619" s="2"/>
       <c r="C619" s="2"/>
@@ -10388,7 +10388,7 @@
       <c r="M619" s="7"/>
       <c r="N619" s="7"/>
     </row>
-    <row r="620" spans="1:14" ht="13.5">
+    <row r="620" spans="1:14" ht="16">
       <c r="A620" s="2"/>
       <c r="B620" s="2"/>
       <c r="C620" s="2"/>
@@ -10403,7 +10403,7 @@
       <c r="M620" s="7"/>
       <c r="N620" s="7"/>
     </row>
-    <row r="621" spans="1:14" ht="13.5">
+    <row r="621" spans="1:14" ht="16">
       <c r="A621" s="2"/>
       <c r="B621" s="2"/>
       <c r="C621" s="2"/>
@@ -10418,7 +10418,7 @@
       <c r="M621" s="7"/>
       <c r="N621" s="7"/>
     </row>
-    <row r="622" spans="1:14" ht="13.5">
+    <row r="622" spans="1:14" ht="16">
       <c r="A622" s="2"/>
       <c r="B622" s="2"/>
       <c r="C622" s="2"/>
@@ -10433,7 +10433,7 @@
       <c r="M622" s="7"/>
       <c r="N622" s="7"/>
     </row>
-    <row r="623" spans="1:14" ht="13.5">
+    <row r="623" spans="1:14" ht="16">
       <c r="A623" s="2"/>
       <c r="B623" s="2"/>
       <c r="C623" s="2"/>
@@ -10448,7 +10448,7 @@
       <c r="M623" s="7"/>
       <c r="N623" s="7"/>
     </row>
-    <row r="624" spans="1:14" ht="13.5">
+    <row r="624" spans="1:14" ht="16">
       <c r="A624" s="2"/>
       <c r="B624" s="2"/>
       <c r="C624" s="2"/>
@@ -10463,7 +10463,7 @@
       <c r="M624" s="7"/>
       <c r="N624" s="7"/>
     </row>
-    <row r="625" spans="1:14" ht="13.5">
+    <row r="625" spans="1:14" ht="16">
       <c r="A625" s="2"/>
       <c r="B625" s="2"/>
       <c r="C625" s="2"/>
@@ -10478,7 +10478,7 @@
       <c r="M625" s="7"/>
       <c r="N625" s="7"/>
     </row>
-    <row r="626" spans="1:14" ht="13.5">
+    <row r="626" spans="1:14" ht="16">
       <c r="A626" s="2"/>
       <c r="B626" s="2"/>
       <c r="C626" s="2"/>
@@ -10493,7 +10493,7 @@
       <c r="M626" s="7"/>
       <c r="N626" s="7"/>
     </row>
-    <row r="627" spans="1:14" ht="13.5">
+    <row r="627" spans="1:14" ht="16">
       <c r="A627" s="2"/>
       <c r="B627" s="2"/>
       <c r="C627" s="2"/>
@@ -10508,7 +10508,7 @@
       <c r="M627" s="7"/>
       <c r="N627" s="7"/>
     </row>
-    <row r="628" spans="1:14" ht="13.5">
+    <row r="628" spans="1:14" ht="16">
       <c r="A628" s="2"/>
       <c r="B628" s="2"/>
       <c r="C628" s="2"/>
@@ -10523,7 +10523,7 @@
       <c r="M628" s="7"/>
       <c r="N628" s="7"/>
     </row>
-    <row r="629" spans="1:14" ht="13.5">
+    <row r="629" spans="1:14" ht="16">
       <c r="A629" s="2"/>
       <c r="B629" s="2"/>
       <c r="C629" s="2"/>
@@ -10538,7 +10538,7 @@
       <c r="M629" s="7"/>
       <c r="N629" s="7"/>
     </row>
-    <row r="630" spans="1:14" ht="13.5">
+    <row r="630" spans="1:14" ht="16">
       <c r="A630" s="2"/>
       <c r="B630" s="2"/>
       <c r="C630" s="2"/>
@@ -10553,7 +10553,7 @@
       <c r="M630" s="7"/>
       <c r="N630" s="7"/>
     </row>
-    <row r="631" spans="1:14" ht="13.5">
+    <row r="631" spans="1:14" ht="16">
       <c r="A631" s="2"/>
       <c r="B631" s="2"/>
       <c r="C631" s="2"/>
@@ -10568,7 +10568,7 @@
       <c r="M631" s="7"/>
       <c r="N631" s="7"/>
     </row>
-    <row r="632" spans="1:14" ht="13.5">
+    <row r="632" spans="1:14" ht="16">
       <c r="A632" s="2"/>
       <c r="B632" s="2"/>
       <c r="C632" s="2"/>
@@ -10583,7 +10583,7 @@
       <c r="M632" s="7"/>
       <c r="N632" s="7"/>
     </row>
-    <row r="633" spans="1:14" ht="13.5">
+    <row r="633" spans="1:14" ht="16">
       <c r="A633" s="2"/>
       <c r="B633" s="2"/>
       <c r="C633" s="2"/>
@@ -10598,7 +10598,7 @@
       <c r="M633" s="7"/>
       <c r="N633" s="7"/>
     </row>
-    <row r="634" spans="1:14" ht="13.5">
+    <row r="634" spans="1:14" ht="16">
       <c r="A634" s="2"/>
       <c r="B634" s="2"/>
       <c r="C634" s="2"/>
@@ -10613,7 +10613,7 @@
       <c r="M634" s="7"/>
       <c r="N634" s="7"/>
     </row>
-    <row r="635" spans="1:14" ht="13.5">
+    <row r="635" spans="1:14" ht="16">
       <c r="A635" s="2"/>
       <c r="B635" s="2"/>
       <c r="C635" s="2"/>
@@ -10628,7 +10628,7 @@
       <c r="M635" s="7"/>
       <c r="N635" s="7"/>
     </row>
-    <row r="636" spans="1:14" ht="13.5">
+    <row r="636" spans="1:14" ht="16">
       <c r="A636" s="2"/>
       <c r="B636" s="2"/>
       <c r="C636" s="2"/>
@@ -10643,7 +10643,7 @@
       <c r="M636" s="7"/>
       <c r="N636" s="7"/>
     </row>
-    <row r="637" spans="1:14" ht="13.5">
+    <row r="637" spans="1:14" ht="16">
       <c r="A637" s="2"/>
       <c r="B637" s="2"/>
       <c r="C637" s="2"/>
@@ -10658,7 +10658,7 @@
       <c r="M637" s="7"/>
       <c r="N637" s="7"/>
     </row>
-    <row r="638" spans="1:14" ht="13.5">
+    <row r="638" spans="1:14" ht="16">
       <c r="A638" s="2"/>
       <c r="B638" s="2"/>
       <c r="C638" s="2"/>
@@ -10673,7 +10673,7 @@
       <c r="M638" s="7"/>
       <c r="N638" s="7"/>
     </row>
-    <row r="639" spans="1:14" ht="13.5">
+    <row r="639" spans="1:14" ht="16">
       <c r="A639" s="2"/>
       <c r="B639" s="2"/>
       <c r="C639" s="2"/>
@@ -10688,7 +10688,7 @@
       <c r="M639" s="7"/>
       <c r="N639" s="7"/>
     </row>
-    <row r="640" spans="1:14" ht="13.5">
+    <row r="640" spans="1:14" ht="16">
       <c r="A640" s="2"/>
       <c r="B640" s="2"/>
       <c r="C640" s="2"/>
@@ -10703,7 +10703,7 @@
       <c r="M640" s="7"/>
       <c r="N640" s="7"/>
     </row>
-    <row r="641" spans="1:14" ht="13.5">
+    <row r="641" spans="1:14" ht="16">
       <c r="A641" s="2"/>
       <c r="B641" s="2"/>
       <c r="C641" s="2"/>
@@ -10718,7 +10718,7 @@
       <c r="M641" s="7"/>
       <c r="N641" s="7"/>
     </row>
-    <row r="642" spans="1:14" ht="13.5">
+    <row r="642" spans="1:14" ht="16">
       <c r="A642" s="2"/>
       <c r="B642" s="2"/>
       <c r="C642" s="2"/>
@@ -10733,7 +10733,7 @@
       <c r="M642" s="7"/>
       <c r="N642" s="7"/>
     </row>
-    <row r="643" spans="1:14" ht="13.5">
+    <row r="643" spans="1:14" ht="16">
       <c r="A643" s="2"/>
       <c r="B643" s="2"/>
       <c r="C643" s="2"/>
@@ -10748,7 +10748,7 @@
       <c r="M643" s="7"/>
       <c r="N643" s="7"/>
     </row>
-    <row r="644" spans="1:14" ht="13.5">
+    <row r="644" spans="1:14" ht="16">
       <c r="A644" s="2"/>
       <c r="B644" s="2"/>
       <c r="C644" s="2"/>
@@ -10763,7 +10763,7 @@
       <c r="M644" s="7"/>
       <c r="N644" s="7"/>
     </row>
-    <row r="645" spans="1:14" ht="13.5">
+    <row r="645" spans="1:14" ht="16">
       <c r="A645" s="2"/>
       <c r="B645" s="2"/>
       <c r="C645" s="2"/>
@@ -10778,7 +10778,7 @@
       <c r="M645" s="7"/>
       <c r="N645" s="7"/>
     </row>
-    <row r="646" spans="1:14" ht="13.5">
+    <row r="646" spans="1:14" ht="16">
       <c r="A646" s="2"/>
       <c r="B646" s="2"/>
       <c r="C646" s="2"/>
@@ -10793,7 +10793,7 @@
       <c r="M646" s="7"/>
       <c r="N646" s="7"/>
     </row>
-    <row r="647" spans="1:14" ht="13.5">
+    <row r="647" spans="1:14" ht="16">
       <c r="A647" s="2"/>
       <c r="B647" s="2"/>
       <c r="C647" s="2"/>
@@ -10808,7 +10808,7 @@
       <c r="M647" s="7"/>
       <c r="N647" s="7"/>
     </row>
-    <row r="648" spans="1:14" ht="13.5">
+    <row r="648" spans="1:14" ht="16">
       <c r="A648" s="2"/>
       <c r="B648" s="2"/>
       <c r="C648" s="2"/>
@@ -10823,7 +10823,7 @@
       <c r="M648" s="7"/>
       <c r="N648" s="7"/>
     </row>
-    <row r="649" spans="1:14" ht="13.5">
+    <row r="649" spans="1:14" ht="16">
       <c r="A649" s="2"/>
       <c r="B649" s="2"/>
       <c r="C649" s="2"/>
@@ -10838,7 +10838,7 @@
       <c r="M649" s="7"/>
       <c r="N649" s="7"/>
     </row>
-    <row r="650" spans="1:14" ht="13.5">
+    <row r="650" spans="1:14" ht="16">
       <c r="A650" s="2"/>
       <c r="B650" s="2"/>
       <c r="C650" s="2"/>
@@ -10853,7 +10853,7 @@
       <c r="M650" s="7"/>
       <c r="N650" s="7"/>
     </row>
-    <row r="651" spans="1:14" ht="13.5">
+    <row r="651" spans="1:14" ht="16">
       <c r="A651" s="2"/>
       <c r="B651" s="2"/>
       <c r="C651" s="2"/>
@@ -10868,7 +10868,7 @@
       <c r="M651" s="7"/>
       <c r="N651" s="7"/>
     </row>
-    <row r="652" spans="1:14" ht="13.5">
+    <row r="652" spans="1:14" ht="16">
       <c r="A652" s="2"/>
       <c r="B652" s="2"/>
       <c r="C652" s="2"/>
@@ -10883,7 +10883,7 @@
       <c r="M652" s="7"/>
       <c r="N652" s="7"/>
     </row>
-    <row r="653" spans="1:14" ht="13.5">
+    <row r="653" spans="1:14" ht="16">
       <c r="A653" s="2"/>
       <c r="B653" s="2"/>
       <c r="C653" s="2"/>
@@ -10898,7 +10898,7 @@
       <c r="M653" s="7"/>
       <c r="N653" s="7"/>
     </row>
-    <row r="654" spans="1:14" ht="13.5">
+    <row r="654" spans="1:14" ht="16">
       <c r="A654" s="2"/>
       <c r="B654" s="2"/>
       <c r="C654" s="2"/>
@@ -10913,7 +10913,7 @@
       <c r="M654" s="7"/>
       <c r="N654" s="7"/>
     </row>
-    <row r="655" spans="1:14" ht="13.5">
+    <row r="655" spans="1:14" ht="16">
       <c r="A655" s="2"/>
       <c r="B655" s="2"/>
       <c r="C655" s="2"/>
@@ -10928,7 +10928,7 @@
       <c r="M655" s="7"/>
       <c r="N655" s="7"/>
     </row>
-    <row r="656" spans="1:14" ht="13.5">
+    <row r="656" spans="1:14" ht="16">
       <c r="A656" s="2"/>
       <c r="B656" s="2"/>
       <c r="C656" s="2"/>
@@ -10943,7 +10943,7 @@
       <c r="M656" s="7"/>
       <c r="N656" s="7"/>
     </row>
-    <row r="657" spans="1:14" ht="13.5">
+    <row r="657" spans="1:14" ht="16">
       <c r="A657" s="2"/>
       <c r="B657" s="2"/>
       <c r="C657" s="2"/>
@@ -10958,7 +10958,7 @@
       <c r="M657" s="7"/>
       <c r="N657" s="7"/>
     </row>
-    <row r="658" spans="1:14" ht="13.5">
+    <row r="658" spans="1:14" ht="16">
       <c r="A658" s="2"/>
       <c r="B658" s="2"/>
       <c r="C658" s="2"/>
@@ -10973,7 +10973,7 @@
       <c r="M658" s="7"/>
       <c r="N658" s="7"/>
     </row>
-    <row r="659" spans="1:14" ht="13.5">
+    <row r="659" spans="1:14" ht="16">
       <c r="A659" s="2"/>
       <c r="B659" s="2"/>
       <c r="C659" s="2"/>
@@ -10988,7 +10988,7 @@
       <c r="M659" s="7"/>
       <c r="N659" s="7"/>
     </row>
-    <row r="660" spans="1:14" ht="13.5">
+    <row r="660" spans="1:14" ht="16">
       <c r="A660" s="2"/>
       <c r="B660" s="2"/>
       <c r="C660" s="2"/>
@@ -11003,7 +11003,7 @@
       <c r="M660" s="7"/>
       <c r="N660" s="7"/>
     </row>
-    <row r="661" spans="1:14" ht="13.5">
+    <row r="661" spans="1:14" ht="16">
       <c r="A661" s="2"/>
       <c r="B661" s="2"/>
       <c r="C661" s="2"/>
@@ -11018,7 +11018,7 @@
       <c r="M661" s="7"/>
       <c r="N661" s="7"/>
     </row>
-    <row r="662" spans="1:14" ht="13.5">
+    <row r="662" spans="1:14" ht="16">
       <c r="A662" s="2"/>
       <c r="B662" s="2"/>
       <c r="C662" s="2"/>
@@ -11033,7 +11033,7 @@
       <c r="M662" s="7"/>
       <c r="N662" s="7"/>
     </row>
-    <row r="663" spans="1:14" ht="13.5">
+    <row r="663" spans="1:14" ht="16">
       <c r="A663" s="2"/>
       <c r="B663" s="2"/>
       <c r="C663" s="2"/>
@@ -11048,7 +11048,7 @@
       <c r="M663" s="7"/>
       <c r="N663" s="7"/>
     </row>
-    <row r="664" spans="1:14" ht="13.5">
+    <row r="664" spans="1:14" ht="16">
       <c r="A664" s="2"/>
       <c r="B664" s="2"/>
       <c r="C664" s="2"/>
@@ -11063,7 +11063,7 @@
       <c r="M664" s="7"/>
       <c r="N664" s="7"/>
     </row>
-    <row r="665" spans="1:14" ht="13.5">
+    <row r="665" spans="1:14" ht="16">
       <c r="A665" s="2"/>
       <c r="B665" s="2"/>
       <c r="C665" s="2"/>
@@ -11078,7 +11078,7 @@
       <c r="M665" s="7"/>
       <c r="N665" s="7"/>
     </row>
-    <row r="666" spans="1:14" ht="13.5">
+    <row r="666" spans="1:14" ht="16">
       <c r="A666" s="2"/>
       <c r="B666" s="2"/>
       <c r="C666" s="2"/>
@@ -11093,7 +11093,7 @@
       <c r="M666" s="7"/>
       <c r="N666" s="7"/>
     </row>
-    <row r="667" spans="1:14" ht="13.5">
+    <row r="667" spans="1:14" ht="16">
       <c r="A667" s="2"/>
       <c r="B667" s="2"/>
       <c r="C667" s="2"/>
@@ -11108,7 +11108,7 @@
       <c r="M667" s="7"/>
       <c r="N667" s="7"/>
     </row>
-    <row r="668" spans="1:14" ht="13.5">
+    <row r="668" spans="1:14" ht="16">
       <c r="A668" s="2"/>
       <c r="B668" s="2"/>
       <c r="C668" s="2"/>
@@ -11123,7 +11123,7 @@
       <c r="M668" s="7"/>
       <c r="N668" s="7"/>
     </row>
-    <row r="669" spans="1:14" ht="13.5">
+    <row r="669" spans="1:14" ht="16">
       <c r="A669" s="2"/>
       <c r="B669" s="2"/>
       <c r="C669" s="2"/>
@@ -11138,7 +11138,7 @@
       <c r="M669" s="7"/>
       <c r="N669" s="7"/>
     </row>
-    <row r="670" spans="1:14" ht="13.5">
+    <row r="670" spans="1:14" ht="16">
       <c r="A670" s="2"/>
       <c r="B670" s="2"/>
       <c r="C670" s="2"/>
@@ -11153,7 +11153,7 @@
       <c r="M670" s="7"/>
       <c r="N670" s="7"/>
     </row>
-    <row r="671" spans="1:14" ht="13.5">
+    <row r="671" spans="1:14" ht="16">
       <c r="A671" s="2"/>
       <c r="B671" s="2"/>
       <c r="C671" s="2"/>
@@ -11168,7 +11168,7 @@
       <c r="M671" s="7"/>
       <c r="N671" s="7"/>
     </row>
-    <row r="672" spans="1:14" ht="13.5">
+    <row r="672" spans="1:14" ht="16">
       <c r="A672" s="2"/>
       <c r="B672" s="2"/>
       <c r="C672" s="2"/>
@@ -11183,7 +11183,7 @@
       <c r="M672" s="7"/>
       <c r="N672" s="7"/>
     </row>
-    <row r="673" spans="1:14" ht="13.5">
+    <row r="673" spans="1:14" ht="16">
       <c r="A673" s="2"/>
       <c r="B673" s="2"/>
       <c r="C673" s="2"/>
@@ -11198,7 +11198,7 @@
       <c r="M673" s="7"/>
       <c r="N673" s="7"/>
     </row>
-    <row r="674" spans="1:14" ht="13.5">
+    <row r="674" spans="1:14" ht="16">
       <c r="A674" s="2"/>
       <c r="B674" s="2"/>
       <c r="C674" s="2"/>
@@ -11213,7 +11213,7 @@
       <c r="M674" s="7"/>
       <c r="N674" s="7"/>
     </row>
-    <row r="675" spans="1:14" ht="13.5">
+    <row r="675" spans="1:14" ht="16">
       <c r="A675" s="2"/>
       <c r="B675" s="2"/>
       <c r="C675" s="2"/>
@@ -11228,7 +11228,7 @@
       <c r="M675" s="7"/>
       <c r="N675" s="7"/>
     </row>
-    <row r="676" spans="1:14" ht="13.5">
+    <row r="676" spans="1:14" ht="16">
       <c r="A676" s="2"/>
       <c r="B676" s="2"/>
       <c r="C676" s="2"/>
@@ -11243,7 +11243,7 @@
       <c r="M676" s="7"/>
       <c r="N676" s="7"/>
     </row>
-    <row r="677" spans="1:14" ht="13.5">
+    <row r="677" spans="1:14" ht="16">
       <c r="A677" s="2"/>
       <c r="B677" s="2"/>
       <c r="C677" s="2"/>
@@ -11258,7 +11258,7 @@
       <c r="M677" s="7"/>
       <c r="N677" s="7"/>
     </row>
-    <row r="678" spans="1:14" ht="13.5">
+    <row r="678" spans="1:14" ht="16">
       <c r="A678" s="2"/>
       <c r="B678" s="2"/>
       <c r="C678" s="2"/>
@@ -11273,7 +11273,7 @@
       <c r="M678" s="7"/>
       <c r="N678" s="7"/>
     </row>
-    <row r="679" spans="1:14" ht="13.5">
+    <row r="679" spans="1:14" ht="16">
       <c r="A679" s="2"/>
       <c r="B679" s="2"/>
       <c r="C679" s="2"/>
@@ -11288,7 +11288,7 @@
       <c r="M679" s="7"/>
       <c r="N679" s="7"/>
     </row>
-    <row r="680" spans="1:14" ht="13.5">
+    <row r="680" spans="1:14" ht="16">
       <c r="A680" s="2"/>
       <c r="B680" s="2"/>
       <c r="C680" s="2"/>
@@ -11303,7 +11303,7 @@
       <c r="M680" s="7"/>
       <c r="N680" s="7"/>
     </row>
-    <row r="681" spans="1:14" ht="13.5">
+    <row r="681" spans="1:14" ht="16">
       <c r="A681" s="2"/>
       <c r="B681" s="2"/>
       <c r="C681" s="2"/>
@@ -11318,7 +11318,7 @@
       <c r="M681" s="7"/>
       <c r="N681" s="7"/>
     </row>
-    <row r="682" spans="1:14" ht="13.5">
+    <row r="682" spans="1:14" ht="16">
       <c r="A682" s="2"/>
       <c r="B682" s="2"/>
       <c r="C682" s="2"/>
@@ -11333,7 +11333,7 @@
       <c r="M682" s="7"/>
       <c r="N682" s="7"/>
     </row>
-    <row r="683" spans="1:14" ht="13.5">
+    <row r="683" spans="1:14" ht="16">
       <c r="A683" s="2"/>
       <c r="B683" s="2"/>
       <c r="C683" s="2"/>
@@ -11348,7 +11348,7 @@
       <c r="M683" s="7"/>
       <c r="N683" s="7"/>
     </row>
-    <row r="684" spans="1:14" ht="13.5">
+    <row r="684" spans="1:14" ht="16">
       <c r="A684" s="2"/>
       <c r="B684" s="2"/>
       <c r="C684" s="2"/>
@@ -11363,7 +11363,7 @@
       <c r="M684" s="7"/>
       <c r="N684" s="7"/>
     </row>
-    <row r="685" spans="1:14" ht="13.5">
+    <row r="685" spans="1:14" ht="16">
       <c r="A685" s="2"/>
       <c r="B685" s="2"/>
       <c r="C685" s="2"/>
@@ -11378,7 +11378,7 @@
       <c r="M685" s="7"/>
       <c r="N685" s="7"/>
     </row>
-    <row r="686" spans="1:14" ht="13.5">
+    <row r="686" spans="1:14" ht="16">
       <c r="A686" s="2"/>
       <c r="B686" s="2"/>
       <c r="C686" s="2"/>
@@ -11393,7 +11393,7 @@
       <c r="M686" s="7"/>
       <c r="N686" s="7"/>
     </row>
-    <row r="687" spans="1:14" ht="13.5">
+    <row r="687" spans="1:14" ht="16">
       <c r="A687" s="2"/>
       <c r="B687" s="2"/>
       <c r="C687" s="2"/>
@@ -11408,7 +11408,7 @@
       <c r="M687" s="7"/>
       <c r="N687" s="7"/>
     </row>
-    <row r="688" spans="1:14" ht="13.5">
+    <row r="688" spans="1:14" ht="16">
       <c r="A688" s="2"/>
       <c r="B688" s="2"/>
       <c r="C688" s="2"/>
@@ -11423,7 +11423,7 @@
       <c r="M688" s="7"/>
       <c r="N688" s="7"/>
     </row>
-    <row r="689" spans="1:14" ht="13.5">
+    <row r="689" spans="1:14" ht="16">
       <c r="A689" s="2"/>
       <c r="B689" s="2"/>
       <c r="C689" s="2"/>
@@ -11438,7 +11438,7 @@
       <c r="M689" s="7"/>
       <c r="N689" s="7"/>
     </row>
-    <row r="690" spans="1:14" ht="13.5">
+    <row r="690" spans="1:14" ht="16">
       <c r="A690" s="2"/>
       <c r="B690" s="2"/>
       <c r="C690" s="2"/>
@@ -11453,7 +11453,7 @@
       <c r="M690" s="7"/>
       <c r="N690" s="7"/>
     </row>
-    <row r="691" spans="1:14" ht="13.5">
+    <row r="691" spans="1:14" ht="16">
       <c r="A691" s="2"/>
       <c r="B691" s="2"/>
       <c r="C691" s="2"/>
@@ -11468,7 +11468,7 @@
       <c r="M691" s="7"/>
       <c r="N691" s="7"/>
     </row>
-    <row r="692" spans="1:14" ht="13.5">
+    <row r="692" spans="1:14" ht="16">
       <c r="A692" s="2"/>
       <c r="B692" s="2"/>
       <c r="C692" s="2"/>
@@ -11483,7 +11483,7 @@
       <c r="M692" s="7"/>
       <c r="N692" s="7"/>
     </row>
-    <row r="693" spans="1:14" ht="13.5">
+    <row r="693" spans="1:14" ht="16">
       <c r="A693" s="2"/>
       <c r="B693" s="2"/>
       <c r="C693" s="2"/>
@@ -11498,7 +11498,7 @@
       <c r="M693" s="7"/>
       <c r="N693" s="7"/>
     </row>
-    <row r="694" spans="1:14" ht="13.5">
+    <row r="694" spans="1:14" ht="16">
       <c r="A694" s="2"/>
       <c r="B694" s="2"/>
       <c r="C694" s="2"/>
@@ -11513,7 +11513,7 @@
       <c r="M694" s="7"/>
       <c r="N694" s="7"/>
     </row>
-    <row r="695" spans="1:14" ht="13.5">
+    <row r="695" spans="1:14" ht="16">
       <c r="A695" s="2"/>
       <c r="B695" s="2"/>
       <c r="C695" s="2"/>
@@ -11528,7 +11528,7 @@
       <c r="M695" s="7"/>
       <c r="N695" s="7"/>
     </row>
-    <row r="696" spans="1:14" ht="13.5">
+    <row r="696" spans="1:14" ht="16">
       <c r="A696" s="2"/>
       <c r="B696" s="2"/>
       <c r="C696" s="2"/>
@@ -11543,7 +11543,7 @@
       <c r="M696" s="7"/>
       <c r="N696" s="7"/>
     </row>
-    <row r="697" spans="1:14" ht="13.5">
+    <row r="697" spans="1:14" ht="16">
       <c r="A697" s="2"/>
       <c r="B697" s="2"/>
       <c r="C697" s="2"/>
@@ -11558,7 +11558,7 @@
       <c r="M697" s="7"/>
       <c r="N697" s="7"/>
     </row>
-    <row r="698" spans="1:14" ht="13.5">
+    <row r="698" spans="1:14" ht="16">
       <c r="A698" s="2"/>
       <c r="B698" s="2"/>
       <c r="C698" s="2"/>
@@ -11573,7 +11573,7 @@
       <c r="M698" s="7"/>
       <c r="N698" s="7"/>
     </row>
-    <row r="699" spans="1:14" ht="13.5">
+    <row r="699" spans="1:14" ht="16">
       <c r="A699" s="2"/>
       <c r="B699" s="2"/>
       <c r="C699" s="2"/>
@@ -11588,7 +11588,7 @@
       <c r="M699" s="7"/>
       <c r="N699" s="7"/>
     </row>
-    <row r="700" spans="1:14" ht="13.5">
+    <row r="700" spans="1:14" ht="16">
       <c r="A700" s="2"/>
       <c r="B700" s="2"/>
       <c r="C700" s="2"/>
@@ -11603,7 +11603,7 @@
       <c r="M700" s="7"/>
       <c r="N700" s="7"/>
     </row>
-    <row r="701" spans="1:14" ht="13.5">
+    <row r="701" spans="1:14" ht="16">
       <c r="A701" s="2"/>
       <c r="B701" s="2"/>
       <c r="C701" s="2"/>
@@ -11618,7 +11618,7 @@
       <c r="M701" s="7"/>
       <c r="N701" s="7"/>
     </row>
-    <row r="702" spans="1:14" ht="13.5">
+    <row r="702" spans="1:14" ht="16">
       <c r="A702" s="2"/>
       <c r="B702" s="2"/>
       <c r="C702" s="2"/>
@@ -11633,7 +11633,7 @@
       <c r="M702" s="7"/>
       <c r="N702" s="7"/>
     </row>
-    <row r="703" spans="1:14" ht="13.5">
+    <row r="703" spans="1:14" ht="16">
       <c r="A703" s="2"/>
       <c r="B703" s="2"/>
       <c r="C703" s="2"/>
@@ -11648,7 +11648,7 @@
       <c r="M703" s="7"/>
       <c r="N703" s="7"/>
     </row>
-    <row r="704" spans="1:14" ht="13.5">
+    <row r="704" spans="1:14" ht="16">
       <c r="A704" s="2"/>
       <c r="B704" s="2"/>
       <c r="C704" s="2"/>
@@ -11663,7 +11663,7 @@
       <c r="M704" s="7"/>
       <c r="N704" s="7"/>
     </row>
-    <row r="705" spans="1:14" ht="13.5">
+    <row r="705" spans="1:14" ht="16">
       <c r="A705" s="2"/>
       <c r="B705" s="2"/>
       <c r="C705" s="2"/>
@@ -11678,7 +11678,7 @@
       <c r="M705" s="7"/>
       <c r="N705" s="7"/>
     </row>
-    <row r="706" spans="1:14" ht="13.5">
+    <row r="706" spans="1:14" ht="16">
       <c r="A706" s="2"/>
       <c r="B706" s="2"/>
       <c r="C706" s="2"/>
@@ -11693,7 +11693,7 @@
       <c r="M706" s="7"/>
       <c r="N706" s="7"/>
     </row>
-    <row r="707" spans="1:14" ht="13.5">
+    <row r="707" spans="1:14" ht="16">
       <c r="A707" s="2"/>
       <c r="B707" s="2"/>
       <c r="C707" s="2"/>
@@ -11708,7 +11708,7 @@
       <c r="M707" s="7"/>
       <c r="N707" s="7"/>
     </row>
-    <row r="708" spans="1:14" ht="13.5">
+    <row r="708" spans="1:14" ht="16">
       <c r="A708" s="2"/>
       <c r="B708" s="2"/>
       <c r="C708" s="2"/>
@@ -11723,7 +11723,7 @@
       <c r="M708" s="7"/>
       <c r="N708" s="7"/>
     </row>
-    <row r="709" spans="1:14" ht="13.5">
+    <row r="709" spans="1:14" ht="16">
       <c r="A709" s="2"/>
       <c r="B709" s="2"/>
       <c r="C709" s="2"/>
@@ -11738,7 +11738,7 @@
       <c r="M709" s="7"/>
       <c r="N709" s="7"/>
     </row>
-    <row r="710" spans="1:14" ht="13.5">
+    <row r="710" spans="1:14" ht="16">
       <c r="A710" s="2"/>
       <c r="B710" s="2"/>
       <c r="C710" s="2"/>
@@ -11753,7 +11753,7 @@
       <c r="M710" s="7"/>
       <c r="N710" s="7"/>
     </row>
-    <row r="711" spans="1:14" ht="13.5">
+    <row r="711" spans="1:14" ht="16">
       <c r="A711" s="2"/>
       <c r="B711" s="2"/>
       <c r="C711" s="2"/>
@@ -11768,7 +11768,7 @@
       <c r="M711" s="7"/>
       <c r="N711" s="7"/>
     </row>
-    <row r="712" spans="1:14" ht="13.5">
+    <row r="712" spans="1:14" ht="16">
       <c r="A712" s="2"/>
       <c r="B712" s="2"/>
       <c r="C712" s="2"/>
@@ -11783,7 +11783,7 @@
       <c r="M712" s="7"/>
       <c r="N712" s="7"/>
     </row>
-    <row r="713" spans="1:14" ht="13.5">
+    <row r="713" spans="1:14" ht="16">
       <c r="A713" s="2"/>
       <c r="B713" s="2"/>
       <c r="C713" s="2"/>
@@ -11798,7 +11798,7 @@
       <c r="M713" s="7"/>
       <c r="N713" s="7"/>
     </row>
-    <row r="714" spans="1:14" ht="13.5">
+    <row r="714" spans="1:14" ht="16">
       <c r="A714" s="2"/>
       <c r="B714" s="2"/>
       <c r="C714" s="2"/>
@@ -11813,7 +11813,7 @@
       <c r="M714" s="7"/>
       <c r="N714" s="7"/>
     </row>
-    <row r="715" spans="1:14" ht="13.5">
+    <row r="715" spans="1:14" ht="16">
       <c r="A715" s="2"/>
       <c r="B715" s="2"/>
       <c r="C715" s="2"/>
@@ -11828,7 +11828,7 @@
       <c r="M715" s="7"/>
       <c r="N715" s="7"/>
     </row>
-    <row r="716" spans="1:14" ht="13.5">
+    <row r="716" spans="1:14" ht="16">
       <c r="A716" s="2"/>
       <c r="B716" s="2"/>
       <c r="C716" s="2"/>
@@ -11843,7 +11843,7 @@
       <c r="M716" s="7"/>
       <c r="N716" s="7"/>
     </row>
-    <row r="717" spans="1:14" ht="13.5">
+    <row r="717" spans="1:14" ht="16">
       <c r="A717" s="2"/>
       <c r="B717" s="2"/>
       <c r="C717" s="2"/>
@@ -11858,7 +11858,7 @@
       <c r="M717" s="7"/>
       <c r="N717" s="7"/>
     </row>
-    <row r="718" spans="1:14" ht="13.5">
+    <row r="718" spans="1:14" ht="16">
       <c r="A718" s="2"/>
       <c r="B718" s="2"/>
       <c r="C718" s="2"/>
@@ -11873,7 +11873,7 @@
       <c r="M718" s="7"/>
       <c r="N718" s="7"/>
     </row>
-    <row r="719" spans="1:14" ht="13.5">
+    <row r="719" spans="1:14" ht="16">
       <c r="A719" s="2"/>
       <c r="B719" s="2"/>
       <c r="C719" s="2"/>
@@ -11888,7 +11888,7 @@
       <c r="M719" s="7"/>
       <c r="N719" s="7"/>
     </row>
-    <row r="720" spans="1:14" ht="13.5">
+    <row r="720" spans="1:14" ht="16">
       <c r="A720" s="2"/>
       <c r="B720" s="2"/>
       <c r="C720" s="2"/>
@@ -11903,7 +11903,7 @@
       <c r="M720" s="7"/>
       <c r="N720" s="7"/>
     </row>
-    <row r="721" spans="1:14" ht="13.5">
+    <row r="721" spans="1:14" ht="16">
       <c r="A721" s="2"/>
       <c r="B721" s="2"/>
       <c r="C721" s="2"/>
@@ -11918,7 +11918,7 @@
       <c r="M721" s="7"/>
       <c r="N721" s="7"/>
     </row>
-    <row r="722" spans="1:14" ht="13.5">
+    <row r="722" spans="1:14" ht="16">
       <c r="A722" s="2"/>
       <c r="B722" s="2"/>
       <c r="C722" s="2"/>
@@ -11933,7 +11933,7 @@
       <c r="M722" s="7"/>
       <c r="N722" s="7"/>
     </row>
-    <row r="723" spans="1:14" ht="13.5">
+    <row r="723" spans="1:14" ht="16">
       <c r="A723" s="2"/>
       <c r="B723" s="2"/>
       <c r="C723" s="2"/>
@@ -11948,7 +11948,7 @@
       <c r="M723" s="7"/>
       <c r="N723" s="7"/>
     </row>
-    <row r="724" spans="1:14" ht="13.5">
+    <row r="724" spans="1:14" ht="16">
       <c r="A724" s="2"/>
       <c r="B724" s="2"/>
       <c r="C724" s="2"/>
@@ -11963,7 +11963,7 @@
       <c r="M724" s="7"/>
       <c r="N724" s="7"/>
     </row>
-    <row r="725" spans="1:14" ht="13.5">
+    <row r="725" spans="1:14" ht="16">
       <c r="A725" s="2"/>
       <c r="B725" s="2"/>
       <c r="C725" s="2"/>
@@ -11978,7 +11978,7 @@
       <c r="M725" s="7"/>
       <c r="N725" s="7"/>
     </row>
-    <row r="726" spans="1:14" ht="13.5">
+    <row r="726" spans="1:14" ht="16">
       <c r="A726" s="2"/>
       <c r="B726" s="2"/>
       <c r="C726" s="2"/>
@@ -11993,7 +11993,7 @@
       <c r="M726" s="7"/>
       <c r="N726" s="7"/>
     </row>
-    <row r="727" spans="1:14" ht="13.5">
+    <row r="727" spans="1:14" ht="16">
       <c r="A727" s="2"/>
       <c r="B727" s="2"/>
       <c r="C727" s="2"/>
@@ -12008,7 +12008,7 @@
       <c r="M727" s="7"/>
       <c r="N727" s="7"/>
     </row>
-    <row r="728" spans="1:14" ht="13.5">
+    <row r="728" spans="1:14" ht="16">
       <c r="A728" s="2"/>
       <c r="B728" s="2"/>
       <c r="C728" s="2"/>
@@ -12023,7 +12023,7 @@
       <c r="M728" s="7"/>
       <c r="N728" s="7"/>
     </row>
-    <row r="729" spans="1:14" ht="13.5">
+    <row r="729" spans="1:14" ht="16">
       <c r="A729" s="2"/>
       <c r="B729" s="2"/>
       <c r="C729" s="2"/>
@@ -12038,7 +12038,7 @@
       <c r="M729" s="7"/>
       <c r="N729" s="7"/>
     </row>
-    <row r="730" spans="1:14" ht="13.5">
+    <row r="730" spans="1:14" ht="16">
       <c r="A730" s="2"/>
       <c r="B730" s="2"/>
       <c r="C730" s="2"/>
@@ -12053,7 +12053,7 @@
       <c r="M730" s="7"/>
       <c r="N730" s="7"/>
     </row>
-    <row r="731" spans="1:14" ht="13.5">
+    <row r="731" spans="1:14" ht="16">
       <c r="A731" s="2"/>
       <c r="B731" s="2"/>
       <c r="C731" s="2"/>
